--- a/PromoCodeTestScenarios.xlsx
+++ b/PromoCodeTestScenarios.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="104">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -272,12 +272,66 @@
   <si>
     <t>Promo code - NEWS300</t>
   </si>
+  <si>
+    <t>Promo code should be removed if user removes any product from cart after applying promo code</t>
+  </si>
+  <si>
+    <t>3.1 Verify if promo code is getting removed if user removes any product from cart after applying promo code</t>
+  </si>
+  <si>
+    <t>1. Add product in cart worth 1000 rs</t>
+  </si>
+  <si>
+    <t>Applied promo code should be removed</t>
+  </si>
+  <si>
+    <t>Promo code removed sucessfully</t>
+  </si>
+  <si>
+    <t>Total amount - 1000 rs</t>
+  </si>
+  <si>
+    <t>Remove 1 product from cart</t>
+  </si>
+  <si>
+    <t>User is able to delete the account after using promo code and recreating the account with same account details</t>
+  </si>
+  <si>
+    <t>4.1 Verify if user is able to delete the account after using promo code and recreating the account with same account details</t>
+  </si>
+  <si>
+    <t>User details are not hard deleted from database</t>
+  </si>
+  <si>
+    <t>User should not be able to apply promo code again</t>
+  </si>
+  <si>
+    <t>User is not able to apply promo code</t>
+  </si>
+  <si>
+    <t>4. Place order</t>
+  </si>
+  <si>
+    <t>5. Delete account</t>
+  </si>
+  <si>
+    <t>6. Rereate account with same account details</t>
+  </si>
+  <si>
+    <t>7. Add product in cart</t>
+  </si>
+  <si>
+    <t>8. Enter promo code</t>
+  </si>
+  <si>
+    <t>9. Click on apply promo code</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -285,17 +339,14 @@
     </font>
     <font>
       <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <b/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font/>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -311,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -321,33 +372,36 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6220,7 +6274,7 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10">
-      <c r="A10" s="10"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="5" t="s">
         <v>66</v>
@@ -6243,23 +6297,23 @@
       <c r="I10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
     </row>
     <row r="11">
       <c r="A11" s="6"/>
@@ -6316,12 +6370,28 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="11"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
     </row>
     <row r="16">
       <c r="B16" s="8"/>
@@ -6329,7 +6399,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="11"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17">
       <c r="B17" s="8"/>
@@ -6337,7 +6407,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="11"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18">
       <c r="B18" s="8"/>
@@ -6345,7 +6415,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="11"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19">
       <c r="B19" s="8"/>
@@ -6353,7 +6423,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="11"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20">
       <c r="B20" s="8"/>
@@ -6361,7 +6431,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="11"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21">
       <c r="B21" s="8"/>
@@ -6369,7 +6439,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="11"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22">
       <c r="B22" s="8"/>
@@ -6377,7 +6447,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="11"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23">
       <c r="B23" s="8"/>
@@ -6385,7 +6455,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="11"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24">
       <c r="B24" s="8"/>
@@ -6393,7 +6463,7 @@
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="11"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25">
       <c r="B25" s="8"/>
@@ -6401,7 +6471,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="11"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26">
       <c r="B26" s="8"/>
@@ -6409,7 +6479,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="11"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27">
       <c r="B27" s="8"/>
@@ -6417,7 +6487,7 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="11"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28">
       <c r="B28" s="8"/>
@@ -6425,7 +6495,7 @@
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="G28" s="8"/>
-      <c r="H28" s="11"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29">
       <c r="B29" s="8"/>
@@ -6433,7 +6503,7 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="11"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30">
       <c r="B30" s="8"/>
@@ -6441,7 +6511,7 @@
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="11"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31">
       <c r="B31" s="8"/>
@@ -6449,7 +6519,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="11"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32">
       <c r="B32" s="8"/>
@@ -6457,7 +6527,7 @@
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="11"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33">
       <c r="B33" s="8"/>
@@ -6465,7 +6535,7 @@
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="11"/>
+      <c r="H33" s="8"/>
     </row>
     <row r="34">
       <c r="B34" s="8"/>
@@ -6473,7 +6543,7 @@
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="G34" s="8"/>
-      <c r="H34" s="11"/>
+      <c r="H34" s="8"/>
     </row>
     <row r="35">
       <c r="B35" s="8"/>
@@ -6481,7 +6551,7 @@
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="11"/>
+      <c r="H35" s="8"/>
     </row>
     <row r="36">
       <c r="B36" s="8"/>
@@ -6489,7 +6559,7 @@
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="G36" s="8"/>
-      <c r="H36" s="11"/>
+      <c r="H36" s="8"/>
     </row>
     <row r="37">
       <c r="B37" s="8"/>
@@ -6497,7 +6567,7 @@
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="G37" s="8"/>
-      <c r="H37" s="11"/>
+      <c r="H37" s="8"/>
     </row>
     <row r="38">
       <c r="B38" s="8"/>
@@ -6505,7 +6575,7 @@
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="G38" s="8"/>
-      <c r="H38" s="11"/>
+      <c r="H38" s="8"/>
     </row>
     <row r="39">
       <c r="B39" s="8"/>
@@ -6513,7 +6583,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="11"/>
+      <c r="H39" s="8"/>
     </row>
     <row r="40">
       <c r="B40" s="8"/>
@@ -6521,7 +6591,7 @@
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="11"/>
+      <c r="H40" s="8"/>
     </row>
     <row r="41">
       <c r="B41" s="8"/>
@@ -6529,7 +6599,7 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="11"/>
+      <c r="H41" s="8"/>
     </row>
     <row r="42">
       <c r="B42" s="8"/>
@@ -6537,7 +6607,7 @@
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="11"/>
+      <c r="H42" s="8"/>
     </row>
     <row r="43">
       <c r="B43" s="8"/>
@@ -6545,7 +6615,7 @@
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="11"/>
+      <c r="H43" s="8"/>
     </row>
     <row r="44">
       <c r="B44" s="8"/>
@@ -6553,7 +6623,7 @@
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="G44" s="8"/>
-      <c r="H44" s="11"/>
+      <c r="H44" s="8"/>
     </row>
     <row r="45">
       <c r="B45" s="8"/>
@@ -6561,7 +6631,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="11"/>
+      <c r="H45" s="8"/>
     </row>
     <row r="46">
       <c r="B46" s="8"/>
@@ -6569,7 +6639,7 @@
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="11"/>
+      <c r="H46" s="8"/>
     </row>
     <row r="47">
       <c r="B47" s="8"/>
@@ -6577,7 +6647,7 @@
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="11"/>
+      <c r="H47" s="8"/>
     </row>
     <row r="48">
       <c r="B48" s="8"/>
@@ -6585,7 +6655,7 @@
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="11"/>
+      <c r="H48" s="8"/>
     </row>
     <row r="49">
       <c r="B49" s="8"/>
@@ -6593,7 +6663,7 @@
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="11"/>
+      <c r="H49" s="8"/>
     </row>
     <row r="50">
       <c r="B50" s="8"/>
@@ -6601,7 +6671,7 @@
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="11"/>
+      <c r="H50" s="8"/>
     </row>
     <row r="51">
       <c r="B51" s="8"/>
@@ -6609,7 +6679,7 @@
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="11"/>
+      <c r="H51" s="8"/>
     </row>
     <row r="52">
       <c r="B52" s="8"/>
@@ -6617,7 +6687,7 @@
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="G52" s="8"/>
-      <c r="H52" s="11"/>
+      <c r="H52" s="8"/>
     </row>
     <row r="53">
       <c r="B53" s="8"/>
@@ -6625,7 +6695,7 @@
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="11"/>
+      <c r="H53" s="8"/>
     </row>
     <row r="54">
       <c r="B54" s="8"/>
@@ -6633,7 +6703,7 @@
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="G54" s="8"/>
-      <c r="H54" s="11"/>
+      <c r="H54" s="8"/>
     </row>
     <row r="55">
       <c r="B55" s="8"/>
@@ -6641,7 +6711,7 @@
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="G55" s="8"/>
-      <c r="H55" s="11"/>
+      <c r="H55" s="8"/>
     </row>
     <row r="56">
       <c r="B56" s="8"/>
@@ -6649,7 +6719,7 @@
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="G56" s="8"/>
-      <c r="H56" s="11"/>
+      <c r="H56" s="8"/>
     </row>
     <row r="57">
       <c r="B57" s="8"/>
@@ -6657,7 +6727,7 @@
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="G57" s="8"/>
-      <c r="H57" s="11"/>
+      <c r="H57" s="8"/>
     </row>
     <row r="58">
       <c r="B58" s="8"/>
@@ -6665,7 +6735,7 @@
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="G58" s="8"/>
-      <c r="H58" s="11"/>
+      <c r="H58" s="8"/>
     </row>
     <row r="59">
       <c r="B59" s="8"/>
@@ -6673,7 +6743,7 @@
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="G59" s="8"/>
-      <c r="H59" s="11"/>
+      <c r="H59" s="8"/>
     </row>
     <row r="60">
       <c r="B60" s="8"/>
@@ -6681,7 +6751,7 @@
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="G60" s="8"/>
-      <c r="H60" s="11"/>
+      <c r="H60" s="8"/>
     </row>
     <row r="61">
       <c r="B61" s="8"/>
@@ -6689,7 +6759,7 @@
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="G61" s="8"/>
-      <c r="H61" s="11"/>
+      <c r="H61" s="8"/>
     </row>
     <row r="62">
       <c r="B62" s="8"/>
@@ -6697,7 +6767,7 @@
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="G62" s="8"/>
-      <c r="H62" s="11"/>
+      <c r="H62" s="8"/>
     </row>
     <row r="63">
       <c r="B63" s="8"/>
@@ -6705,7 +6775,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="G63" s="8"/>
-      <c r="H63" s="11"/>
+      <c r="H63" s="8"/>
     </row>
     <row r="64">
       <c r="B64" s="8"/>
@@ -6713,7 +6783,7 @@
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="G64" s="8"/>
-      <c r="H64" s="11"/>
+      <c r="H64" s="8"/>
     </row>
     <row r="65">
       <c r="B65" s="8"/>
@@ -6721,7 +6791,7 @@
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="G65" s="8"/>
-      <c r="H65" s="11"/>
+      <c r="H65" s="8"/>
     </row>
     <row r="66">
       <c r="B66" s="8"/>
@@ -6729,7 +6799,7 @@
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="G66" s="8"/>
-      <c r="H66" s="11"/>
+      <c r="H66" s="8"/>
     </row>
     <row r="67">
       <c r="B67" s="8"/>
@@ -6737,7 +6807,7 @@
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="G67" s="8"/>
-      <c r="H67" s="11"/>
+      <c r="H67" s="8"/>
     </row>
     <row r="68">
       <c r="B68" s="8"/>
@@ -6745,7 +6815,7 @@
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="G68" s="8"/>
-      <c r="H68" s="11"/>
+      <c r="H68" s="8"/>
     </row>
     <row r="69">
       <c r="B69" s="8"/>
@@ -6753,7 +6823,7 @@
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="G69" s="8"/>
-      <c r="H69" s="11"/>
+      <c r="H69" s="8"/>
     </row>
     <row r="70">
       <c r="B70" s="8"/>
@@ -6761,7 +6831,7 @@
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="G70" s="8"/>
-      <c r="H70" s="11"/>
+      <c r="H70" s="8"/>
     </row>
     <row r="71">
       <c r="B71" s="8"/>
@@ -6769,7 +6839,7 @@
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="G71" s="8"/>
-      <c r="H71" s="11"/>
+      <c r="H71" s="8"/>
     </row>
     <row r="72">
       <c r="B72" s="8"/>
@@ -6777,7 +6847,7 @@
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="G72" s="8"/>
-      <c r="H72" s="11"/>
+      <c r="H72" s="8"/>
     </row>
     <row r="73">
       <c r="B73" s="8"/>
@@ -6785,7 +6855,7 @@
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="G73" s="8"/>
-      <c r="H73" s="11"/>
+      <c r="H73" s="8"/>
     </row>
     <row r="74">
       <c r="B74" s="8"/>
@@ -6793,7 +6863,7 @@
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="G74" s="8"/>
-      <c r="H74" s="11"/>
+      <c r="H74" s="8"/>
     </row>
     <row r="75">
       <c r="B75" s="8"/>
@@ -6801,7 +6871,7 @@
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="G75" s="8"/>
-      <c r="H75" s="11"/>
+      <c r="H75" s="8"/>
     </row>
     <row r="76">
       <c r="B76" s="8"/>
@@ -6809,7 +6879,7 @@
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="G76" s="8"/>
-      <c r="H76" s="11"/>
+      <c r="H76" s="8"/>
     </row>
     <row r="77">
       <c r="B77" s="8"/>
@@ -6817,7 +6887,7 @@
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="G77" s="8"/>
-      <c r="H77" s="11"/>
+      <c r="H77" s="8"/>
     </row>
     <row r="78">
       <c r="B78" s="8"/>
@@ -6825,7 +6895,7 @@
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="G78" s="8"/>
-      <c r="H78" s="11"/>
+      <c r="H78" s="8"/>
     </row>
     <row r="79">
       <c r="B79" s="8"/>
@@ -6833,7 +6903,7 @@
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="G79" s="8"/>
-      <c r="H79" s="11"/>
+      <c r="H79" s="8"/>
     </row>
     <row r="80">
       <c r="B80" s="8"/>
@@ -6841,7 +6911,7 @@
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="G80" s="8"/>
-      <c r="H80" s="11"/>
+      <c r="H80" s="8"/>
     </row>
     <row r="81">
       <c r="B81" s="8"/>
@@ -6849,7 +6919,7 @@
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="G81" s="8"/>
-      <c r="H81" s="11"/>
+      <c r="H81" s="8"/>
     </row>
     <row r="82">
       <c r="B82" s="8"/>
@@ -6857,7 +6927,7 @@
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="G82" s="8"/>
-      <c r="H82" s="11"/>
+      <c r="H82" s="8"/>
     </row>
     <row r="83">
       <c r="B83" s="8"/>
@@ -6865,7 +6935,7 @@
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="G83" s="8"/>
-      <c r="H83" s="11"/>
+      <c r="H83" s="8"/>
     </row>
     <row r="84">
       <c r="B84" s="8"/>
@@ -6873,7 +6943,7 @@
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="G84" s="8"/>
-      <c r="H84" s="11"/>
+      <c r="H84" s="8"/>
     </row>
     <row r="85">
       <c r="B85" s="8"/>
@@ -6881,7 +6951,7 @@
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="G85" s="8"/>
-      <c r="H85" s="11"/>
+      <c r="H85" s="8"/>
     </row>
     <row r="86">
       <c r="B86" s="8"/>
@@ -6889,7 +6959,7 @@
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="G86" s="8"/>
-      <c r="H86" s="11"/>
+      <c r="H86" s="8"/>
     </row>
     <row r="87">
       <c r="B87" s="8"/>
@@ -6897,7 +6967,7 @@
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="G87" s="8"/>
-      <c r="H87" s="11"/>
+      <c r="H87" s="8"/>
     </row>
     <row r="88">
       <c r="B88" s="8"/>
@@ -6905,7 +6975,7 @@
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="G88" s="8"/>
-      <c r="H88" s="11"/>
+      <c r="H88" s="8"/>
     </row>
     <row r="89">
       <c r="B89" s="8"/>
@@ -6913,7 +6983,7 @@
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="G89" s="8"/>
-      <c r="H89" s="11"/>
+      <c r="H89" s="8"/>
     </row>
     <row r="90">
       <c r="B90" s="8"/>
@@ -6921,7 +6991,7 @@
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="G90" s="8"/>
-      <c r="H90" s="11"/>
+      <c r="H90" s="8"/>
     </row>
     <row r="91">
       <c r="B91" s="8"/>
@@ -6929,7 +6999,7 @@
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="G91" s="8"/>
-      <c r="H91" s="11"/>
+      <c r="H91" s="8"/>
     </row>
     <row r="92">
       <c r="B92" s="8"/>
@@ -6937,7 +7007,7 @@
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="G92" s="8"/>
-      <c r="H92" s="11"/>
+      <c r="H92" s="8"/>
     </row>
     <row r="93">
       <c r="B93" s="8"/>
@@ -6945,7 +7015,7 @@
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="G93" s="8"/>
-      <c r="H93" s="11"/>
+      <c r="H93" s="8"/>
     </row>
     <row r="94">
       <c r="B94" s="8"/>
@@ -6953,7 +7023,7 @@
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="G94" s="8"/>
-      <c r="H94" s="11"/>
+      <c r="H94" s="8"/>
     </row>
     <row r="95">
       <c r="B95" s="8"/>
@@ -6961,7 +7031,7 @@
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="G95" s="8"/>
-      <c r="H95" s="11"/>
+      <c r="H95" s="8"/>
     </row>
     <row r="96">
       <c r="B96" s="8"/>
@@ -6969,7 +7039,7 @@
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="G96" s="8"/>
-      <c r="H96" s="11"/>
+      <c r="H96" s="8"/>
     </row>
     <row r="97">
       <c r="B97" s="8"/>
@@ -6977,7 +7047,7 @@
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="G97" s="8"/>
-      <c r="H97" s="11"/>
+      <c r="H97" s="8"/>
     </row>
     <row r="98">
       <c r="B98" s="8"/>
@@ -6985,7 +7055,7 @@
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="G98" s="8"/>
-      <c r="H98" s="11"/>
+      <c r="H98" s="8"/>
     </row>
     <row r="99">
       <c r="B99" s="8"/>
@@ -6993,7 +7063,7 @@
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="G99" s="8"/>
-      <c r="H99" s="11"/>
+      <c r="H99" s="8"/>
     </row>
     <row r="100">
       <c r="B100" s="8"/>
@@ -7001,7 +7071,7 @@
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="G100" s="8"/>
-      <c r="H100" s="11"/>
+      <c r="H100" s="8"/>
     </row>
     <row r="101">
       <c r="B101" s="8"/>
@@ -7009,7 +7079,7 @@
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="G101" s="8"/>
-      <c r="H101" s="11"/>
+      <c r="H101" s="8"/>
     </row>
     <row r="102">
       <c r="B102" s="8"/>
@@ -7017,7 +7087,7 @@
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="G102" s="8"/>
-      <c r="H102" s="11"/>
+      <c r="H102" s="8"/>
     </row>
     <row r="103">
       <c r="B103" s="8"/>
@@ -7025,7 +7095,7 @@
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="G103" s="8"/>
-      <c r="H103" s="11"/>
+      <c r="H103" s="8"/>
     </row>
     <row r="104">
       <c r="B104" s="8"/>
@@ -7033,7 +7103,7 @@
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="G104" s="8"/>
-      <c r="H104" s="11"/>
+      <c r="H104" s="8"/>
     </row>
     <row r="105">
       <c r="B105" s="8"/>
@@ -7041,7 +7111,7 @@
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="G105" s="8"/>
-      <c r="H105" s="11"/>
+      <c r="H105" s="8"/>
     </row>
     <row r="106">
       <c r="B106" s="8"/>
@@ -7049,7 +7119,7 @@
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="G106" s="8"/>
-      <c r="H106" s="11"/>
+      <c r="H106" s="8"/>
     </row>
     <row r="107">
       <c r="B107" s="8"/>
@@ -7057,7 +7127,7 @@
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="G107" s="8"/>
-      <c r="H107" s="11"/>
+      <c r="H107" s="8"/>
     </row>
     <row r="108">
       <c r="B108" s="8"/>
@@ -7065,7 +7135,7 @@
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="G108" s="8"/>
-      <c r="H108" s="11"/>
+      <c r="H108" s="8"/>
     </row>
     <row r="109">
       <c r="B109" s="8"/>
@@ -7073,7 +7143,7 @@
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="G109" s="8"/>
-      <c r="H109" s="11"/>
+      <c r="H109" s="8"/>
     </row>
     <row r="110">
       <c r="B110" s="8"/>
@@ -7081,7 +7151,7 @@
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="G110" s="8"/>
-      <c r="H110" s="11"/>
+      <c r="H110" s="8"/>
     </row>
     <row r="111">
       <c r="B111" s="8"/>
@@ -7089,7 +7159,7 @@
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="G111" s="8"/>
-      <c r="H111" s="11"/>
+      <c r="H111" s="8"/>
     </row>
     <row r="112">
       <c r="B112" s="8"/>
@@ -7097,7 +7167,7 @@
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="G112" s="8"/>
-      <c r="H112" s="11"/>
+      <c r="H112" s="8"/>
     </row>
     <row r="113">
       <c r="B113" s="8"/>
@@ -7105,7 +7175,7 @@
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="G113" s="8"/>
-      <c r="H113" s="11"/>
+      <c r="H113" s="8"/>
     </row>
     <row r="114">
       <c r="B114" s="8"/>
@@ -7113,7 +7183,7 @@
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="G114" s="8"/>
-      <c r="H114" s="11"/>
+      <c r="H114" s="8"/>
     </row>
     <row r="115">
       <c r="B115" s="8"/>
@@ -7121,7 +7191,7 @@
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="G115" s="8"/>
-      <c r="H115" s="11"/>
+      <c r="H115" s="8"/>
     </row>
     <row r="116">
       <c r="B116" s="8"/>
@@ -7129,7 +7199,7 @@
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="G116" s="8"/>
-      <c r="H116" s="11"/>
+      <c r="H116" s="8"/>
     </row>
     <row r="117">
       <c r="B117" s="8"/>
@@ -7137,7 +7207,7 @@
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="G117" s="8"/>
-      <c r="H117" s="11"/>
+      <c r="H117" s="8"/>
     </row>
     <row r="118">
       <c r="B118" s="8"/>
@@ -7145,7 +7215,7 @@
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="G118" s="8"/>
-      <c r="H118" s="11"/>
+      <c r="H118" s="8"/>
     </row>
     <row r="119">
       <c r="B119" s="8"/>
@@ -7153,7 +7223,7 @@
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="G119" s="8"/>
-      <c r="H119" s="11"/>
+      <c r="H119" s="8"/>
     </row>
     <row r="120">
       <c r="B120" s="8"/>
@@ -7161,7 +7231,7 @@
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="G120" s="8"/>
-      <c r="H120" s="11"/>
+      <c r="H120" s="8"/>
     </row>
     <row r="121">
       <c r="B121" s="8"/>
@@ -7169,7 +7239,7 @@
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="G121" s="8"/>
-      <c r="H121" s="11"/>
+      <c r="H121" s="8"/>
     </row>
     <row r="122">
       <c r="B122" s="8"/>
@@ -7177,7 +7247,7 @@
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="G122" s="8"/>
-      <c r="H122" s="11"/>
+      <c r="H122" s="8"/>
     </row>
     <row r="123">
       <c r="B123" s="8"/>
@@ -7185,7 +7255,7 @@
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="G123" s="8"/>
-      <c r="H123" s="11"/>
+      <c r="H123" s="8"/>
     </row>
     <row r="124">
       <c r="B124" s="8"/>
@@ -7193,7 +7263,7 @@
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="G124" s="8"/>
-      <c r="H124" s="11"/>
+      <c r="H124" s="8"/>
     </row>
     <row r="125">
       <c r="B125" s="8"/>
@@ -7201,7 +7271,7 @@
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="G125" s="8"/>
-      <c r="H125" s="11"/>
+      <c r="H125" s="8"/>
     </row>
     <row r="126">
       <c r="B126" s="8"/>
@@ -7209,7 +7279,7 @@
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="G126" s="8"/>
-      <c r="H126" s="11"/>
+      <c r="H126" s="8"/>
     </row>
     <row r="127">
       <c r="B127" s="8"/>
@@ -7217,7 +7287,7 @@
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="G127" s="8"/>
-      <c r="H127" s="11"/>
+      <c r="H127" s="8"/>
     </row>
     <row r="128">
       <c r="B128" s="8"/>
@@ -7225,7 +7295,7 @@
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="G128" s="8"/>
-      <c r="H128" s="11"/>
+      <c r="H128" s="8"/>
     </row>
     <row r="129">
       <c r="B129" s="8"/>
@@ -7233,7 +7303,7 @@
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="G129" s="8"/>
-      <c r="H129" s="11"/>
+      <c r="H129" s="8"/>
     </row>
     <row r="130">
       <c r="B130" s="8"/>
@@ -7241,7 +7311,7 @@
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="G130" s="8"/>
-      <c r="H130" s="11"/>
+      <c r="H130" s="8"/>
     </row>
     <row r="131">
       <c r="B131" s="8"/>
@@ -7249,7 +7319,7 @@
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="G131" s="8"/>
-      <c r="H131" s="11"/>
+      <c r="H131" s="8"/>
     </row>
     <row r="132">
       <c r="B132" s="8"/>
@@ -7257,7 +7327,7 @@
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="G132" s="8"/>
-      <c r="H132" s="11"/>
+      <c r="H132" s="8"/>
     </row>
     <row r="133">
       <c r="B133" s="8"/>
@@ -7265,7 +7335,7 @@
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="G133" s="8"/>
-      <c r="H133" s="11"/>
+      <c r="H133" s="8"/>
     </row>
     <row r="134">
       <c r="B134" s="8"/>
@@ -7273,7 +7343,7 @@
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="G134" s="8"/>
-      <c r="H134" s="11"/>
+      <c r="H134" s="8"/>
     </row>
     <row r="135">
       <c r="B135" s="8"/>
@@ -7281,7 +7351,7 @@
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="G135" s="8"/>
-      <c r="H135" s="11"/>
+      <c r="H135" s="8"/>
     </row>
     <row r="136">
       <c r="B136" s="8"/>
@@ -7289,7 +7359,7 @@
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="G136" s="8"/>
-      <c r="H136" s="11"/>
+      <c r="H136" s="8"/>
     </row>
     <row r="137">
       <c r="B137" s="8"/>
@@ -7297,7 +7367,7 @@
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="G137" s="8"/>
-      <c r="H137" s="11"/>
+      <c r="H137" s="8"/>
     </row>
     <row r="138">
       <c r="B138" s="8"/>
@@ -7305,7 +7375,7 @@
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="G138" s="8"/>
-      <c r="H138" s="11"/>
+      <c r="H138" s="8"/>
     </row>
     <row r="139">
       <c r="B139" s="8"/>
@@ -7313,7 +7383,7 @@
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="G139" s="8"/>
-      <c r="H139" s="11"/>
+      <c r="H139" s="8"/>
     </row>
     <row r="140">
       <c r="B140" s="8"/>
@@ -7321,7 +7391,7 @@
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="G140" s="8"/>
-      <c r="H140" s="11"/>
+      <c r="H140" s="8"/>
     </row>
     <row r="141">
       <c r="B141" s="8"/>
@@ -7329,7 +7399,7 @@
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="G141" s="8"/>
-      <c r="H141" s="11"/>
+      <c r="H141" s="8"/>
     </row>
     <row r="142">
       <c r="B142" s="8"/>
@@ -7337,7 +7407,7 @@
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="G142" s="8"/>
-      <c r="H142" s="11"/>
+      <c r="H142" s="8"/>
     </row>
     <row r="143">
       <c r="B143" s="8"/>
@@ -7345,7 +7415,7 @@
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="G143" s="8"/>
-      <c r="H143" s="11"/>
+      <c r="H143" s="8"/>
     </row>
     <row r="144">
       <c r="B144" s="8"/>
@@ -7353,7 +7423,7 @@
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="G144" s="8"/>
-      <c r="H144" s="11"/>
+      <c r="H144" s="8"/>
     </row>
     <row r="145">
       <c r="B145" s="8"/>
@@ -7361,7 +7431,7 @@
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="G145" s="8"/>
-      <c r="H145" s="11"/>
+      <c r="H145" s="8"/>
     </row>
     <row r="146">
       <c r="B146" s="8"/>
@@ -7369,7 +7439,7 @@
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="G146" s="8"/>
-      <c r="H146" s="11"/>
+      <c r="H146" s="8"/>
     </row>
     <row r="147">
       <c r="B147" s="8"/>
@@ -7377,7 +7447,7 @@
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
       <c r="G147" s="8"/>
-      <c r="H147" s="11"/>
+      <c r="H147" s="8"/>
     </row>
     <row r="148">
       <c r="B148" s="8"/>
@@ -7385,7 +7455,7 @@
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
       <c r="G148" s="8"/>
-      <c r="H148" s="11"/>
+      <c r="H148" s="8"/>
     </row>
     <row r="149">
       <c r="B149" s="8"/>
@@ -7393,7 +7463,7 @@
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
       <c r="G149" s="8"/>
-      <c r="H149" s="11"/>
+      <c r="H149" s="8"/>
     </row>
     <row r="150">
       <c r="B150" s="8"/>
@@ -7401,7 +7471,7 @@
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
       <c r="G150" s="8"/>
-      <c r="H150" s="11"/>
+      <c r="H150" s="8"/>
     </row>
     <row r="151">
       <c r="B151" s="8"/>
@@ -7409,7 +7479,7 @@
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
       <c r="G151" s="8"/>
-      <c r="H151" s="11"/>
+      <c r="H151" s="8"/>
     </row>
     <row r="152">
       <c r="B152" s="8"/>
@@ -7417,7 +7487,7 @@
       <c r="D152" s="8"/>
       <c r="E152" s="8"/>
       <c r="G152" s="8"/>
-      <c r="H152" s="11"/>
+      <c r="H152" s="8"/>
     </row>
     <row r="153">
       <c r="B153" s="8"/>
@@ -7425,7 +7495,7 @@
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
       <c r="G153" s="8"/>
-      <c r="H153" s="11"/>
+      <c r="H153" s="8"/>
     </row>
     <row r="154">
       <c r="B154" s="8"/>
@@ -7433,7 +7503,7 @@
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
       <c r="G154" s="8"/>
-      <c r="H154" s="11"/>
+      <c r="H154" s="8"/>
     </row>
     <row r="155">
       <c r="B155" s="8"/>
@@ -7441,7 +7511,7 @@
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
       <c r="G155" s="8"/>
-      <c r="H155" s="11"/>
+      <c r="H155" s="8"/>
     </row>
     <row r="156">
       <c r="B156" s="8"/>
@@ -7449,7 +7519,7 @@
       <c r="D156" s="8"/>
       <c r="E156" s="8"/>
       <c r="G156" s="8"/>
-      <c r="H156" s="11"/>
+      <c r="H156" s="8"/>
     </row>
     <row r="157">
       <c r="B157" s="8"/>
@@ -7457,7 +7527,7 @@
       <c r="D157" s="8"/>
       <c r="E157" s="8"/>
       <c r="G157" s="8"/>
-      <c r="H157" s="11"/>
+      <c r="H157" s="8"/>
     </row>
     <row r="158">
       <c r="B158" s="8"/>
@@ -7465,7 +7535,7 @@
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
       <c r="G158" s="8"/>
-      <c r="H158" s="11"/>
+      <c r="H158" s="8"/>
     </row>
     <row r="159">
       <c r="B159" s="8"/>
@@ -7473,7 +7543,7 @@
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
       <c r="G159" s="8"/>
-      <c r="H159" s="11"/>
+      <c r="H159" s="8"/>
     </row>
     <row r="160">
       <c r="B160" s="8"/>
@@ -7481,7 +7551,7 @@
       <c r="D160" s="8"/>
       <c r="E160" s="8"/>
       <c r="G160" s="8"/>
-      <c r="H160" s="11"/>
+      <c r="H160" s="8"/>
     </row>
     <row r="161">
       <c r="B161" s="8"/>
@@ -7489,7 +7559,7 @@
       <c r="D161" s="8"/>
       <c r="E161" s="8"/>
       <c r="G161" s="8"/>
-      <c r="H161" s="11"/>
+      <c r="H161" s="8"/>
     </row>
     <row r="162">
       <c r="B162" s="8"/>
@@ -7497,7 +7567,7 @@
       <c r="D162" s="8"/>
       <c r="E162" s="8"/>
       <c r="G162" s="8"/>
-      <c r="H162" s="11"/>
+      <c r="H162" s="8"/>
     </row>
     <row r="163">
       <c r="B163" s="8"/>
@@ -7505,7 +7575,7 @@
       <c r="D163" s="8"/>
       <c r="E163" s="8"/>
       <c r="G163" s="8"/>
-      <c r="H163" s="11"/>
+      <c r="H163" s="8"/>
     </row>
     <row r="164">
       <c r="B164" s="8"/>
@@ -7513,7 +7583,7 @@
       <c r="D164" s="8"/>
       <c r="E164" s="8"/>
       <c r="G164" s="8"/>
-      <c r="H164" s="11"/>
+      <c r="H164" s="8"/>
     </row>
     <row r="165">
       <c r="B165" s="8"/>
@@ -7521,7 +7591,7 @@
       <c r="D165" s="8"/>
       <c r="E165" s="8"/>
       <c r="G165" s="8"/>
-      <c r="H165" s="11"/>
+      <c r="H165" s="8"/>
     </row>
     <row r="166">
       <c r="B166" s="8"/>
@@ -7529,7 +7599,7 @@
       <c r="D166" s="8"/>
       <c r="E166" s="8"/>
       <c r="G166" s="8"/>
-      <c r="H166" s="11"/>
+      <c r="H166" s="8"/>
     </row>
     <row r="167">
       <c r="B167" s="8"/>
@@ -7537,7 +7607,7 @@
       <c r="D167" s="8"/>
       <c r="E167" s="8"/>
       <c r="G167" s="8"/>
-      <c r="H167" s="11"/>
+      <c r="H167" s="8"/>
     </row>
     <row r="168">
       <c r="B168" s="8"/>
@@ -7545,7 +7615,7 @@
       <c r="D168" s="8"/>
       <c r="E168" s="8"/>
       <c r="G168" s="8"/>
-      <c r="H168" s="11"/>
+      <c r="H168" s="8"/>
     </row>
     <row r="169">
       <c r="B169" s="8"/>
@@ -7553,7 +7623,7 @@
       <c r="D169" s="8"/>
       <c r="E169" s="8"/>
       <c r="G169" s="8"/>
-      <c r="H169" s="11"/>
+      <c r="H169" s="8"/>
     </row>
     <row r="170">
       <c r="B170" s="8"/>
@@ -7561,7 +7631,7 @@
       <c r="D170" s="8"/>
       <c r="E170" s="8"/>
       <c r="G170" s="8"/>
-      <c r="H170" s="11"/>
+      <c r="H170" s="8"/>
     </row>
     <row r="171">
       <c r="B171" s="8"/>
@@ -7569,7 +7639,7 @@
       <c r="D171" s="8"/>
       <c r="E171" s="8"/>
       <c r="G171" s="8"/>
-      <c r="H171" s="11"/>
+      <c r="H171" s="8"/>
     </row>
     <row r="172">
       <c r="B172" s="8"/>
@@ -7577,7 +7647,7 @@
       <c r="D172" s="8"/>
       <c r="E172" s="8"/>
       <c r="G172" s="8"/>
-      <c r="H172" s="11"/>
+      <c r="H172" s="8"/>
     </row>
     <row r="173">
       <c r="B173" s="8"/>
@@ -7585,7 +7655,7 @@
       <c r="D173" s="8"/>
       <c r="E173" s="8"/>
       <c r="G173" s="8"/>
-      <c r="H173" s="11"/>
+      <c r="H173" s="8"/>
     </row>
     <row r="174">
       <c r="B174" s="8"/>
@@ -7593,7 +7663,7 @@
       <c r="D174" s="8"/>
       <c r="E174" s="8"/>
       <c r="G174" s="8"/>
-      <c r="H174" s="11"/>
+      <c r="H174" s="8"/>
     </row>
     <row r="175">
       <c r="B175" s="8"/>
@@ -7601,7 +7671,7 @@
       <c r="D175" s="8"/>
       <c r="E175" s="8"/>
       <c r="G175" s="8"/>
-      <c r="H175" s="11"/>
+      <c r="H175" s="8"/>
     </row>
     <row r="176">
       <c r="B176" s="8"/>
@@ -7609,7 +7679,7 @@
       <c r="D176" s="8"/>
       <c r="E176" s="8"/>
       <c r="G176" s="8"/>
-      <c r="H176" s="11"/>
+      <c r="H176" s="8"/>
     </row>
     <row r="177">
       <c r="B177" s="8"/>
@@ -7617,7 +7687,7 @@
       <c r="D177" s="8"/>
       <c r="E177" s="8"/>
       <c r="G177" s="8"/>
-      <c r="H177" s="11"/>
+      <c r="H177" s="8"/>
     </row>
     <row r="178">
       <c r="B178" s="8"/>
@@ -7625,7 +7695,7 @@
       <c r="D178" s="8"/>
       <c r="E178" s="8"/>
       <c r="G178" s="8"/>
-      <c r="H178" s="11"/>
+      <c r="H178" s="8"/>
     </row>
     <row r="179">
       <c r="B179" s="8"/>
@@ -7633,7 +7703,7 @@
       <c r="D179" s="8"/>
       <c r="E179" s="8"/>
       <c r="G179" s="8"/>
-      <c r="H179" s="11"/>
+      <c r="H179" s="8"/>
     </row>
     <row r="180">
       <c r="B180" s="8"/>
@@ -7641,7 +7711,7 @@
       <c r="D180" s="8"/>
       <c r="E180" s="8"/>
       <c r="G180" s="8"/>
-      <c r="H180" s="11"/>
+      <c r="H180" s="8"/>
     </row>
     <row r="181">
       <c r="B181" s="8"/>
@@ -7649,7 +7719,7 @@
       <c r="D181" s="8"/>
       <c r="E181" s="8"/>
       <c r="G181" s="8"/>
-      <c r="H181" s="11"/>
+      <c r="H181" s="8"/>
     </row>
     <row r="182">
       <c r="B182" s="8"/>
@@ -7657,7 +7727,7 @@
       <c r="D182" s="8"/>
       <c r="E182" s="8"/>
       <c r="G182" s="8"/>
-      <c r="H182" s="11"/>
+      <c r="H182" s="8"/>
     </row>
     <row r="183">
       <c r="B183" s="8"/>
@@ -7665,7 +7735,7 @@
       <c r="D183" s="8"/>
       <c r="E183" s="8"/>
       <c r="G183" s="8"/>
-      <c r="H183" s="11"/>
+      <c r="H183" s="8"/>
     </row>
     <row r="184">
       <c r="B184" s="8"/>
@@ -7673,7 +7743,7 @@
       <c r="D184" s="8"/>
       <c r="E184" s="8"/>
       <c r="G184" s="8"/>
-      <c r="H184" s="11"/>
+      <c r="H184" s="8"/>
     </row>
     <row r="185">
       <c r="B185" s="8"/>
@@ -7681,7 +7751,7 @@
       <c r="D185" s="8"/>
       <c r="E185" s="8"/>
       <c r="G185" s="8"/>
-      <c r="H185" s="11"/>
+      <c r="H185" s="8"/>
     </row>
     <row r="186">
       <c r="B186" s="8"/>
@@ -7689,7 +7759,7 @@
       <c r="D186" s="8"/>
       <c r="E186" s="8"/>
       <c r="G186" s="8"/>
-      <c r="H186" s="11"/>
+      <c r="H186" s="8"/>
     </row>
     <row r="187">
       <c r="B187" s="8"/>
@@ -7697,7 +7767,7 @@
       <c r="D187" s="8"/>
       <c r="E187" s="8"/>
       <c r="G187" s="8"/>
-      <c r="H187" s="11"/>
+      <c r="H187" s="8"/>
     </row>
     <row r="188">
       <c r="B188" s="8"/>
@@ -7705,7 +7775,7 @@
       <c r="D188" s="8"/>
       <c r="E188" s="8"/>
       <c r="G188" s="8"/>
-      <c r="H188" s="11"/>
+      <c r="H188" s="8"/>
     </row>
     <row r="189">
       <c r="B189" s="8"/>
@@ -7713,7 +7783,7 @@
       <c r="D189" s="8"/>
       <c r="E189" s="8"/>
       <c r="G189" s="8"/>
-      <c r="H189" s="11"/>
+      <c r="H189" s="8"/>
     </row>
     <row r="190">
       <c r="B190" s="8"/>
@@ -7721,7 +7791,7 @@
       <c r="D190" s="8"/>
       <c r="E190" s="8"/>
       <c r="G190" s="8"/>
-      <c r="H190" s="11"/>
+      <c r="H190" s="8"/>
     </row>
     <row r="191">
       <c r="B191" s="8"/>
@@ -7729,7 +7799,7 @@
       <c r="D191" s="8"/>
       <c r="E191" s="8"/>
       <c r="G191" s="8"/>
-      <c r="H191" s="11"/>
+      <c r="H191" s="8"/>
     </row>
     <row r="192">
       <c r="B192" s="8"/>
@@ -7737,7 +7807,7 @@
       <c r="D192" s="8"/>
       <c r="E192" s="8"/>
       <c r="G192" s="8"/>
-      <c r="H192" s="11"/>
+      <c r="H192" s="8"/>
     </row>
     <row r="193">
       <c r="B193" s="8"/>
@@ -7745,7 +7815,7 @@
       <c r="D193" s="8"/>
       <c r="E193" s="8"/>
       <c r="G193" s="8"/>
-      <c r="H193" s="11"/>
+      <c r="H193" s="8"/>
     </row>
     <row r="194">
       <c r="B194" s="8"/>
@@ -7753,7 +7823,7 @@
       <c r="D194" s="8"/>
       <c r="E194" s="8"/>
       <c r="G194" s="8"/>
-      <c r="H194" s="11"/>
+      <c r="H194" s="8"/>
     </row>
     <row r="195">
       <c r="B195" s="8"/>
@@ -7761,7 +7831,7 @@
       <c r="D195" s="8"/>
       <c r="E195" s="8"/>
       <c r="G195" s="8"/>
-      <c r="H195" s="11"/>
+      <c r="H195" s="8"/>
     </row>
     <row r="196">
       <c r="B196" s="8"/>
@@ -7769,7 +7839,7 @@
       <c r="D196" s="8"/>
       <c r="E196" s="8"/>
       <c r="G196" s="8"/>
-      <c r="H196" s="11"/>
+      <c r="H196" s="8"/>
     </row>
     <row r="197">
       <c r="B197" s="8"/>
@@ -7777,7 +7847,7 @@
       <c r="D197" s="8"/>
       <c r="E197" s="8"/>
       <c r="G197" s="8"/>
-      <c r="H197" s="11"/>
+      <c r="H197" s="8"/>
     </row>
     <row r="198">
       <c r="B198" s="8"/>
@@ -7785,7 +7855,7 @@
       <c r="D198" s="8"/>
       <c r="E198" s="8"/>
       <c r="G198" s="8"/>
-      <c r="H198" s="11"/>
+      <c r="H198" s="8"/>
     </row>
     <row r="199">
       <c r="B199" s="8"/>
@@ -7793,7 +7863,7 @@
       <c r="D199" s="8"/>
       <c r="E199" s="8"/>
       <c r="G199" s="8"/>
-      <c r="H199" s="11"/>
+      <c r="H199" s="8"/>
     </row>
     <row r="200">
       <c r="B200" s="8"/>
@@ -7801,7 +7871,7 @@
       <c r="D200" s="8"/>
       <c r="E200" s="8"/>
       <c r="G200" s="8"/>
-      <c r="H200" s="11"/>
+      <c r="H200" s="8"/>
     </row>
     <row r="201">
       <c r="B201" s="8"/>
@@ -7809,7 +7879,7 @@
       <c r="D201" s="8"/>
       <c r="E201" s="8"/>
       <c r="G201" s="8"/>
-      <c r="H201" s="11"/>
+      <c r="H201" s="8"/>
     </row>
     <row r="202">
       <c r="B202" s="8"/>
@@ -7817,7 +7887,7 @@
       <c r="D202" s="8"/>
       <c r="E202" s="8"/>
       <c r="G202" s="8"/>
-      <c r="H202" s="11"/>
+      <c r="H202" s="8"/>
     </row>
     <row r="203">
       <c r="B203" s="8"/>
@@ -7825,7 +7895,7 @@
       <c r="D203" s="8"/>
       <c r="E203" s="8"/>
       <c r="G203" s="8"/>
-      <c r="H203" s="11"/>
+      <c r="H203" s="8"/>
     </row>
     <row r="204">
       <c r="B204" s="8"/>
@@ -7833,7 +7903,7 @@
       <c r="D204" s="8"/>
       <c r="E204" s="8"/>
       <c r="G204" s="8"/>
-      <c r="H204" s="11"/>
+      <c r="H204" s="8"/>
     </row>
     <row r="205">
       <c r="B205" s="8"/>
@@ -7841,7 +7911,7 @@
       <c r="D205" s="8"/>
       <c r="E205" s="8"/>
       <c r="G205" s="8"/>
-      <c r="H205" s="11"/>
+      <c r="H205" s="8"/>
     </row>
     <row r="206">
       <c r="B206" s="8"/>
@@ -7849,7 +7919,7 @@
       <c r="D206" s="8"/>
       <c r="E206" s="8"/>
       <c r="G206" s="8"/>
-      <c r="H206" s="11"/>
+      <c r="H206" s="8"/>
     </row>
     <row r="207">
       <c r="B207" s="8"/>
@@ -7857,7 +7927,7 @@
       <c r="D207" s="8"/>
       <c r="E207" s="8"/>
       <c r="G207" s="8"/>
-      <c r="H207" s="11"/>
+      <c r="H207" s="8"/>
     </row>
     <row r="208">
       <c r="B208" s="8"/>
@@ -7865,7 +7935,7 @@
       <c r="D208" s="8"/>
       <c r="E208" s="8"/>
       <c r="G208" s="8"/>
-      <c r="H208" s="11"/>
+      <c r="H208" s="8"/>
     </row>
     <row r="209">
       <c r="B209" s="8"/>
@@ -7873,7 +7943,7 @@
       <c r="D209" s="8"/>
       <c r="E209" s="8"/>
       <c r="G209" s="8"/>
-      <c r="H209" s="11"/>
+      <c r="H209" s="8"/>
     </row>
     <row r="210">
       <c r="B210" s="8"/>
@@ -7881,7 +7951,7 @@
       <c r="D210" s="8"/>
       <c r="E210" s="8"/>
       <c r="G210" s="8"/>
-      <c r="H210" s="11"/>
+      <c r="H210" s="8"/>
     </row>
     <row r="211">
       <c r="B211" s="8"/>
@@ -7889,7 +7959,7 @@
       <c r="D211" s="8"/>
       <c r="E211" s="8"/>
       <c r="G211" s="8"/>
-      <c r="H211" s="11"/>
+      <c r="H211" s="8"/>
     </row>
     <row r="212">
       <c r="B212" s="8"/>
@@ -7897,7 +7967,7 @@
       <c r="D212" s="8"/>
       <c r="E212" s="8"/>
       <c r="G212" s="8"/>
-      <c r="H212" s="11"/>
+      <c r="H212" s="8"/>
     </row>
     <row r="213">
       <c r="B213" s="8"/>
@@ -7905,7 +7975,7 @@
       <c r="D213" s="8"/>
       <c r="E213" s="8"/>
       <c r="G213" s="8"/>
-      <c r="H213" s="11"/>
+      <c r="H213" s="8"/>
     </row>
     <row r="214">
       <c r="B214" s="8"/>
@@ -7913,7 +7983,7 @@
       <c r="D214" s="8"/>
       <c r="E214" s="8"/>
       <c r="G214" s="8"/>
-      <c r="H214" s="11"/>
+      <c r="H214" s="8"/>
     </row>
     <row r="215">
       <c r="B215" s="8"/>
@@ -7921,7 +7991,7 @@
       <c r="D215" s="8"/>
       <c r="E215" s="8"/>
       <c r="G215" s="8"/>
-      <c r="H215" s="11"/>
+      <c r="H215" s="8"/>
     </row>
     <row r="216">
       <c r="B216" s="8"/>
@@ -7929,7 +7999,7 @@
       <c r="D216" s="8"/>
       <c r="E216" s="8"/>
       <c r="G216" s="8"/>
-      <c r="H216" s="11"/>
+      <c r="H216" s="8"/>
     </row>
     <row r="217">
       <c r="B217" s="8"/>
@@ -7937,7 +8007,7 @@
       <c r="D217" s="8"/>
       <c r="E217" s="8"/>
       <c r="G217" s="8"/>
-      <c r="H217" s="11"/>
+      <c r="H217" s="8"/>
     </row>
     <row r="218">
       <c r="B218" s="8"/>
@@ -7945,7 +8015,7 @@
       <c r="D218" s="8"/>
       <c r="E218" s="8"/>
       <c r="G218" s="8"/>
-      <c r="H218" s="11"/>
+      <c r="H218" s="8"/>
     </row>
     <row r="219">
       <c r="B219" s="8"/>
@@ -7953,7 +8023,7 @@
       <c r="D219" s="8"/>
       <c r="E219" s="8"/>
       <c r="G219" s="8"/>
-      <c r="H219" s="11"/>
+      <c r="H219" s="8"/>
     </row>
     <row r="220">
       <c r="B220" s="8"/>
@@ -7961,7 +8031,7 @@
       <c r="D220" s="8"/>
       <c r="E220" s="8"/>
       <c r="G220" s="8"/>
-      <c r="H220" s="11"/>
+      <c r="H220" s="8"/>
     </row>
     <row r="221">
       <c r="B221" s="8"/>
@@ -7969,7 +8039,7 @@
       <c r="D221" s="8"/>
       <c r="E221" s="8"/>
       <c r="G221" s="8"/>
-      <c r="H221" s="11"/>
+      <c r="H221" s="8"/>
     </row>
     <row r="222">
       <c r="B222" s="8"/>
@@ -7977,7 +8047,7 @@
       <c r="D222" s="8"/>
       <c r="E222" s="8"/>
       <c r="G222" s="8"/>
-      <c r="H222" s="11"/>
+      <c r="H222" s="8"/>
     </row>
     <row r="223">
       <c r="B223" s="8"/>
@@ -7985,7 +8055,7 @@
       <c r="D223" s="8"/>
       <c r="E223" s="8"/>
       <c r="G223" s="8"/>
-      <c r="H223" s="11"/>
+      <c r="H223" s="8"/>
     </row>
     <row r="224">
       <c r="B224" s="8"/>
@@ -7993,7 +8063,7 @@
       <c r="D224" s="8"/>
       <c r="E224" s="8"/>
       <c r="G224" s="8"/>
-      <c r="H224" s="11"/>
+      <c r="H224" s="8"/>
     </row>
     <row r="225">
       <c r="B225" s="8"/>
@@ -8001,7 +8071,7 @@
       <c r="D225" s="8"/>
       <c r="E225" s="8"/>
       <c r="G225" s="8"/>
-      <c r="H225" s="11"/>
+      <c r="H225" s="8"/>
     </row>
     <row r="226">
       <c r="B226" s="8"/>
@@ -8009,7 +8079,7 @@
       <c r="D226" s="8"/>
       <c r="E226" s="8"/>
       <c r="G226" s="8"/>
-      <c r="H226" s="11"/>
+      <c r="H226" s="8"/>
     </row>
     <row r="227">
       <c r="B227" s="8"/>
@@ -8017,7 +8087,7 @@
       <c r="D227" s="8"/>
       <c r="E227" s="8"/>
       <c r="G227" s="8"/>
-      <c r="H227" s="11"/>
+      <c r="H227" s="8"/>
     </row>
     <row r="228">
       <c r="B228" s="8"/>
@@ -8025,7 +8095,7 @@
       <c r="D228" s="8"/>
       <c r="E228" s="8"/>
       <c r="G228" s="8"/>
-      <c r="H228" s="11"/>
+      <c r="H228" s="8"/>
     </row>
     <row r="229">
       <c r="B229" s="8"/>
@@ -8033,7 +8103,7 @@
       <c r="D229" s="8"/>
       <c r="E229" s="8"/>
       <c r="G229" s="8"/>
-      <c r="H229" s="11"/>
+      <c r="H229" s="8"/>
     </row>
     <row r="230">
       <c r="B230" s="8"/>
@@ -8041,7 +8111,7 @@
       <c r="D230" s="8"/>
       <c r="E230" s="8"/>
       <c r="G230" s="8"/>
-      <c r="H230" s="11"/>
+      <c r="H230" s="8"/>
     </row>
     <row r="231">
       <c r="B231" s="8"/>
@@ -8049,7 +8119,7 @@
       <c r="D231" s="8"/>
       <c r="E231" s="8"/>
       <c r="G231" s="8"/>
-      <c r="H231" s="11"/>
+      <c r="H231" s="8"/>
     </row>
     <row r="232">
       <c r="B232" s="8"/>
@@ -8057,7 +8127,7 @@
       <c r="D232" s="8"/>
       <c r="E232" s="8"/>
       <c r="G232" s="8"/>
-      <c r="H232" s="11"/>
+      <c r="H232" s="8"/>
     </row>
     <row r="233">
       <c r="B233" s="8"/>
@@ -8065,7 +8135,7 @@
       <c r="D233" s="8"/>
       <c r="E233" s="8"/>
       <c r="G233" s="8"/>
-      <c r="H233" s="11"/>
+      <c r="H233" s="8"/>
     </row>
     <row r="234">
       <c r="B234" s="8"/>
@@ -8073,7 +8143,7 @@
       <c r="D234" s="8"/>
       <c r="E234" s="8"/>
       <c r="G234" s="8"/>
-      <c r="H234" s="11"/>
+      <c r="H234" s="8"/>
     </row>
     <row r="235">
       <c r="B235" s="8"/>
@@ -8081,7 +8151,7 @@
       <c r="D235" s="8"/>
       <c r="E235" s="8"/>
       <c r="G235" s="8"/>
-      <c r="H235" s="11"/>
+      <c r="H235" s="8"/>
     </row>
     <row r="236">
       <c r="B236" s="8"/>
@@ -8089,7 +8159,7 @@
       <c r="D236" s="8"/>
       <c r="E236" s="8"/>
       <c r="G236" s="8"/>
-      <c r="H236" s="11"/>
+      <c r="H236" s="8"/>
     </row>
     <row r="237">
       <c r="B237" s="8"/>
@@ -8097,7 +8167,7 @@
       <c r="D237" s="8"/>
       <c r="E237" s="8"/>
       <c r="G237" s="8"/>
-      <c r="H237" s="11"/>
+      <c r="H237" s="8"/>
     </row>
     <row r="238">
       <c r="B238" s="8"/>
@@ -8105,7 +8175,7 @@
       <c r="D238" s="8"/>
       <c r="E238" s="8"/>
       <c r="G238" s="8"/>
-      <c r="H238" s="11"/>
+      <c r="H238" s="8"/>
     </row>
     <row r="239">
       <c r="B239" s="8"/>
@@ -8113,7 +8183,7 @@
       <c r="D239" s="8"/>
       <c r="E239" s="8"/>
       <c r="G239" s="8"/>
-      <c r="H239" s="11"/>
+      <c r="H239" s="8"/>
     </row>
     <row r="240">
       <c r="B240" s="8"/>
@@ -8121,7 +8191,7 @@
       <c r="D240" s="8"/>
       <c r="E240" s="8"/>
       <c r="G240" s="8"/>
-      <c r="H240" s="11"/>
+      <c r="H240" s="8"/>
     </row>
     <row r="241">
       <c r="B241" s="8"/>
@@ -8129,7 +8199,7 @@
       <c r="D241" s="8"/>
       <c r="E241" s="8"/>
       <c r="G241" s="8"/>
-      <c r="H241" s="11"/>
+      <c r="H241" s="8"/>
     </row>
     <row r="242">
       <c r="B242" s="8"/>
@@ -8137,7 +8207,7 @@
       <c r="D242" s="8"/>
       <c r="E242" s="8"/>
       <c r="G242" s="8"/>
-      <c r="H242" s="11"/>
+      <c r="H242" s="8"/>
     </row>
     <row r="243">
       <c r="B243" s="8"/>
@@ -8145,7 +8215,7 @@
       <c r="D243" s="8"/>
       <c r="E243" s="8"/>
       <c r="G243" s="8"/>
-      <c r="H243" s="11"/>
+      <c r="H243" s="8"/>
     </row>
     <row r="244">
       <c r="B244" s="8"/>
@@ -8153,7 +8223,7 @@
       <c r="D244" s="8"/>
       <c r="E244" s="8"/>
       <c r="G244" s="8"/>
-      <c r="H244" s="11"/>
+      <c r="H244" s="8"/>
     </row>
     <row r="245">
       <c r="B245" s="8"/>
@@ -8161,7 +8231,7 @@
       <c r="D245" s="8"/>
       <c r="E245" s="8"/>
       <c r="G245" s="8"/>
-      <c r="H245" s="11"/>
+      <c r="H245" s="8"/>
     </row>
     <row r="246">
       <c r="B246" s="8"/>
@@ -8169,7 +8239,7 @@
       <c r="D246" s="8"/>
       <c r="E246" s="8"/>
       <c r="G246" s="8"/>
-      <c r="H246" s="11"/>
+      <c r="H246" s="8"/>
     </row>
     <row r="247">
       <c r="B247" s="8"/>
@@ -8177,7 +8247,7 @@
       <c r="D247" s="8"/>
       <c r="E247" s="8"/>
       <c r="G247" s="8"/>
-      <c r="H247" s="11"/>
+      <c r="H247" s="8"/>
     </row>
     <row r="248">
       <c r="B248" s="8"/>
@@ -8185,7 +8255,7 @@
       <c r="D248" s="8"/>
       <c r="E248" s="8"/>
       <c r="G248" s="8"/>
-      <c r="H248" s="11"/>
+      <c r="H248" s="8"/>
     </row>
     <row r="249">
       <c r="B249" s="8"/>
@@ -8193,7 +8263,7 @@
       <c r="D249" s="8"/>
       <c r="E249" s="8"/>
       <c r="G249" s="8"/>
-      <c r="H249" s="11"/>
+      <c r="H249" s="8"/>
     </row>
     <row r="250">
       <c r="B250" s="8"/>
@@ -8201,7 +8271,7 @@
       <c r="D250" s="8"/>
       <c r="E250" s="8"/>
       <c r="G250" s="8"/>
-      <c r="H250" s="11"/>
+      <c r="H250" s="8"/>
     </row>
     <row r="251">
       <c r="B251" s="8"/>
@@ -8209,7 +8279,7 @@
       <c r="D251" s="8"/>
       <c r="E251" s="8"/>
       <c r="G251" s="8"/>
-      <c r="H251" s="11"/>
+      <c r="H251" s="8"/>
     </row>
     <row r="252">
       <c r="B252" s="8"/>
@@ -8217,7 +8287,7 @@
       <c r="D252" s="8"/>
       <c r="E252" s="8"/>
       <c r="G252" s="8"/>
-      <c r="H252" s="11"/>
+      <c r="H252" s="8"/>
     </row>
     <row r="253">
       <c r="B253" s="8"/>
@@ -8225,7 +8295,7 @@
       <c r="D253" s="8"/>
       <c r="E253" s="8"/>
       <c r="G253" s="8"/>
-      <c r="H253" s="11"/>
+      <c r="H253" s="8"/>
     </row>
     <row r="254">
       <c r="B254" s="8"/>
@@ -8233,7 +8303,7 @@
       <c r="D254" s="8"/>
       <c r="E254" s="8"/>
       <c r="G254" s="8"/>
-      <c r="H254" s="11"/>
+      <c r="H254" s="8"/>
     </row>
     <row r="255">
       <c r="B255" s="8"/>
@@ -8241,7 +8311,7 @@
       <c r="D255" s="8"/>
       <c r="E255" s="8"/>
       <c r="G255" s="8"/>
-      <c r="H255" s="11"/>
+      <c r="H255" s="8"/>
     </row>
     <row r="256">
       <c r="B256" s="8"/>
@@ -8249,7 +8319,7 @@
       <c r="D256" s="8"/>
       <c r="E256" s="8"/>
       <c r="G256" s="8"/>
-      <c r="H256" s="11"/>
+      <c r="H256" s="8"/>
     </row>
     <row r="257">
       <c r="B257" s="8"/>
@@ -8257,7 +8327,7 @@
       <c r="D257" s="8"/>
       <c r="E257" s="8"/>
       <c r="G257" s="8"/>
-      <c r="H257" s="11"/>
+      <c r="H257" s="8"/>
     </row>
     <row r="258">
       <c r="B258" s="8"/>
@@ -8265,7 +8335,7 @@
       <c r="D258" s="8"/>
       <c r="E258" s="8"/>
       <c r="G258" s="8"/>
-      <c r="H258" s="11"/>
+      <c r="H258" s="8"/>
     </row>
     <row r="259">
       <c r="B259" s="8"/>
@@ -8273,7 +8343,7 @@
       <c r="D259" s="8"/>
       <c r="E259" s="8"/>
       <c r="G259" s="8"/>
-      <c r="H259" s="11"/>
+      <c r="H259" s="8"/>
     </row>
     <row r="260">
       <c r="B260" s="8"/>
@@ -8281,7 +8351,7 @@
       <c r="D260" s="8"/>
       <c r="E260" s="8"/>
       <c r="G260" s="8"/>
-      <c r="H260" s="11"/>
+      <c r="H260" s="8"/>
     </row>
     <row r="261">
       <c r="B261" s="8"/>
@@ -8289,7 +8359,7 @@
       <c r="D261" s="8"/>
       <c r="E261" s="8"/>
       <c r="G261" s="8"/>
-      <c r="H261" s="11"/>
+      <c r="H261" s="8"/>
     </row>
     <row r="262">
       <c r="B262" s="8"/>
@@ -8297,7 +8367,7 @@
       <c r="D262" s="8"/>
       <c r="E262" s="8"/>
       <c r="G262" s="8"/>
-      <c r="H262" s="11"/>
+      <c r="H262" s="8"/>
     </row>
     <row r="263">
       <c r="B263" s="8"/>
@@ -8305,7 +8375,7 @@
       <c r="D263" s="8"/>
       <c r="E263" s="8"/>
       <c r="G263" s="8"/>
-      <c r="H263" s="11"/>
+      <c r="H263" s="8"/>
     </row>
     <row r="264">
       <c r="B264" s="8"/>
@@ -8313,7 +8383,7 @@
       <c r="D264" s="8"/>
       <c r="E264" s="8"/>
       <c r="G264" s="8"/>
-      <c r="H264" s="11"/>
+      <c r="H264" s="8"/>
     </row>
     <row r="265">
       <c r="B265" s="8"/>
@@ -8321,7 +8391,7 @@
       <c r="D265" s="8"/>
       <c r="E265" s="8"/>
       <c r="G265" s="8"/>
-      <c r="H265" s="11"/>
+      <c r="H265" s="8"/>
     </row>
     <row r="266">
       <c r="B266" s="8"/>
@@ -8329,7 +8399,7 @@
       <c r="D266" s="8"/>
       <c r="E266" s="8"/>
       <c r="G266" s="8"/>
-      <c r="H266" s="11"/>
+      <c r="H266" s="8"/>
     </row>
     <row r="267">
       <c r="B267" s="8"/>
@@ -8337,7 +8407,7 @@
       <c r="D267" s="8"/>
       <c r="E267" s="8"/>
       <c r="G267" s="8"/>
-      <c r="H267" s="11"/>
+      <c r="H267" s="8"/>
     </row>
     <row r="268">
       <c r="B268" s="8"/>
@@ -8345,7 +8415,7 @@
       <c r="D268" s="8"/>
       <c r="E268" s="8"/>
       <c r="G268" s="8"/>
-      <c r="H268" s="11"/>
+      <c r="H268" s="8"/>
     </row>
     <row r="269">
       <c r="B269" s="8"/>
@@ -8353,7 +8423,7 @@
       <c r="D269" s="8"/>
       <c r="E269" s="8"/>
       <c r="G269" s="8"/>
-      <c r="H269" s="11"/>
+      <c r="H269" s="8"/>
     </row>
     <row r="270">
       <c r="B270" s="8"/>
@@ -8361,7 +8431,7 @@
       <c r="D270" s="8"/>
       <c r="E270" s="8"/>
       <c r="G270" s="8"/>
-      <c r="H270" s="11"/>
+      <c r="H270" s="8"/>
     </row>
     <row r="271">
       <c r="B271" s="8"/>
@@ -8369,7 +8439,7 @@
       <c r="D271" s="8"/>
       <c r="E271" s="8"/>
       <c r="G271" s="8"/>
-      <c r="H271" s="11"/>
+      <c r="H271" s="8"/>
     </row>
     <row r="272">
       <c r="B272" s="8"/>
@@ -8377,7 +8447,7 @@
       <c r="D272" s="8"/>
       <c r="E272" s="8"/>
       <c r="G272" s="8"/>
-      <c r="H272" s="11"/>
+      <c r="H272" s="8"/>
     </row>
     <row r="273">
       <c r="B273" s="8"/>
@@ -8385,7 +8455,7 @@
       <c r="D273" s="8"/>
       <c r="E273" s="8"/>
       <c r="G273" s="8"/>
-      <c r="H273" s="11"/>
+      <c r="H273" s="8"/>
     </row>
     <row r="274">
       <c r="B274" s="8"/>
@@ -8393,7 +8463,7 @@
       <c r="D274" s="8"/>
       <c r="E274" s="8"/>
       <c r="G274" s="8"/>
-      <c r="H274" s="11"/>
+      <c r="H274" s="8"/>
     </row>
     <row r="275">
       <c r="B275" s="8"/>
@@ -8401,7 +8471,7 @@
       <c r="D275" s="8"/>
       <c r="E275" s="8"/>
       <c r="G275" s="8"/>
-      <c r="H275" s="11"/>
+      <c r="H275" s="8"/>
     </row>
     <row r="276">
       <c r="B276" s="8"/>
@@ -8409,7 +8479,7 @@
       <c r="D276" s="8"/>
       <c r="E276" s="8"/>
       <c r="G276" s="8"/>
-      <c r="H276" s="11"/>
+      <c r="H276" s="8"/>
     </row>
     <row r="277">
       <c r="B277" s="8"/>
@@ -8417,7 +8487,7 @@
       <c r="D277" s="8"/>
       <c r="E277" s="8"/>
       <c r="G277" s="8"/>
-      <c r="H277" s="11"/>
+      <c r="H277" s="8"/>
     </row>
     <row r="278">
       <c r="B278" s="8"/>
@@ -8425,7 +8495,7 @@
       <c r="D278" s="8"/>
       <c r="E278" s="8"/>
       <c r="G278" s="8"/>
-      <c r="H278" s="11"/>
+      <c r="H278" s="8"/>
     </row>
     <row r="279">
       <c r="B279" s="8"/>
@@ -8433,7 +8503,7 @@
       <c r="D279" s="8"/>
       <c r="E279" s="8"/>
       <c r="G279" s="8"/>
-      <c r="H279" s="11"/>
+      <c r="H279" s="8"/>
     </row>
     <row r="280">
       <c r="B280" s="8"/>
@@ -8441,7 +8511,7 @@
       <c r="D280" s="8"/>
       <c r="E280" s="8"/>
       <c r="G280" s="8"/>
-      <c r="H280" s="11"/>
+      <c r="H280" s="8"/>
     </row>
     <row r="281">
       <c r="B281" s="8"/>
@@ -8449,7 +8519,7 @@
       <c r="D281" s="8"/>
       <c r="E281" s="8"/>
       <c r="G281" s="8"/>
-      <c r="H281" s="11"/>
+      <c r="H281" s="8"/>
     </row>
     <row r="282">
       <c r="B282" s="8"/>
@@ -8457,7 +8527,7 @@
       <c r="D282" s="8"/>
       <c r="E282" s="8"/>
       <c r="G282" s="8"/>
-      <c r="H282" s="11"/>
+      <c r="H282" s="8"/>
     </row>
     <row r="283">
       <c r="B283" s="8"/>
@@ -8465,7 +8535,7 @@
       <c r="D283" s="8"/>
       <c r="E283" s="8"/>
       <c r="G283" s="8"/>
-      <c r="H283" s="11"/>
+      <c r="H283" s="8"/>
     </row>
     <row r="284">
       <c r="B284" s="8"/>
@@ -8473,7 +8543,7 @@
       <c r="D284" s="8"/>
       <c r="E284" s="8"/>
       <c r="G284" s="8"/>
-      <c r="H284" s="11"/>
+      <c r="H284" s="8"/>
     </row>
     <row r="285">
       <c r="B285" s="8"/>
@@ -8481,7 +8551,7 @@
       <c r="D285" s="8"/>
       <c r="E285" s="8"/>
       <c r="G285" s="8"/>
-      <c r="H285" s="11"/>
+      <c r="H285" s="8"/>
     </row>
     <row r="286">
       <c r="B286" s="8"/>
@@ -8489,7 +8559,7 @@
       <c r="D286" s="8"/>
       <c r="E286" s="8"/>
       <c r="G286" s="8"/>
-      <c r="H286" s="11"/>
+      <c r="H286" s="8"/>
     </row>
     <row r="287">
       <c r="B287" s="8"/>
@@ -8497,7 +8567,7 @@
       <c r="D287" s="8"/>
       <c r="E287" s="8"/>
       <c r="G287" s="8"/>
-      <c r="H287" s="11"/>
+      <c r="H287" s="8"/>
     </row>
     <row r="288">
       <c r="B288" s="8"/>
@@ -8505,7 +8575,7 @@
       <c r="D288" s="8"/>
       <c r="E288" s="8"/>
       <c r="G288" s="8"/>
-      <c r="H288" s="11"/>
+      <c r="H288" s="8"/>
     </row>
     <row r="289">
       <c r="B289" s="8"/>
@@ -8513,7 +8583,7 @@
       <c r="D289" s="8"/>
       <c r="E289" s="8"/>
       <c r="G289" s="8"/>
-      <c r="H289" s="11"/>
+      <c r="H289" s="8"/>
     </row>
     <row r="290">
       <c r="B290" s="8"/>
@@ -8521,7 +8591,7 @@
       <c r="D290" s="8"/>
       <c r="E290" s="8"/>
       <c r="G290" s="8"/>
-      <c r="H290" s="11"/>
+      <c r="H290" s="8"/>
     </row>
     <row r="291">
       <c r="B291" s="8"/>
@@ -8529,7 +8599,7 @@
       <c r="D291" s="8"/>
       <c r="E291" s="8"/>
       <c r="G291" s="8"/>
-      <c r="H291" s="11"/>
+      <c r="H291" s="8"/>
     </row>
     <row r="292">
       <c r="B292" s="8"/>
@@ -8537,7 +8607,7 @@
       <c r="D292" s="8"/>
       <c r="E292" s="8"/>
       <c r="G292" s="8"/>
-      <c r="H292" s="11"/>
+      <c r="H292" s="8"/>
     </row>
     <row r="293">
       <c r="B293" s="8"/>
@@ -8545,7 +8615,7 @@
       <c r="D293" s="8"/>
       <c r="E293" s="8"/>
       <c r="G293" s="8"/>
-      <c r="H293" s="11"/>
+      <c r="H293" s="8"/>
     </row>
     <row r="294">
       <c r="B294" s="8"/>
@@ -8553,7 +8623,7 @@
       <c r="D294" s="8"/>
       <c r="E294" s="8"/>
       <c r="G294" s="8"/>
-      <c r="H294" s="11"/>
+      <c r="H294" s="8"/>
     </row>
     <row r="295">
       <c r="B295" s="8"/>
@@ -8561,7 +8631,7 @@
       <c r="D295" s="8"/>
       <c r="E295" s="8"/>
       <c r="G295" s="8"/>
-      <c r="H295" s="11"/>
+      <c r="H295" s="8"/>
     </row>
     <row r="296">
       <c r="B296" s="8"/>
@@ -8569,7 +8639,7 @@
       <c r="D296" s="8"/>
       <c r="E296" s="8"/>
       <c r="G296" s="8"/>
-      <c r="H296" s="11"/>
+      <c r="H296" s="8"/>
     </row>
     <row r="297">
       <c r="B297" s="8"/>
@@ -8577,7 +8647,7 @@
       <c r="D297" s="8"/>
       <c r="E297" s="8"/>
       <c r="G297" s="8"/>
-      <c r="H297" s="11"/>
+      <c r="H297" s="8"/>
     </row>
     <row r="298">
       <c r="B298" s="8"/>
@@ -8585,7 +8655,7 @@
       <c r="D298" s="8"/>
       <c r="E298" s="8"/>
       <c r="G298" s="8"/>
-      <c r="H298" s="11"/>
+      <c r="H298" s="8"/>
     </row>
     <row r="299">
       <c r="B299" s="8"/>
@@ -8593,7 +8663,7 @@
       <c r="D299" s="8"/>
       <c r="E299" s="8"/>
       <c r="G299" s="8"/>
-      <c r="H299" s="11"/>
+      <c r="H299" s="8"/>
     </row>
     <row r="300">
       <c r="B300" s="8"/>
@@ -8601,7 +8671,7 @@
       <c r="D300" s="8"/>
       <c r="E300" s="8"/>
       <c r="G300" s="8"/>
-      <c r="H300" s="11"/>
+      <c r="H300" s="8"/>
     </row>
     <row r="301">
       <c r="B301" s="8"/>
@@ -8609,7 +8679,7 @@
       <c r="D301" s="8"/>
       <c r="E301" s="8"/>
       <c r="G301" s="8"/>
-      <c r="H301" s="11"/>
+      <c r="H301" s="8"/>
     </row>
     <row r="302">
       <c r="B302" s="8"/>
@@ -8617,7 +8687,7 @@
       <c r="D302" s="8"/>
       <c r="E302" s="8"/>
       <c r="G302" s="8"/>
-      <c r="H302" s="11"/>
+      <c r="H302" s="8"/>
     </row>
     <row r="303">
       <c r="B303" s="8"/>
@@ -8625,7 +8695,7 @@
       <c r="D303" s="8"/>
       <c r="E303" s="8"/>
       <c r="G303" s="8"/>
-      <c r="H303" s="11"/>
+      <c r="H303" s="8"/>
     </row>
     <row r="304">
       <c r="B304" s="8"/>
@@ -8633,7 +8703,7 @@
       <c r="D304" s="8"/>
       <c r="E304" s="8"/>
       <c r="G304" s="8"/>
-      <c r="H304" s="11"/>
+      <c r="H304" s="8"/>
     </row>
     <row r="305">
       <c r="B305" s="8"/>
@@ -8641,7 +8711,7 @@
       <c r="D305" s="8"/>
       <c r="E305" s="8"/>
       <c r="G305" s="8"/>
-      <c r="H305" s="11"/>
+      <c r="H305" s="8"/>
     </row>
     <row r="306">
       <c r="B306" s="8"/>
@@ -8649,7 +8719,7 @@
       <c r="D306" s="8"/>
       <c r="E306" s="8"/>
       <c r="G306" s="8"/>
-      <c r="H306" s="11"/>
+      <c r="H306" s="8"/>
     </row>
     <row r="307">
       <c r="B307" s="8"/>
@@ -8657,7 +8727,7 @@
       <c r="D307" s="8"/>
       <c r="E307" s="8"/>
       <c r="G307" s="8"/>
-      <c r="H307" s="11"/>
+      <c r="H307" s="8"/>
     </row>
     <row r="308">
       <c r="B308" s="8"/>
@@ -8665,7 +8735,7 @@
       <c r="D308" s="8"/>
       <c r="E308" s="8"/>
       <c r="G308" s="8"/>
-      <c r="H308" s="11"/>
+      <c r="H308" s="8"/>
     </row>
     <row r="309">
       <c r="B309" s="8"/>
@@ -8673,7 +8743,7 @@
       <c r="D309" s="8"/>
       <c r="E309" s="8"/>
       <c r="G309" s="8"/>
-      <c r="H309" s="11"/>
+      <c r="H309" s="8"/>
     </row>
     <row r="310">
       <c r="B310" s="8"/>
@@ -8681,7 +8751,7 @@
       <c r="D310" s="8"/>
       <c r="E310" s="8"/>
       <c r="G310" s="8"/>
-      <c r="H310" s="11"/>
+      <c r="H310" s="8"/>
     </row>
     <row r="311">
       <c r="B311" s="8"/>
@@ -8689,7 +8759,7 @@
       <c r="D311" s="8"/>
       <c r="E311" s="8"/>
       <c r="G311" s="8"/>
-      <c r="H311" s="11"/>
+      <c r="H311" s="8"/>
     </row>
     <row r="312">
       <c r="B312" s="8"/>
@@ -8697,7 +8767,7 @@
       <c r="D312" s="8"/>
       <c r="E312" s="8"/>
       <c r="G312" s="8"/>
-      <c r="H312" s="11"/>
+      <c r="H312" s="8"/>
     </row>
     <row r="313">
       <c r="B313" s="8"/>
@@ -8705,7 +8775,7 @@
       <c r="D313" s="8"/>
       <c r="E313" s="8"/>
       <c r="G313" s="8"/>
-      <c r="H313" s="11"/>
+      <c r="H313" s="8"/>
     </row>
     <row r="314">
       <c r="B314" s="8"/>
@@ -8713,7 +8783,7 @@
       <c r="D314" s="8"/>
       <c r="E314" s="8"/>
       <c r="G314" s="8"/>
-      <c r="H314" s="11"/>
+      <c r="H314" s="8"/>
     </row>
     <row r="315">
       <c r="B315" s="8"/>
@@ -8721,7 +8791,7 @@
       <c r="D315" s="8"/>
       <c r="E315" s="8"/>
       <c r="G315" s="8"/>
-      <c r="H315" s="11"/>
+      <c r="H315" s="8"/>
     </row>
     <row r="316">
       <c r="B316" s="8"/>
@@ -8729,7 +8799,7 @@
       <c r="D316" s="8"/>
       <c r="E316" s="8"/>
       <c r="G316" s="8"/>
-      <c r="H316" s="11"/>
+      <c r="H316" s="8"/>
     </row>
     <row r="317">
       <c r="B317" s="8"/>
@@ -8737,7 +8807,7 @@
       <c r="D317" s="8"/>
       <c r="E317" s="8"/>
       <c r="G317" s="8"/>
-      <c r="H317" s="11"/>
+      <c r="H317" s="8"/>
     </row>
     <row r="318">
       <c r="B318" s="8"/>
@@ -8745,7 +8815,7 @@
       <c r="D318" s="8"/>
       <c r="E318" s="8"/>
       <c r="G318" s="8"/>
-      <c r="H318" s="11"/>
+      <c r="H318" s="8"/>
     </row>
     <row r="319">
       <c r="B319" s="8"/>
@@ -8753,7 +8823,7 @@
       <c r="D319" s="8"/>
       <c r="E319" s="8"/>
       <c r="G319" s="8"/>
-      <c r="H319" s="11"/>
+      <c r="H319" s="8"/>
     </row>
     <row r="320">
       <c r="B320" s="8"/>
@@ -8761,7 +8831,7 @@
       <c r="D320" s="8"/>
       <c r="E320" s="8"/>
       <c r="G320" s="8"/>
-      <c r="H320" s="11"/>
+      <c r="H320" s="8"/>
     </row>
     <row r="321">
       <c r="B321" s="8"/>
@@ -8769,7 +8839,7 @@
       <c r="D321" s="8"/>
       <c r="E321" s="8"/>
       <c r="G321" s="8"/>
-      <c r="H321" s="11"/>
+      <c r="H321" s="8"/>
     </row>
     <row r="322">
       <c r="B322" s="8"/>
@@ -8777,7 +8847,7 @@
       <c r="D322" s="8"/>
       <c r="E322" s="8"/>
       <c r="G322" s="8"/>
-      <c r="H322" s="11"/>
+      <c r="H322" s="8"/>
     </row>
     <row r="323">
       <c r="B323" s="8"/>
@@ -8785,7 +8855,7 @@
       <c r="D323" s="8"/>
       <c r="E323" s="8"/>
       <c r="G323" s="8"/>
-      <c r="H323" s="11"/>
+      <c r="H323" s="8"/>
     </row>
     <row r="324">
       <c r="B324" s="8"/>
@@ -8793,7 +8863,7 @@
       <c r="D324" s="8"/>
       <c r="E324" s="8"/>
       <c r="G324" s="8"/>
-      <c r="H324" s="11"/>
+      <c r="H324" s="8"/>
     </row>
     <row r="325">
       <c r="B325" s="8"/>
@@ -8801,7 +8871,7 @@
       <c r="D325" s="8"/>
       <c r="E325" s="8"/>
       <c r="G325" s="8"/>
-      <c r="H325" s="11"/>
+      <c r="H325" s="8"/>
     </row>
     <row r="326">
       <c r="B326" s="8"/>
@@ -8809,7 +8879,7 @@
       <c r="D326" s="8"/>
       <c r="E326" s="8"/>
       <c r="G326" s="8"/>
-      <c r="H326" s="11"/>
+      <c r="H326" s="8"/>
     </row>
     <row r="327">
       <c r="B327" s="8"/>
@@ -8817,7 +8887,7 @@
       <c r="D327" s="8"/>
       <c r="E327" s="8"/>
       <c r="G327" s="8"/>
-      <c r="H327" s="11"/>
+      <c r="H327" s="8"/>
     </row>
     <row r="328">
       <c r="B328" s="8"/>
@@ -8825,7 +8895,7 @@
       <c r="D328" s="8"/>
       <c r="E328" s="8"/>
       <c r="G328" s="8"/>
-      <c r="H328" s="11"/>
+      <c r="H328" s="8"/>
     </row>
     <row r="329">
       <c r="B329" s="8"/>
@@ -8833,7 +8903,7 @@
       <c r="D329" s="8"/>
       <c r="E329" s="8"/>
       <c r="G329" s="8"/>
-      <c r="H329" s="11"/>
+      <c r="H329" s="8"/>
     </row>
     <row r="330">
       <c r="B330" s="8"/>
@@ -8841,7 +8911,7 @@
       <c r="D330" s="8"/>
       <c r="E330" s="8"/>
       <c r="G330" s="8"/>
-      <c r="H330" s="11"/>
+      <c r="H330" s="8"/>
     </row>
     <row r="331">
       <c r="B331" s="8"/>
@@ -8849,7 +8919,7 @@
       <c r="D331" s="8"/>
       <c r="E331" s="8"/>
       <c r="G331" s="8"/>
-      <c r="H331" s="11"/>
+      <c r="H331" s="8"/>
     </row>
     <row r="332">
       <c r="B332" s="8"/>
@@ -8857,7 +8927,7 @@
       <c r="D332" s="8"/>
       <c r="E332" s="8"/>
       <c r="G332" s="8"/>
-      <c r="H332" s="11"/>
+      <c r="H332" s="8"/>
     </row>
     <row r="333">
       <c r="B333" s="8"/>
@@ -8865,7 +8935,7 @@
       <c r="D333" s="8"/>
       <c r="E333" s="8"/>
       <c r="G333" s="8"/>
-      <c r="H333" s="11"/>
+      <c r="H333" s="8"/>
     </row>
     <row r="334">
       <c r="B334" s="8"/>
@@ -8873,7 +8943,7 @@
       <c r="D334" s="8"/>
       <c r="E334" s="8"/>
       <c r="G334" s="8"/>
-      <c r="H334" s="11"/>
+      <c r="H334" s="8"/>
     </row>
     <row r="335">
       <c r="B335" s="8"/>
@@ -8881,7 +8951,7 @@
       <c r="D335" s="8"/>
       <c r="E335" s="8"/>
       <c r="G335" s="8"/>
-      <c r="H335" s="11"/>
+      <c r="H335" s="8"/>
     </row>
     <row r="336">
       <c r="B336" s="8"/>
@@ -8889,7 +8959,7 @@
       <c r="D336" s="8"/>
       <c r="E336" s="8"/>
       <c r="G336" s="8"/>
-      <c r="H336" s="11"/>
+      <c r="H336" s="8"/>
     </row>
     <row r="337">
       <c r="B337" s="8"/>
@@ -8897,7 +8967,7 @@
       <c r="D337" s="8"/>
       <c r="E337" s="8"/>
       <c r="G337" s="8"/>
-      <c r="H337" s="11"/>
+      <c r="H337" s="8"/>
     </row>
     <row r="338">
       <c r="B338" s="8"/>
@@ -8905,7 +8975,7 @@
       <c r="D338" s="8"/>
       <c r="E338" s="8"/>
       <c r="G338" s="8"/>
-      <c r="H338" s="11"/>
+      <c r="H338" s="8"/>
     </row>
     <row r="339">
       <c r="B339" s="8"/>
@@ -8913,7 +8983,7 @@
       <c r="D339" s="8"/>
       <c r="E339" s="8"/>
       <c r="G339" s="8"/>
-      <c r="H339" s="11"/>
+      <c r="H339" s="8"/>
     </row>
     <row r="340">
       <c r="B340" s="8"/>
@@ -8921,7 +8991,7 @@
       <c r="D340" s="8"/>
       <c r="E340" s="8"/>
       <c r="G340" s="8"/>
-      <c r="H340" s="11"/>
+      <c r="H340" s="8"/>
     </row>
     <row r="341">
       <c r="B341" s="8"/>
@@ -8929,7 +8999,7 @@
       <c r="D341" s="8"/>
       <c r="E341" s="8"/>
       <c r="G341" s="8"/>
-      <c r="H341" s="11"/>
+      <c r="H341" s="8"/>
     </row>
     <row r="342">
       <c r="B342" s="8"/>
@@ -8937,7 +9007,7 @@
       <c r="D342" s="8"/>
       <c r="E342" s="8"/>
       <c r="G342" s="8"/>
-      <c r="H342" s="11"/>
+      <c r="H342" s="8"/>
     </row>
     <row r="343">
       <c r="B343" s="8"/>
@@ -8945,7 +9015,7 @@
       <c r="D343" s="8"/>
       <c r="E343" s="8"/>
       <c r="G343" s="8"/>
-      <c r="H343" s="11"/>
+      <c r="H343" s="8"/>
     </row>
     <row r="344">
       <c r="B344" s="8"/>
@@ -8953,7 +9023,7 @@
       <c r="D344" s="8"/>
       <c r="E344" s="8"/>
       <c r="G344" s="8"/>
-      <c r="H344" s="11"/>
+      <c r="H344" s="8"/>
     </row>
     <row r="345">
       <c r="B345" s="8"/>
@@ -8961,7 +9031,7 @@
       <c r="D345" s="8"/>
       <c r="E345" s="8"/>
       <c r="G345" s="8"/>
-      <c r="H345" s="11"/>
+      <c r="H345" s="8"/>
     </row>
     <row r="346">
       <c r="B346" s="8"/>
@@ -8969,7 +9039,7 @@
       <c r="D346" s="8"/>
       <c r="E346" s="8"/>
       <c r="G346" s="8"/>
-      <c r="H346" s="11"/>
+      <c r="H346" s="8"/>
     </row>
     <row r="347">
       <c r="B347" s="8"/>
@@ -8977,7 +9047,7 @@
       <c r="D347" s="8"/>
       <c r="E347" s="8"/>
       <c r="G347" s="8"/>
-      <c r="H347" s="11"/>
+      <c r="H347" s="8"/>
     </row>
     <row r="348">
       <c r="B348" s="8"/>
@@ -8985,7 +9055,7 @@
       <c r="D348" s="8"/>
       <c r="E348" s="8"/>
       <c r="G348" s="8"/>
-      <c r="H348" s="11"/>
+      <c r="H348" s="8"/>
     </row>
     <row r="349">
       <c r="B349" s="8"/>
@@ -8993,7 +9063,7 @@
       <c r="D349" s="8"/>
       <c r="E349" s="8"/>
       <c r="G349" s="8"/>
-      <c r="H349" s="11"/>
+      <c r="H349" s="8"/>
     </row>
     <row r="350">
       <c r="B350" s="8"/>
@@ -9001,7 +9071,7 @@
       <c r="D350" s="8"/>
       <c r="E350" s="8"/>
       <c r="G350" s="8"/>
-      <c r="H350" s="11"/>
+      <c r="H350" s="8"/>
     </row>
     <row r="351">
       <c r="B351" s="8"/>
@@ -9009,7 +9079,7 @@
       <c r="D351" s="8"/>
       <c r="E351" s="8"/>
       <c r="G351" s="8"/>
-      <c r="H351" s="11"/>
+      <c r="H351" s="8"/>
     </row>
     <row r="352">
       <c r="B352" s="8"/>
@@ -9017,7 +9087,7 @@
       <c r="D352" s="8"/>
       <c r="E352" s="8"/>
       <c r="G352" s="8"/>
-      <c r="H352" s="11"/>
+      <c r="H352" s="8"/>
     </row>
     <row r="353">
       <c r="B353" s="8"/>
@@ -9025,7 +9095,7 @@
       <c r="D353" s="8"/>
       <c r="E353" s="8"/>
       <c r="G353" s="8"/>
-      <c r="H353" s="11"/>
+      <c r="H353" s="8"/>
     </row>
     <row r="354">
       <c r="B354" s="8"/>
@@ -9033,7 +9103,7 @@
       <c r="D354" s="8"/>
       <c r="E354" s="8"/>
       <c r="G354" s="8"/>
-      <c r="H354" s="11"/>
+      <c r="H354" s="8"/>
     </row>
     <row r="355">
       <c r="B355" s="8"/>
@@ -9041,7 +9111,7 @@
       <c r="D355" s="8"/>
       <c r="E355" s="8"/>
       <c r="G355" s="8"/>
-      <c r="H355" s="11"/>
+      <c r="H355" s="8"/>
     </row>
     <row r="356">
       <c r="B356" s="8"/>
@@ -9049,7 +9119,7 @@
       <c r="D356" s="8"/>
       <c r="E356" s="8"/>
       <c r="G356" s="8"/>
-      <c r="H356" s="11"/>
+      <c r="H356" s="8"/>
     </row>
     <row r="357">
       <c r="B357" s="8"/>
@@ -9057,7 +9127,7 @@
       <c r="D357" s="8"/>
       <c r="E357" s="8"/>
       <c r="G357" s="8"/>
-      <c r="H357" s="11"/>
+      <c r="H357" s="8"/>
     </row>
     <row r="358">
       <c r="B358" s="8"/>
@@ -9065,7 +9135,7 @@
       <c r="D358" s="8"/>
       <c r="E358" s="8"/>
       <c r="G358" s="8"/>
-      <c r="H358" s="11"/>
+      <c r="H358" s="8"/>
     </row>
     <row r="359">
       <c r="B359" s="8"/>
@@ -9073,7 +9143,7 @@
       <c r="D359" s="8"/>
       <c r="E359" s="8"/>
       <c r="G359" s="8"/>
-      <c r="H359" s="11"/>
+      <c r="H359" s="8"/>
     </row>
     <row r="360">
       <c r="B360" s="8"/>
@@ -9081,7 +9151,7 @@
       <c r="D360" s="8"/>
       <c r="E360" s="8"/>
       <c r="G360" s="8"/>
-      <c r="H360" s="11"/>
+      <c r="H360" s="8"/>
     </row>
     <row r="361">
       <c r="B361" s="8"/>
@@ -9089,7 +9159,7 @@
       <c r="D361" s="8"/>
       <c r="E361" s="8"/>
       <c r="G361" s="8"/>
-      <c r="H361" s="11"/>
+      <c r="H361" s="8"/>
     </row>
     <row r="362">
       <c r="B362" s="8"/>
@@ -9097,7 +9167,7 @@
       <c r="D362" s="8"/>
       <c r="E362" s="8"/>
       <c r="G362" s="8"/>
-      <c r="H362" s="11"/>
+      <c r="H362" s="8"/>
     </row>
     <row r="363">
       <c r="B363" s="8"/>
@@ -9105,7 +9175,7 @@
       <c r="D363" s="8"/>
       <c r="E363" s="8"/>
       <c r="G363" s="8"/>
-      <c r="H363" s="11"/>
+      <c r="H363" s="8"/>
     </row>
     <row r="364">
       <c r="B364" s="8"/>
@@ -9113,7 +9183,7 @@
       <c r="D364" s="8"/>
       <c r="E364" s="8"/>
       <c r="G364" s="8"/>
-      <c r="H364" s="11"/>
+      <c r="H364" s="8"/>
     </row>
     <row r="365">
       <c r="B365" s="8"/>
@@ -9121,7 +9191,7 @@
       <c r="D365" s="8"/>
       <c r="E365" s="8"/>
       <c r="G365" s="8"/>
-      <c r="H365" s="11"/>
+      <c r="H365" s="8"/>
     </row>
     <row r="366">
       <c r="B366" s="8"/>
@@ -9129,7 +9199,7 @@
       <c r="D366" s="8"/>
       <c r="E366" s="8"/>
       <c r="G366" s="8"/>
-      <c r="H366" s="11"/>
+      <c r="H366" s="8"/>
     </row>
     <row r="367">
       <c r="B367" s="8"/>
@@ -9137,7 +9207,7 @@
       <c r="D367" s="8"/>
       <c r="E367" s="8"/>
       <c r="G367" s="8"/>
-      <c r="H367" s="11"/>
+      <c r="H367" s="8"/>
     </row>
     <row r="368">
       <c r="B368" s="8"/>
@@ -9145,7 +9215,7 @@
       <c r="D368" s="8"/>
       <c r="E368" s="8"/>
       <c r="G368" s="8"/>
-      <c r="H368" s="11"/>
+      <c r="H368" s="8"/>
     </row>
     <row r="369">
       <c r="B369" s="8"/>
@@ -9153,7 +9223,7 @@
       <c r="D369" s="8"/>
       <c r="E369" s="8"/>
       <c r="G369" s="8"/>
-      <c r="H369" s="11"/>
+      <c r="H369" s="8"/>
     </row>
     <row r="370">
       <c r="B370" s="8"/>
@@ -9161,7 +9231,7 @@
       <c r="D370" s="8"/>
       <c r="E370" s="8"/>
       <c r="G370" s="8"/>
-      <c r="H370" s="11"/>
+      <c r="H370" s="8"/>
     </row>
     <row r="371">
       <c r="B371" s="8"/>
@@ -9169,7 +9239,7 @@
       <c r="D371" s="8"/>
       <c r="E371" s="8"/>
       <c r="G371" s="8"/>
-      <c r="H371" s="11"/>
+      <c r="H371" s="8"/>
     </row>
     <row r="372">
       <c r="B372" s="8"/>
@@ -9177,7 +9247,7 @@
       <c r="D372" s="8"/>
       <c r="E372" s="8"/>
       <c r="G372" s="8"/>
-      <c r="H372" s="11"/>
+      <c r="H372" s="8"/>
     </row>
     <row r="373">
       <c r="B373" s="8"/>
@@ -9185,7 +9255,7 @@
       <c r="D373" s="8"/>
       <c r="E373" s="8"/>
       <c r="G373" s="8"/>
-      <c r="H373" s="11"/>
+      <c r="H373" s="8"/>
     </row>
     <row r="374">
       <c r="B374" s="8"/>
@@ -9193,7 +9263,7 @@
       <c r="D374" s="8"/>
       <c r="E374" s="8"/>
       <c r="G374" s="8"/>
-      <c r="H374" s="11"/>
+      <c r="H374" s="8"/>
     </row>
     <row r="375">
       <c r="B375" s="8"/>
@@ -9201,7 +9271,7 @@
       <c r="D375" s="8"/>
       <c r="E375" s="8"/>
       <c r="G375" s="8"/>
-      <c r="H375" s="11"/>
+      <c r="H375" s="8"/>
     </row>
     <row r="376">
       <c r="B376" s="8"/>
@@ -9209,7 +9279,7 @@
       <c r="D376" s="8"/>
       <c r="E376" s="8"/>
       <c r="G376" s="8"/>
-      <c r="H376" s="11"/>
+      <c r="H376" s="8"/>
     </row>
     <row r="377">
       <c r="B377" s="8"/>
@@ -9217,7 +9287,7 @@
       <c r="D377" s="8"/>
       <c r="E377" s="8"/>
       <c r="G377" s="8"/>
-      <c r="H377" s="11"/>
+      <c r="H377" s="8"/>
     </row>
     <row r="378">
       <c r="B378" s="8"/>
@@ -9225,7 +9295,7 @@
       <c r="D378" s="8"/>
       <c r="E378" s="8"/>
       <c r="G378" s="8"/>
-      <c r="H378" s="11"/>
+      <c r="H378" s="8"/>
     </row>
     <row r="379">
       <c r="B379" s="8"/>
@@ -9233,7 +9303,7 @@
       <c r="D379" s="8"/>
       <c r="E379" s="8"/>
       <c r="G379" s="8"/>
-      <c r="H379" s="11"/>
+      <c r="H379" s="8"/>
     </row>
     <row r="380">
       <c r="B380" s="8"/>
@@ -9241,7 +9311,7 @@
       <c r="D380" s="8"/>
       <c r="E380" s="8"/>
       <c r="G380" s="8"/>
-      <c r="H380" s="11"/>
+      <c r="H380" s="8"/>
     </row>
     <row r="381">
       <c r="B381" s="8"/>
@@ -9249,7 +9319,7 @@
       <c r="D381" s="8"/>
       <c r="E381" s="8"/>
       <c r="G381" s="8"/>
-      <c r="H381" s="11"/>
+      <c r="H381" s="8"/>
     </row>
     <row r="382">
       <c r="B382" s="8"/>
@@ -9257,7 +9327,7 @@
       <c r="D382" s="8"/>
       <c r="E382" s="8"/>
       <c r="G382" s="8"/>
-      <c r="H382" s="11"/>
+      <c r="H382" s="8"/>
     </row>
     <row r="383">
       <c r="B383" s="8"/>
@@ -9265,7 +9335,7 @@
       <c r="D383" s="8"/>
       <c r="E383" s="8"/>
       <c r="G383" s="8"/>
-      <c r="H383" s="11"/>
+      <c r="H383" s="8"/>
     </row>
     <row r="384">
       <c r="B384" s="8"/>
@@ -9273,7 +9343,7 @@
       <c r="D384" s="8"/>
       <c r="E384" s="8"/>
       <c r="G384" s="8"/>
-      <c r="H384" s="11"/>
+      <c r="H384" s="8"/>
     </row>
     <row r="385">
       <c r="B385" s="8"/>
@@ -9281,7 +9351,7 @@
       <c r="D385" s="8"/>
       <c r="E385" s="8"/>
       <c r="G385" s="8"/>
-      <c r="H385" s="11"/>
+      <c r="H385" s="8"/>
     </row>
     <row r="386">
       <c r="B386" s="8"/>
@@ -9289,7 +9359,7 @@
       <c r="D386" s="8"/>
       <c r="E386" s="8"/>
       <c r="G386" s="8"/>
-      <c r="H386" s="11"/>
+      <c r="H386" s="8"/>
     </row>
     <row r="387">
       <c r="B387" s="8"/>
@@ -9297,7 +9367,7 @@
       <c r="D387" s="8"/>
       <c r="E387" s="8"/>
       <c r="G387" s="8"/>
-      <c r="H387" s="11"/>
+      <c r="H387" s="8"/>
     </row>
     <row r="388">
       <c r="B388" s="8"/>
@@ -9305,7 +9375,7 @@
       <c r="D388" s="8"/>
       <c r="E388" s="8"/>
       <c r="G388" s="8"/>
-      <c r="H388" s="11"/>
+      <c r="H388" s="8"/>
     </row>
     <row r="389">
       <c r="B389" s="8"/>
@@ -9313,7 +9383,7 @@
       <c r="D389" s="8"/>
       <c r="E389" s="8"/>
       <c r="G389" s="8"/>
-      <c r="H389" s="11"/>
+      <c r="H389" s="8"/>
     </row>
     <row r="390">
       <c r="B390" s="8"/>
@@ -9321,7 +9391,7 @@
       <c r="D390" s="8"/>
       <c r="E390" s="8"/>
       <c r="G390" s="8"/>
-      <c r="H390" s="11"/>
+      <c r="H390" s="8"/>
     </row>
     <row r="391">
       <c r="B391" s="8"/>
@@ -9329,7 +9399,7 @@
       <c r="D391" s="8"/>
       <c r="E391" s="8"/>
       <c r="G391" s="8"/>
-      <c r="H391" s="11"/>
+      <c r="H391" s="8"/>
     </row>
     <row r="392">
       <c r="B392" s="8"/>
@@ -9337,7 +9407,7 @@
       <c r="D392" s="8"/>
       <c r="E392" s="8"/>
       <c r="G392" s="8"/>
-      <c r="H392" s="11"/>
+      <c r="H392" s="8"/>
     </row>
     <row r="393">
       <c r="B393" s="8"/>
@@ -9345,7 +9415,7 @@
       <c r="D393" s="8"/>
       <c r="E393" s="8"/>
       <c r="G393" s="8"/>
-      <c r="H393" s="11"/>
+      <c r="H393" s="8"/>
     </row>
     <row r="394">
       <c r="B394" s="8"/>
@@ -9353,7 +9423,7 @@
       <c r="D394" s="8"/>
       <c r="E394" s="8"/>
       <c r="G394" s="8"/>
-      <c r="H394" s="11"/>
+      <c r="H394" s="8"/>
     </row>
     <row r="395">
       <c r="B395" s="8"/>
@@ -9361,7 +9431,7 @@
       <c r="D395" s="8"/>
       <c r="E395" s="8"/>
       <c r="G395" s="8"/>
-      <c r="H395" s="11"/>
+      <c r="H395" s="8"/>
     </row>
     <row r="396">
       <c r="B396" s="8"/>
@@ -9369,7 +9439,7 @@
       <c r="D396" s="8"/>
       <c r="E396" s="8"/>
       <c r="G396" s="8"/>
-      <c r="H396" s="11"/>
+      <c r="H396" s="8"/>
     </row>
     <row r="397">
       <c r="B397" s="8"/>
@@ -9377,7 +9447,7 @@
       <c r="D397" s="8"/>
       <c r="E397" s="8"/>
       <c r="G397" s="8"/>
-      <c r="H397" s="11"/>
+      <c r="H397" s="8"/>
     </row>
     <row r="398">
       <c r="B398" s="8"/>
@@ -9385,7 +9455,7 @@
       <c r="D398" s="8"/>
       <c r="E398" s="8"/>
       <c r="G398" s="8"/>
-      <c r="H398" s="11"/>
+      <c r="H398" s="8"/>
     </row>
     <row r="399">
       <c r="B399" s="8"/>
@@ -9393,7 +9463,7 @@
       <c r="D399" s="8"/>
       <c r="E399" s="8"/>
       <c r="G399" s="8"/>
-      <c r="H399" s="11"/>
+      <c r="H399" s="8"/>
     </row>
     <row r="400">
       <c r="B400" s="8"/>
@@ -9401,7 +9471,7 @@
       <c r="D400" s="8"/>
       <c r="E400" s="8"/>
       <c r="G400" s="8"/>
-      <c r="H400" s="11"/>
+      <c r="H400" s="8"/>
     </row>
     <row r="401">
       <c r="B401" s="8"/>
@@ -9409,7 +9479,7 @@
       <c r="D401" s="8"/>
       <c r="E401" s="8"/>
       <c r="G401" s="8"/>
-      <c r="H401" s="11"/>
+      <c r="H401" s="8"/>
     </row>
     <row r="402">
       <c r="B402" s="8"/>
@@ -9417,7 +9487,7 @@
       <c r="D402" s="8"/>
       <c r="E402" s="8"/>
       <c r="G402" s="8"/>
-      <c r="H402" s="11"/>
+      <c r="H402" s="8"/>
     </row>
     <row r="403">
       <c r="B403" s="8"/>
@@ -9425,7 +9495,7 @@
       <c r="D403" s="8"/>
       <c r="E403" s="8"/>
       <c r="G403" s="8"/>
-      <c r="H403" s="11"/>
+      <c r="H403" s="8"/>
     </row>
     <row r="404">
       <c r="B404" s="8"/>
@@ -9433,7 +9503,7 @@
       <c r="D404" s="8"/>
       <c r="E404" s="8"/>
       <c r="G404" s="8"/>
-      <c r="H404" s="11"/>
+      <c r="H404" s="8"/>
     </row>
     <row r="405">
       <c r="B405" s="8"/>
@@ -9441,7 +9511,7 @@
       <c r="D405" s="8"/>
       <c r="E405" s="8"/>
       <c r="G405" s="8"/>
-      <c r="H405" s="11"/>
+      <c r="H405" s="8"/>
     </row>
     <row r="406">
       <c r="B406" s="8"/>
@@ -9449,7 +9519,7 @@
       <c r="D406" s="8"/>
       <c r="E406" s="8"/>
       <c r="G406" s="8"/>
-      <c r="H406" s="11"/>
+      <c r="H406" s="8"/>
     </row>
     <row r="407">
       <c r="B407" s="8"/>
@@ -9457,7 +9527,7 @@
       <c r="D407" s="8"/>
       <c r="E407" s="8"/>
       <c r="G407" s="8"/>
-      <c r="H407" s="11"/>
+      <c r="H407" s="8"/>
     </row>
     <row r="408">
       <c r="B408" s="8"/>
@@ -9465,7 +9535,7 @@
       <c r="D408" s="8"/>
       <c r="E408" s="8"/>
       <c r="G408" s="8"/>
-      <c r="H408" s="11"/>
+      <c r="H408" s="8"/>
     </row>
     <row r="409">
       <c r="B409" s="8"/>
@@ -9473,7 +9543,7 @@
       <c r="D409" s="8"/>
       <c r="E409" s="8"/>
       <c r="G409" s="8"/>
-      <c r="H409" s="11"/>
+      <c r="H409" s="8"/>
     </row>
     <row r="410">
       <c r="B410" s="8"/>
@@ -9481,7 +9551,7 @@
       <c r="D410" s="8"/>
       <c r="E410" s="8"/>
       <c r="G410" s="8"/>
-      <c r="H410" s="11"/>
+      <c r="H410" s="8"/>
     </row>
     <row r="411">
       <c r="B411" s="8"/>
@@ -9489,7 +9559,7 @@
       <c r="D411" s="8"/>
       <c r="E411" s="8"/>
       <c r="G411" s="8"/>
-      <c r="H411" s="11"/>
+      <c r="H411" s="8"/>
     </row>
     <row r="412">
       <c r="B412" s="8"/>
@@ -9497,7 +9567,7 @@
       <c r="D412" s="8"/>
       <c r="E412" s="8"/>
       <c r="G412" s="8"/>
-      <c r="H412" s="11"/>
+      <c r="H412" s="8"/>
     </row>
     <row r="413">
       <c r="B413" s="8"/>
@@ -9505,7 +9575,7 @@
       <c r="D413" s="8"/>
       <c r="E413" s="8"/>
       <c r="G413" s="8"/>
-      <c r="H413" s="11"/>
+      <c r="H413" s="8"/>
     </row>
     <row r="414">
       <c r="B414" s="8"/>
@@ -9513,7 +9583,7 @@
       <c r="D414" s="8"/>
       <c r="E414" s="8"/>
       <c r="G414" s="8"/>
-      <c r="H414" s="11"/>
+      <c r="H414" s="8"/>
     </row>
     <row r="415">
       <c r="B415" s="8"/>
@@ -9521,7 +9591,7 @@
       <c r="D415" s="8"/>
       <c r="E415" s="8"/>
       <c r="G415" s="8"/>
-      <c r="H415" s="11"/>
+      <c r="H415" s="8"/>
     </row>
     <row r="416">
       <c r="B416" s="8"/>
@@ -9529,7 +9599,7 @@
       <c r="D416" s="8"/>
       <c r="E416" s="8"/>
       <c r="G416" s="8"/>
-      <c r="H416" s="11"/>
+      <c r="H416" s="8"/>
     </row>
     <row r="417">
       <c r="B417" s="8"/>
@@ -9537,7 +9607,7 @@
       <c r="D417" s="8"/>
       <c r="E417" s="8"/>
       <c r="G417" s="8"/>
-      <c r="H417" s="11"/>
+      <c r="H417" s="8"/>
     </row>
     <row r="418">
       <c r="B418" s="8"/>
@@ -9545,7 +9615,7 @@
       <c r="D418" s="8"/>
       <c r="E418" s="8"/>
       <c r="G418" s="8"/>
-      <c r="H418" s="11"/>
+      <c r="H418" s="8"/>
     </row>
     <row r="419">
       <c r="B419" s="8"/>
@@ -9553,7 +9623,7 @@
       <c r="D419" s="8"/>
       <c r="E419" s="8"/>
       <c r="G419" s="8"/>
-      <c r="H419" s="11"/>
+      <c r="H419" s="8"/>
     </row>
     <row r="420">
       <c r="B420" s="8"/>
@@ -9561,7 +9631,7 @@
       <c r="D420" s="8"/>
       <c r="E420" s="8"/>
       <c r="G420" s="8"/>
-      <c r="H420" s="11"/>
+      <c r="H420" s="8"/>
     </row>
     <row r="421">
       <c r="B421" s="8"/>
@@ -9569,7 +9639,7 @@
       <c r="D421" s="8"/>
       <c r="E421" s="8"/>
       <c r="G421" s="8"/>
-      <c r="H421" s="11"/>
+      <c r="H421" s="8"/>
     </row>
     <row r="422">
       <c r="B422" s="8"/>
@@ -9577,7 +9647,7 @@
       <c r="D422" s="8"/>
       <c r="E422" s="8"/>
       <c r="G422" s="8"/>
-      <c r="H422" s="11"/>
+      <c r="H422" s="8"/>
     </row>
     <row r="423">
       <c r="B423" s="8"/>
@@ -9585,7 +9655,7 @@
       <c r="D423" s="8"/>
       <c r="E423" s="8"/>
       <c r="G423" s="8"/>
-      <c r="H423" s="11"/>
+      <c r="H423" s="8"/>
     </row>
     <row r="424">
       <c r="B424" s="8"/>
@@ -9593,7 +9663,7 @@
       <c r="D424" s="8"/>
       <c r="E424" s="8"/>
       <c r="G424" s="8"/>
-      <c r="H424" s="11"/>
+      <c r="H424" s="8"/>
     </row>
     <row r="425">
       <c r="B425" s="8"/>
@@ -9601,7 +9671,7 @@
       <c r="D425" s="8"/>
       <c r="E425" s="8"/>
       <c r="G425" s="8"/>
-      <c r="H425" s="11"/>
+      <c r="H425" s="8"/>
     </row>
     <row r="426">
       <c r="B426" s="8"/>
@@ -9609,7 +9679,7 @@
       <c r="D426" s="8"/>
       <c r="E426" s="8"/>
       <c r="G426" s="8"/>
-      <c r="H426" s="11"/>
+      <c r="H426" s="8"/>
     </row>
     <row r="427">
       <c r="B427" s="8"/>
@@ -9617,7 +9687,7 @@
       <c r="D427" s="8"/>
       <c r="E427" s="8"/>
       <c r="G427" s="8"/>
-      <c r="H427" s="11"/>
+      <c r="H427" s="8"/>
     </row>
     <row r="428">
       <c r="B428" s="8"/>
@@ -9625,7 +9695,7 @@
       <c r="D428" s="8"/>
       <c r="E428" s="8"/>
       <c r="G428" s="8"/>
-      <c r="H428" s="11"/>
+      <c r="H428" s="8"/>
     </row>
     <row r="429">
       <c r="B429" s="8"/>
@@ -9633,7 +9703,7 @@
       <c r="D429" s="8"/>
       <c r="E429" s="8"/>
       <c r="G429" s="8"/>
-      <c r="H429" s="11"/>
+      <c r="H429" s="8"/>
     </row>
     <row r="430">
       <c r="B430" s="8"/>
@@ -9641,7 +9711,7 @@
       <c r="D430" s="8"/>
       <c r="E430" s="8"/>
       <c r="G430" s="8"/>
-      <c r="H430" s="11"/>
+      <c r="H430" s="8"/>
     </row>
     <row r="431">
       <c r="B431" s="8"/>
@@ -9649,7 +9719,7 @@
       <c r="D431" s="8"/>
       <c r="E431" s="8"/>
       <c r="G431" s="8"/>
-      <c r="H431" s="11"/>
+      <c r="H431" s="8"/>
     </row>
     <row r="432">
       <c r="B432" s="8"/>
@@ -9657,7 +9727,7 @@
       <c r="D432" s="8"/>
       <c r="E432" s="8"/>
       <c r="G432" s="8"/>
-      <c r="H432" s="11"/>
+      <c r="H432" s="8"/>
     </row>
     <row r="433">
       <c r="B433" s="8"/>
@@ -9665,7 +9735,7 @@
       <c r="D433" s="8"/>
       <c r="E433" s="8"/>
       <c r="G433" s="8"/>
-      <c r="H433" s="11"/>
+      <c r="H433" s="8"/>
     </row>
     <row r="434">
       <c r="B434" s="8"/>
@@ -9673,7 +9743,7 @@
       <c r="D434" s="8"/>
       <c r="E434" s="8"/>
       <c r="G434" s="8"/>
-      <c r="H434" s="11"/>
+      <c r="H434" s="8"/>
     </row>
     <row r="435">
       <c r="B435" s="8"/>
@@ -9681,7 +9751,7 @@
       <c r="D435" s="8"/>
       <c r="E435" s="8"/>
       <c r="G435" s="8"/>
-      <c r="H435" s="11"/>
+      <c r="H435" s="8"/>
     </row>
     <row r="436">
       <c r="B436" s="8"/>
@@ -9689,7 +9759,7 @@
       <c r="D436" s="8"/>
       <c r="E436" s="8"/>
       <c r="G436" s="8"/>
-      <c r="H436" s="11"/>
+      <c r="H436" s="8"/>
     </row>
     <row r="437">
       <c r="B437" s="8"/>
@@ -9697,7 +9767,7 @@
       <c r="D437" s="8"/>
       <c r="E437" s="8"/>
       <c r="G437" s="8"/>
-      <c r="H437" s="11"/>
+      <c r="H437" s="8"/>
     </row>
     <row r="438">
       <c r="B438" s="8"/>
@@ -9705,7 +9775,7 @@
       <c r="D438" s="8"/>
       <c r="E438" s="8"/>
       <c r="G438" s="8"/>
-      <c r="H438" s="11"/>
+      <c r="H438" s="8"/>
     </row>
     <row r="439">
       <c r="B439" s="8"/>
@@ -9713,7 +9783,7 @@
       <c r="D439" s="8"/>
       <c r="E439" s="8"/>
       <c r="G439" s="8"/>
-      <c r="H439" s="11"/>
+      <c r="H439" s="8"/>
     </row>
     <row r="440">
       <c r="B440" s="8"/>
@@ -9721,7 +9791,7 @@
       <c r="D440" s="8"/>
       <c r="E440" s="8"/>
       <c r="G440" s="8"/>
-      <c r="H440" s="11"/>
+      <c r="H440" s="8"/>
     </row>
     <row r="441">
       <c r="B441" s="8"/>
@@ -9729,7 +9799,7 @@
       <c r="D441" s="8"/>
       <c r="E441" s="8"/>
       <c r="G441" s="8"/>
-      <c r="H441" s="11"/>
+      <c r="H441" s="8"/>
     </row>
     <row r="442">
       <c r="B442" s="8"/>
@@ -9737,7 +9807,7 @@
       <c r="D442" s="8"/>
       <c r="E442" s="8"/>
       <c r="G442" s="8"/>
-      <c r="H442" s="11"/>
+      <c r="H442" s="8"/>
     </row>
     <row r="443">
       <c r="B443" s="8"/>
@@ -9745,7 +9815,7 @@
       <c r="D443" s="8"/>
       <c r="E443" s="8"/>
       <c r="G443" s="8"/>
-      <c r="H443" s="11"/>
+      <c r="H443" s="8"/>
     </row>
     <row r="444">
       <c r="B444" s="8"/>
@@ -9753,7 +9823,7 @@
       <c r="D444" s="8"/>
       <c r="E444" s="8"/>
       <c r="G444" s="8"/>
-      <c r="H444" s="11"/>
+      <c r="H444" s="8"/>
     </row>
     <row r="445">
       <c r="B445" s="8"/>
@@ -9761,7 +9831,7 @@
       <c r="D445" s="8"/>
       <c r="E445" s="8"/>
       <c r="G445" s="8"/>
-      <c r="H445" s="11"/>
+      <c r="H445" s="8"/>
     </row>
     <row r="446">
       <c r="B446" s="8"/>
@@ -9769,7 +9839,7 @@
       <c r="D446" s="8"/>
       <c r="E446" s="8"/>
       <c r="G446" s="8"/>
-      <c r="H446" s="11"/>
+      <c r="H446" s="8"/>
     </row>
     <row r="447">
       <c r="B447" s="8"/>
@@ -9777,7 +9847,7 @@
       <c r="D447" s="8"/>
       <c r="E447" s="8"/>
       <c r="G447" s="8"/>
-      <c r="H447" s="11"/>
+      <c r="H447" s="8"/>
     </row>
     <row r="448">
       <c r="B448" s="8"/>
@@ -9785,7 +9855,7 @@
       <c r="D448" s="8"/>
       <c r="E448" s="8"/>
       <c r="G448" s="8"/>
-      <c r="H448" s="11"/>
+      <c r="H448" s="8"/>
     </row>
     <row r="449">
       <c r="B449" s="8"/>
@@ -9793,7 +9863,7 @@
       <c r="D449" s="8"/>
       <c r="E449" s="8"/>
       <c r="G449" s="8"/>
-      <c r="H449" s="11"/>
+      <c r="H449" s="8"/>
     </row>
     <row r="450">
       <c r="B450" s="8"/>
@@ -9801,7 +9871,7 @@
       <c r="D450" s="8"/>
       <c r="E450" s="8"/>
       <c r="G450" s="8"/>
-      <c r="H450" s="11"/>
+      <c r="H450" s="8"/>
     </row>
     <row r="451">
       <c r="B451" s="8"/>
@@ -9809,7 +9879,7 @@
       <c r="D451" s="8"/>
       <c r="E451" s="8"/>
       <c r="G451" s="8"/>
-      <c r="H451" s="11"/>
+      <c r="H451" s="8"/>
     </row>
     <row r="452">
       <c r="B452" s="8"/>
@@ -9817,7 +9887,7 @@
       <c r="D452" s="8"/>
       <c r="E452" s="8"/>
       <c r="G452" s="8"/>
-      <c r="H452" s="11"/>
+      <c r="H452" s="8"/>
     </row>
     <row r="453">
       <c r="B453" s="8"/>
@@ -9825,7 +9895,7 @@
       <c r="D453" s="8"/>
       <c r="E453" s="8"/>
       <c r="G453" s="8"/>
-      <c r="H453" s="11"/>
+      <c r="H453" s="8"/>
     </row>
     <row r="454">
       <c r="B454" s="8"/>
@@ -9833,7 +9903,7 @@
       <c r="D454" s="8"/>
       <c r="E454" s="8"/>
       <c r="G454" s="8"/>
-      <c r="H454" s="11"/>
+      <c r="H454" s="8"/>
     </row>
     <row r="455">
       <c r="B455" s="8"/>
@@ -9841,7 +9911,7 @@
       <c r="D455" s="8"/>
       <c r="E455" s="8"/>
       <c r="G455" s="8"/>
-      <c r="H455" s="11"/>
+      <c r="H455" s="8"/>
     </row>
     <row r="456">
       <c r="B456" s="8"/>
@@ -9849,7 +9919,7 @@
       <c r="D456" s="8"/>
       <c r="E456" s="8"/>
       <c r="G456" s="8"/>
-      <c r="H456" s="11"/>
+      <c r="H456" s="8"/>
     </row>
     <row r="457">
       <c r="B457" s="8"/>
@@ -9857,7 +9927,7 @@
       <c r="D457" s="8"/>
       <c r="E457" s="8"/>
       <c r="G457" s="8"/>
-      <c r="H457" s="11"/>
+      <c r="H457" s="8"/>
     </row>
     <row r="458">
       <c r="B458" s="8"/>
@@ -9865,7 +9935,7 @@
       <c r="D458" s="8"/>
       <c r="E458" s="8"/>
       <c r="G458" s="8"/>
-      <c r="H458" s="11"/>
+      <c r="H458" s="8"/>
     </row>
     <row r="459">
       <c r="B459" s="8"/>
@@ -9873,7 +9943,7 @@
       <c r="D459" s="8"/>
       <c r="E459" s="8"/>
       <c r="G459" s="8"/>
-      <c r="H459" s="11"/>
+      <c r="H459" s="8"/>
     </row>
     <row r="460">
       <c r="B460" s="8"/>
@@ -9881,7 +9951,7 @@
       <c r="D460" s="8"/>
       <c r="E460" s="8"/>
       <c r="G460" s="8"/>
-      <c r="H460" s="11"/>
+      <c r="H460" s="8"/>
     </row>
     <row r="461">
       <c r="B461" s="8"/>
@@ -9889,7 +9959,7 @@
       <c r="D461" s="8"/>
       <c r="E461" s="8"/>
       <c r="G461" s="8"/>
-      <c r="H461" s="11"/>
+      <c r="H461" s="8"/>
     </row>
     <row r="462">
       <c r="B462" s="8"/>
@@ -9897,7 +9967,7 @@
       <c r="D462" s="8"/>
       <c r="E462" s="8"/>
       <c r="G462" s="8"/>
-      <c r="H462" s="11"/>
+      <c r="H462" s="8"/>
     </row>
     <row r="463">
       <c r="B463" s="8"/>
@@ -9905,7 +9975,7 @@
       <c r="D463" s="8"/>
       <c r="E463" s="8"/>
       <c r="G463" s="8"/>
-      <c r="H463" s="11"/>
+      <c r="H463" s="8"/>
     </row>
     <row r="464">
       <c r="B464" s="8"/>
@@ -9913,7 +9983,7 @@
       <c r="D464" s="8"/>
       <c r="E464" s="8"/>
       <c r="G464" s="8"/>
-      <c r="H464" s="11"/>
+      <c r="H464" s="8"/>
     </row>
     <row r="465">
       <c r="B465" s="8"/>
@@ -9921,7 +9991,7 @@
       <c r="D465" s="8"/>
       <c r="E465" s="8"/>
       <c r="G465" s="8"/>
-      <c r="H465" s="11"/>
+      <c r="H465" s="8"/>
     </row>
     <row r="466">
       <c r="B466" s="8"/>
@@ -9929,7 +9999,7 @@
       <c r="D466" s="8"/>
       <c r="E466" s="8"/>
       <c r="G466" s="8"/>
-      <c r="H466" s="11"/>
+      <c r="H466" s="8"/>
     </row>
     <row r="467">
       <c r="B467" s="8"/>
@@ -9937,7 +10007,7 @@
       <c r="D467" s="8"/>
       <c r="E467" s="8"/>
       <c r="G467" s="8"/>
-      <c r="H467" s="11"/>
+      <c r="H467" s="8"/>
     </row>
     <row r="468">
       <c r="B468" s="8"/>
@@ -9945,7 +10015,7 @@
       <c r="D468" s="8"/>
       <c r="E468" s="8"/>
       <c r="G468" s="8"/>
-      <c r="H468" s="11"/>
+      <c r="H468" s="8"/>
     </row>
     <row r="469">
       <c r="B469" s="8"/>
@@ -9953,7 +10023,7 @@
       <c r="D469" s="8"/>
       <c r="E469" s="8"/>
       <c r="G469" s="8"/>
-      <c r="H469" s="11"/>
+      <c r="H469" s="8"/>
     </row>
     <row r="470">
       <c r="B470" s="8"/>
@@ -9961,7 +10031,7 @@
       <c r="D470" s="8"/>
       <c r="E470" s="8"/>
       <c r="G470" s="8"/>
-      <c r="H470" s="11"/>
+      <c r="H470" s="8"/>
     </row>
     <row r="471">
       <c r="B471" s="8"/>
@@ -9969,7 +10039,7 @@
       <c r="D471" s="8"/>
       <c r="E471" s="8"/>
       <c r="G471" s="8"/>
-      <c r="H471" s="11"/>
+      <c r="H471" s="8"/>
     </row>
     <row r="472">
       <c r="B472" s="8"/>
@@ -9977,7 +10047,7 @@
       <c r="D472" s="8"/>
       <c r="E472" s="8"/>
       <c r="G472" s="8"/>
-      <c r="H472" s="11"/>
+      <c r="H472" s="8"/>
     </row>
     <row r="473">
       <c r="B473" s="8"/>
@@ -9985,7 +10055,7 @@
       <c r="D473" s="8"/>
       <c r="E473" s="8"/>
       <c r="G473" s="8"/>
-      <c r="H473" s="11"/>
+      <c r="H473" s="8"/>
     </row>
     <row r="474">
       <c r="B474" s="8"/>
@@ -9993,7 +10063,7 @@
       <c r="D474" s="8"/>
       <c r="E474" s="8"/>
       <c r="G474" s="8"/>
-      <c r="H474" s="11"/>
+      <c r="H474" s="8"/>
     </row>
     <row r="475">
       <c r="B475" s="8"/>
@@ -10001,7 +10071,7 @@
       <c r="D475" s="8"/>
       <c r="E475" s="8"/>
       <c r="G475" s="8"/>
-      <c r="H475" s="11"/>
+      <c r="H475" s="8"/>
     </row>
     <row r="476">
       <c r="B476" s="8"/>
@@ -10009,7 +10079,7 @@
       <c r="D476" s="8"/>
       <c r="E476" s="8"/>
       <c r="G476" s="8"/>
-      <c r="H476" s="11"/>
+      <c r="H476" s="8"/>
     </row>
     <row r="477">
       <c r="B477" s="8"/>
@@ -10017,7 +10087,7 @@
       <c r="D477" s="8"/>
       <c r="E477" s="8"/>
       <c r="G477" s="8"/>
-      <c r="H477" s="11"/>
+      <c r="H477" s="8"/>
     </row>
     <row r="478">
       <c r="B478" s="8"/>
@@ -10025,7 +10095,7 @@
       <c r="D478" s="8"/>
       <c r="E478" s="8"/>
       <c r="G478" s="8"/>
-      <c r="H478" s="11"/>
+      <c r="H478" s="8"/>
     </row>
     <row r="479">
       <c r="B479" s="8"/>
@@ -10033,7 +10103,7 @@
       <c r="D479" s="8"/>
       <c r="E479" s="8"/>
       <c r="G479" s="8"/>
-      <c r="H479" s="11"/>
+      <c r="H479" s="8"/>
     </row>
     <row r="480">
       <c r="B480" s="8"/>
@@ -10041,7 +10111,7 @@
       <c r="D480" s="8"/>
       <c r="E480" s="8"/>
       <c r="G480" s="8"/>
-      <c r="H480" s="11"/>
+      <c r="H480" s="8"/>
     </row>
     <row r="481">
       <c r="B481" s="8"/>
@@ -10049,7 +10119,7 @@
       <c r="D481" s="8"/>
       <c r="E481" s="8"/>
       <c r="G481" s="8"/>
-      <c r="H481" s="11"/>
+      <c r="H481" s="8"/>
     </row>
     <row r="482">
       <c r="B482" s="8"/>
@@ -10057,7 +10127,7 @@
       <c r="D482" s="8"/>
       <c r="E482" s="8"/>
       <c r="G482" s="8"/>
-      <c r="H482" s="11"/>
+      <c r="H482" s="8"/>
     </row>
     <row r="483">
       <c r="B483" s="8"/>
@@ -10065,7 +10135,7 @@
       <c r="D483" s="8"/>
       <c r="E483" s="8"/>
       <c r="G483" s="8"/>
-      <c r="H483" s="11"/>
+      <c r="H483" s="8"/>
     </row>
     <row r="484">
       <c r="B484" s="8"/>
@@ -10073,7 +10143,7 @@
       <c r="D484" s="8"/>
       <c r="E484" s="8"/>
       <c r="G484" s="8"/>
-      <c r="H484" s="11"/>
+      <c r="H484" s="8"/>
     </row>
     <row r="485">
       <c r="B485" s="8"/>
@@ -10081,7 +10151,7 @@
       <c r="D485" s="8"/>
       <c r="E485" s="8"/>
       <c r="G485" s="8"/>
-      <c r="H485" s="11"/>
+      <c r="H485" s="8"/>
     </row>
     <row r="486">
       <c r="B486" s="8"/>
@@ -10089,7 +10159,7 @@
       <c r="D486" s="8"/>
       <c r="E486" s="8"/>
       <c r="G486" s="8"/>
-      <c r="H486" s="11"/>
+      <c r="H486" s="8"/>
     </row>
     <row r="487">
       <c r="B487" s="8"/>
@@ -10097,7 +10167,7 @@
       <c r="D487" s="8"/>
       <c r="E487" s="8"/>
       <c r="G487" s="8"/>
-      <c r="H487" s="11"/>
+      <c r="H487" s="8"/>
     </row>
     <row r="488">
       <c r="B488" s="8"/>
@@ -10105,7 +10175,7 @@
       <c r="D488" s="8"/>
       <c r="E488" s="8"/>
       <c r="G488" s="8"/>
-      <c r="H488" s="11"/>
+      <c r="H488" s="8"/>
     </row>
     <row r="489">
       <c r="B489" s="8"/>
@@ -10113,7 +10183,7 @@
       <c r="D489" s="8"/>
       <c r="E489" s="8"/>
       <c r="G489" s="8"/>
-      <c r="H489" s="11"/>
+      <c r="H489" s="8"/>
     </row>
     <row r="490">
       <c r="B490" s="8"/>
@@ -10121,7 +10191,7 @@
       <c r="D490" s="8"/>
       <c r="E490" s="8"/>
       <c r="G490" s="8"/>
-      <c r="H490" s="11"/>
+      <c r="H490" s="8"/>
     </row>
     <row r="491">
       <c r="B491" s="8"/>
@@ -10129,7 +10199,7 @@
       <c r="D491" s="8"/>
       <c r="E491" s="8"/>
       <c r="G491" s="8"/>
-      <c r="H491" s="11"/>
+      <c r="H491" s="8"/>
     </row>
     <row r="492">
       <c r="B492" s="8"/>
@@ -10137,7 +10207,7 @@
       <c r="D492" s="8"/>
       <c r="E492" s="8"/>
       <c r="G492" s="8"/>
-      <c r="H492" s="11"/>
+      <c r="H492" s="8"/>
     </row>
     <row r="493">
       <c r="B493" s="8"/>
@@ -10145,7 +10215,7 @@
       <c r="D493" s="8"/>
       <c r="E493" s="8"/>
       <c r="G493" s="8"/>
-      <c r="H493" s="11"/>
+      <c r="H493" s="8"/>
     </row>
     <row r="494">
       <c r="B494" s="8"/>
@@ -10153,7 +10223,7 @@
       <c r="D494" s="8"/>
       <c r="E494" s="8"/>
       <c r="G494" s="8"/>
-      <c r="H494" s="11"/>
+      <c r="H494" s="8"/>
     </row>
     <row r="495">
       <c r="B495" s="8"/>
@@ -10161,7 +10231,7 @@
       <c r="D495" s="8"/>
       <c r="E495" s="8"/>
       <c r="G495" s="8"/>
-      <c r="H495" s="11"/>
+      <c r="H495" s="8"/>
     </row>
     <row r="496">
       <c r="B496" s="8"/>
@@ -10169,7 +10239,7 @@
       <c r="D496" s="8"/>
       <c r="E496" s="8"/>
       <c r="G496" s="8"/>
-      <c r="H496" s="11"/>
+      <c r="H496" s="8"/>
     </row>
     <row r="497">
       <c r="B497" s="8"/>
@@ -10177,7 +10247,7 @@
       <c r="D497" s="8"/>
       <c r="E497" s="8"/>
       <c r="G497" s="8"/>
-      <c r="H497" s="11"/>
+      <c r="H497" s="8"/>
     </row>
     <row r="498">
       <c r="B498" s="8"/>
@@ -10185,7 +10255,7 @@
       <c r="D498" s="8"/>
       <c r="E498" s="8"/>
       <c r="G498" s="8"/>
-      <c r="H498" s="11"/>
+      <c r="H498" s="8"/>
     </row>
     <row r="499">
       <c r="B499" s="8"/>
@@ -10193,7 +10263,7 @@
       <c r="D499" s="8"/>
       <c r="E499" s="8"/>
       <c r="G499" s="8"/>
-      <c r="H499" s="11"/>
+      <c r="H499" s="8"/>
     </row>
     <row r="500">
       <c r="B500" s="8"/>
@@ -10201,7 +10271,7 @@
       <c r="D500" s="8"/>
       <c r="E500" s="8"/>
       <c r="G500" s="8"/>
-      <c r="H500" s="11"/>
+      <c r="H500" s="8"/>
     </row>
     <row r="501">
       <c r="B501" s="8"/>
@@ -10209,7 +10279,7 @@
       <c r="D501" s="8"/>
       <c r="E501" s="8"/>
       <c r="G501" s="8"/>
-      <c r="H501" s="11"/>
+      <c r="H501" s="8"/>
     </row>
     <row r="502">
       <c r="B502" s="8"/>
@@ -10217,7 +10287,7 @@
       <c r="D502" s="8"/>
       <c r="E502" s="8"/>
       <c r="G502" s="8"/>
-      <c r="H502" s="11"/>
+      <c r="H502" s="8"/>
     </row>
     <row r="503">
       <c r="B503" s="8"/>
@@ -10225,7 +10295,7 @@
       <c r="D503" s="8"/>
       <c r="E503" s="8"/>
       <c r="G503" s="8"/>
-      <c r="H503" s="11"/>
+      <c r="H503" s="8"/>
     </row>
     <row r="504">
       <c r="B504" s="8"/>
@@ -10233,7 +10303,7 @@
       <c r="D504" s="8"/>
       <c r="E504" s="8"/>
       <c r="G504" s="8"/>
-      <c r="H504" s="11"/>
+      <c r="H504" s="8"/>
     </row>
     <row r="505">
       <c r="B505" s="8"/>
@@ -10241,7 +10311,7 @@
       <c r="D505" s="8"/>
       <c r="E505" s="8"/>
       <c r="G505" s="8"/>
-      <c r="H505" s="11"/>
+      <c r="H505" s="8"/>
     </row>
     <row r="506">
       <c r="B506" s="8"/>
@@ -10249,7 +10319,7 @@
       <c r="D506" s="8"/>
       <c r="E506" s="8"/>
       <c r="G506" s="8"/>
-      <c r="H506" s="11"/>
+      <c r="H506" s="8"/>
     </row>
     <row r="507">
       <c r="B507" s="8"/>
@@ -10257,7 +10327,7 @@
       <c r="D507" s="8"/>
       <c r="E507" s="8"/>
       <c r="G507" s="8"/>
-      <c r="H507" s="11"/>
+      <c r="H507" s="8"/>
     </row>
     <row r="508">
       <c r="B508" s="8"/>
@@ -10265,7 +10335,7 @@
       <c r="D508" s="8"/>
       <c r="E508" s="8"/>
       <c r="G508" s="8"/>
-      <c r="H508" s="11"/>
+      <c r="H508" s="8"/>
     </row>
     <row r="509">
       <c r="B509" s="8"/>
@@ -10273,7 +10343,7 @@
       <c r="D509" s="8"/>
       <c r="E509" s="8"/>
       <c r="G509" s="8"/>
-      <c r="H509" s="11"/>
+      <c r="H509" s="8"/>
     </row>
     <row r="510">
       <c r="B510" s="8"/>
@@ -10281,7 +10351,7 @@
       <c r="D510" s="8"/>
       <c r="E510" s="8"/>
       <c r="G510" s="8"/>
-      <c r="H510" s="11"/>
+      <c r="H510" s="8"/>
     </row>
     <row r="511">
       <c r="B511" s="8"/>
@@ -10289,7 +10359,7 @@
       <c r="D511" s="8"/>
       <c r="E511" s="8"/>
       <c r="G511" s="8"/>
-      <c r="H511" s="11"/>
+      <c r="H511" s="8"/>
     </row>
     <row r="512">
       <c r="B512" s="8"/>
@@ -10297,7 +10367,7 @@
       <c r="D512" s="8"/>
       <c r="E512" s="8"/>
       <c r="G512" s="8"/>
-      <c r="H512" s="11"/>
+      <c r="H512" s="8"/>
     </row>
     <row r="513">
       <c r="B513" s="8"/>
@@ -10305,7 +10375,7 @@
       <c r="D513" s="8"/>
       <c r="E513" s="8"/>
       <c r="G513" s="8"/>
-      <c r="H513" s="11"/>
+      <c r="H513" s="8"/>
     </row>
     <row r="514">
       <c r="B514" s="8"/>
@@ -10313,7 +10383,7 @@
       <c r="D514" s="8"/>
       <c r="E514" s="8"/>
       <c r="G514" s="8"/>
-      <c r="H514" s="11"/>
+      <c r="H514" s="8"/>
     </row>
     <row r="515">
       <c r="B515" s="8"/>
@@ -10321,7 +10391,7 @@
       <c r="D515" s="8"/>
       <c r="E515" s="8"/>
       <c r="G515" s="8"/>
-      <c r="H515" s="11"/>
+      <c r="H515" s="8"/>
     </row>
     <row r="516">
       <c r="B516" s="8"/>
@@ -10329,7 +10399,7 @@
       <c r="D516" s="8"/>
       <c r="E516" s="8"/>
       <c r="G516" s="8"/>
-      <c r="H516" s="11"/>
+      <c r="H516" s="8"/>
     </row>
     <row r="517">
       <c r="B517" s="8"/>
@@ -10337,7 +10407,7 @@
       <c r="D517" s="8"/>
       <c r="E517" s="8"/>
       <c r="G517" s="8"/>
-      <c r="H517" s="11"/>
+      <c r="H517" s="8"/>
     </row>
     <row r="518">
       <c r="B518" s="8"/>
@@ -10345,7 +10415,7 @@
       <c r="D518" s="8"/>
       <c r="E518" s="8"/>
       <c r="G518" s="8"/>
-      <c r="H518" s="11"/>
+      <c r="H518" s="8"/>
     </row>
     <row r="519">
       <c r="B519" s="8"/>
@@ -10353,7 +10423,7 @@
       <c r="D519" s="8"/>
       <c r="E519" s="8"/>
       <c r="G519" s="8"/>
-      <c r="H519" s="11"/>
+      <c r="H519" s="8"/>
     </row>
     <row r="520">
       <c r="B520" s="8"/>
@@ -10361,7 +10431,7 @@
       <c r="D520" s="8"/>
       <c r="E520" s="8"/>
       <c r="G520" s="8"/>
-      <c r="H520" s="11"/>
+      <c r="H520" s="8"/>
     </row>
     <row r="521">
       <c r="B521" s="8"/>
@@ -10369,7 +10439,7 @@
       <c r="D521" s="8"/>
       <c r="E521" s="8"/>
       <c r="G521" s="8"/>
-      <c r="H521" s="11"/>
+      <c r="H521" s="8"/>
     </row>
     <row r="522">
       <c r="B522" s="8"/>
@@ -10377,7 +10447,7 @@
       <c r="D522" s="8"/>
       <c r="E522" s="8"/>
       <c r="G522" s="8"/>
-      <c r="H522" s="11"/>
+      <c r="H522" s="8"/>
     </row>
     <row r="523">
       <c r="B523" s="8"/>
@@ -10385,7 +10455,7 @@
       <c r="D523" s="8"/>
       <c r="E523" s="8"/>
       <c r="G523" s="8"/>
-      <c r="H523" s="11"/>
+      <c r="H523" s="8"/>
     </row>
     <row r="524">
       <c r="B524" s="8"/>
@@ -10393,7 +10463,7 @@
       <c r="D524" s="8"/>
       <c r="E524" s="8"/>
       <c r="G524" s="8"/>
-      <c r="H524" s="11"/>
+      <c r="H524" s="8"/>
     </row>
     <row r="525">
       <c r="B525" s="8"/>
@@ -10401,7 +10471,7 @@
       <c r="D525" s="8"/>
       <c r="E525" s="8"/>
       <c r="G525" s="8"/>
-      <c r="H525" s="11"/>
+      <c r="H525" s="8"/>
     </row>
     <row r="526">
       <c r="B526" s="8"/>
@@ -10409,7 +10479,7 @@
       <c r="D526" s="8"/>
       <c r="E526" s="8"/>
       <c r="G526" s="8"/>
-      <c r="H526" s="11"/>
+      <c r="H526" s="8"/>
     </row>
     <row r="527">
       <c r="B527" s="8"/>
@@ -10417,7 +10487,7 @@
       <c r="D527" s="8"/>
       <c r="E527" s="8"/>
       <c r="G527" s="8"/>
-      <c r="H527" s="11"/>
+      <c r="H527" s="8"/>
     </row>
     <row r="528">
       <c r="B528" s="8"/>
@@ -10425,7 +10495,7 @@
       <c r="D528" s="8"/>
       <c r="E528" s="8"/>
       <c r="G528" s="8"/>
-      <c r="H528" s="11"/>
+      <c r="H528" s="8"/>
     </row>
     <row r="529">
       <c r="B529" s="8"/>
@@ -10433,7 +10503,7 @@
       <c r="D529" s="8"/>
       <c r="E529" s="8"/>
       <c r="G529" s="8"/>
-      <c r="H529" s="11"/>
+      <c r="H529" s="8"/>
     </row>
     <row r="530">
       <c r="B530" s="8"/>
@@ -10441,7 +10511,7 @@
       <c r="D530" s="8"/>
       <c r="E530" s="8"/>
       <c r="G530" s="8"/>
-      <c r="H530" s="11"/>
+      <c r="H530" s="8"/>
     </row>
     <row r="531">
       <c r="B531" s="8"/>
@@ -10449,7 +10519,7 @@
       <c r="D531" s="8"/>
       <c r="E531" s="8"/>
       <c r="G531" s="8"/>
-      <c r="H531" s="11"/>
+      <c r="H531" s="8"/>
     </row>
     <row r="532">
       <c r="B532" s="8"/>
@@ -10457,7 +10527,7 @@
       <c r="D532" s="8"/>
       <c r="E532" s="8"/>
       <c r="G532" s="8"/>
-      <c r="H532" s="11"/>
+      <c r="H532" s="8"/>
     </row>
     <row r="533">
       <c r="B533" s="8"/>
@@ -10465,7 +10535,7 @@
       <c r="D533" s="8"/>
       <c r="E533" s="8"/>
       <c r="G533" s="8"/>
-      <c r="H533" s="11"/>
+      <c r="H533" s="8"/>
     </row>
     <row r="534">
       <c r="B534" s="8"/>
@@ -10473,7 +10543,7 @@
       <c r="D534" s="8"/>
       <c r="E534" s="8"/>
       <c r="G534" s="8"/>
-      <c r="H534" s="11"/>
+      <c r="H534" s="8"/>
     </row>
     <row r="535">
       <c r="B535" s="8"/>
@@ -10481,7 +10551,7 @@
       <c r="D535" s="8"/>
       <c r="E535" s="8"/>
       <c r="G535" s="8"/>
-      <c r="H535" s="11"/>
+      <c r="H535" s="8"/>
     </row>
     <row r="536">
       <c r="B536" s="8"/>
@@ -10489,7 +10559,7 @@
       <c r="D536" s="8"/>
       <c r="E536" s="8"/>
       <c r="G536" s="8"/>
-      <c r="H536" s="11"/>
+      <c r="H536" s="8"/>
     </row>
     <row r="537">
       <c r="B537" s="8"/>
@@ -10497,7 +10567,7 @@
       <c r="D537" s="8"/>
       <c r="E537" s="8"/>
       <c r="G537" s="8"/>
-      <c r="H537" s="11"/>
+      <c r="H537" s="8"/>
     </row>
     <row r="538">
       <c r="B538" s="8"/>
@@ -10505,7 +10575,7 @@
       <c r="D538" s="8"/>
       <c r="E538" s="8"/>
       <c r="G538" s="8"/>
-      <c r="H538" s="11"/>
+      <c r="H538" s="8"/>
     </row>
     <row r="539">
       <c r="B539" s="8"/>
@@ -10513,7 +10583,7 @@
       <c r="D539" s="8"/>
       <c r="E539" s="8"/>
       <c r="G539" s="8"/>
-      <c r="H539" s="11"/>
+      <c r="H539" s="8"/>
     </row>
     <row r="540">
       <c r="B540" s="8"/>
@@ -10521,7 +10591,7 @@
       <c r="D540" s="8"/>
       <c r="E540" s="8"/>
       <c r="G540" s="8"/>
-      <c r="H540" s="11"/>
+      <c r="H540" s="8"/>
     </row>
     <row r="541">
       <c r="B541" s="8"/>
@@ -10529,7 +10599,7 @@
       <c r="D541" s="8"/>
       <c r="E541" s="8"/>
       <c r="G541" s="8"/>
-      <c r="H541" s="11"/>
+      <c r="H541" s="8"/>
     </row>
     <row r="542">
       <c r="B542" s="8"/>
@@ -10537,7 +10607,7 @@
       <c r="D542" s="8"/>
       <c r="E542" s="8"/>
       <c r="G542" s="8"/>
-      <c r="H542" s="11"/>
+      <c r="H542" s="8"/>
     </row>
     <row r="543">
       <c r="B543" s="8"/>
@@ -10545,7 +10615,7 @@
       <c r="D543" s="8"/>
       <c r="E543" s="8"/>
       <c r="G543" s="8"/>
-      <c r="H543" s="11"/>
+      <c r="H543" s="8"/>
     </row>
     <row r="544">
       <c r="B544" s="8"/>
@@ -10553,7 +10623,7 @@
       <c r="D544" s="8"/>
       <c r="E544" s="8"/>
       <c r="G544" s="8"/>
-      <c r="H544" s="11"/>
+      <c r="H544" s="8"/>
     </row>
     <row r="545">
       <c r="B545" s="8"/>
@@ -10561,7 +10631,7 @@
       <c r="D545" s="8"/>
       <c r="E545" s="8"/>
       <c r="G545" s="8"/>
-      <c r="H545" s="11"/>
+      <c r="H545" s="8"/>
     </row>
     <row r="546">
       <c r="B546" s="8"/>
@@ -10569,7 +10639,7 @@
       <c r="D546" s="8"/>
       <c r="E546" s="8"/>
       <c r="G546" s="8"/>
-      <c r="H546" s="11"/>
+      <c r="H546" s="8"/>
     </row>
     <row r="547">
       <c r="B547" s="8"/>
@@ -10577,7 +10647,7 @@
       <c r="D547" s="8"/>
       <c r="E547" s="8"/>
       <c r="G547" s="8"/>
-      <c r="H547" s="11"/>
+      <c r="H547" s="8"/>
     </row>
     <row r="548">
       <c r="B548" s="8"/>
@@ -10585,7 +10655,7 @@
       <c r="D548" s="8"/>
       <c r="E548" s="8"/>
       <c r="G548" s="8"/>
-      <c r="H548" s="11"/>
+      <c r="H548" s="8"/>
     </row>
     <row r="549">
       <c r="B549" s="8"/>
@@ -10593,7 +10663,7 @@
       <c r="D549" s="8"/>
       <c r="E549" s="8"/>
       <c r="G549" s="8"/>
-      <c r="H549" s="11"/>
+      <c r="H549" s="8"/>
     </row>
     <row r="550">
       <c r="B550" s="8"/>
@@ -10601,7 +10671,7 @@
       <c r="D550" s="8"/>
       <c r="E550" s="8"/>
       <c r="G550" s="8"/>
-      <c r="H550" s="11"/>
+      <c r="H550" s="8"/>
     </row>
     <row r="551">
       <c r="B551" s="8"/>
@@ -10609,7 +10679,7 @@
       <c r="D551" s="8"/>
       <c r="E551" s="8"/>
       <c r="G551" s="8"/>
-      <c r="H551" s="11"/>
+      <c r="H551" s="8"/>
     </row>
     <row r="552">
       <c r="B552" s="8"/>
@@ -10617,7 +10687,7 @@
       <c r="D552" s="8"/>
       <c r="E552" s="8"/>
       <c r="G552" s="8"/>
-      <c r="H552" s="11"/>
+      <c r="H552" s="8"/>
     </row>
     <row r="553">
       <c r="B553" s="8"/>
@@ -10625,7 +10695,7 @@
       <c r="D553" s="8"/>
       <c r="E553" s="8"/>
       <c r="G553" s="8"/>
-      <c r="H553" s="11"/>
+      <c r="H553" s="8"/>
     </row>
     <row r="554">
       <c r="B554" s="8"/>
@@ -10633,7 +10703,7 @@
       <c r="D554" s="8"/>
       <c r="E554" s="8"/>
       <c r="G554" s="8"/>
-      <c r="H554" s="11"/>
+      <c r="H554" s="8"/>
     </row>
     <row r="555">
       <c r="B555" s="8"/>
@@ -10641,7 +10711,7 @@
       <c r="D555" s="8"/>
       <c r="E555" s="8"/>
       <c r="G555" s="8"/>
-      <c r="H555" s="11"/>
+      <c r="H555" s="8"/>
     </row>
     <row r="556">
       <c r="B556" s="8"/>
@@ -10649,7 +10719,7 @@
       <c r="D556" s="8"/>
       <c r="E556" s="8"/>
       <c r="G556" s="8"/>
-      <c r="H556" s="11"/>
+      <c r="H556" s="8"/>
     </row>
     <row r="557">
       <c r="B557" s="8"/>
@@ -10657,7 +10727,7 @@
       <c r="D557" s="8"/>
       <c r="E557" s="8"/>
       <c r="G557" s="8"/>
-      <c r="H557" s="11"/>
+      <c r="H557" s="8"/>
     </row>
     <row r="558">
       <c r="B558" s="8"/>
@@ -10665,7 +10735,7 @@
       <c r="D558" s="8"/>
       <c r="E558" s="8"/>
       <c r="G558" s="8"/>
-      <c r="H558" s="11"/>
+      <c r="H558" s="8"/>
     </row>
     <row r="559">
       <c r="B559" s="8"/>
@@ -10673,7 +10743,7 @@
       <c r="D559" s="8"/>
       <c r="E559" s="8"/>
       <c r="G559" s="8"/>
-      <c r="H559" s="11"/>
+      <c r="H559" s="8"/>
     </row>
     <row r="560">
       <c r="B560" s="8"/>
@@ -10681,7 +10751,7 @@
       <c r="D560" s="8"/>
       <c r="E560" s="8"/>
       <c r="G560" s="8"/>
-      <c r="H560" s="11"/>
+      <c r="H560" s="8"/>
     </row>
     <row r="561">
       <c r="B561" s="8"/>
@@ -10689,7 +10759,7 @@
       <c r="D561" s="8"/>
       <c r="E561" s="8"/>
       <c r="G561" s="8"/>
-      <c r="H561" s="11"/>
+      <c r="H561" s="8"/>
     </row>
     <row r="562">
       <c r="B562" s="8"/>
@@ -10697,7 +10767,7 @@
       <c r="D562" s="8"/>
       <c r="E562" s="8"/>
       <c r="G562" s="8"/>
-      <c r="H562" s="11"/>
+      <c r="H562" s="8"/>
     </row>
     <row r="563">
       <c r="B563" s="8"/>
@@ -10705,7 +10775,7 @@
       <c r="D563" s="8"/>
       <c r="E563" s="8"/>
       <c r="G563" s="8"/>
-      <c r="H563" s="11"/>
+      <c r="H563" s="8"/>
     </row>
     <row r="564">
       <c r="B564" s="8"/>
@@ -10713,7 +10783,7 @@
       <c r="D564" s="8"/>
       <c r="E564" s="8"/>
       <c r="G564" s="8"/>
-      <c r="H564" s="11"/>
+      <c r="H564" s="8"/>
     </row>
     <row r="565">
       <c r="B565" s="8"/>
@@ -10721,7 +10791,7 @@
       <c r="D565" s="8"/>
       <c r="E565" s="8"/>
       <c r="G565" s="8"/>
-      <c r="H565" s="11"/>
+      <c r="H565" s="8"/>
     </row>
     <row r="566">
       <c r="B566" s="8"/>
@@ -10729,7 +10799,7 @@
       <c r="D566" s="8"/>
       <c r="E566" s="8"/>
       <c r="G566" s="8"/>
-      <c r="H566" s="11"/>
+      <c r="H566" s="8"/>
     </row>
     <row r="567">
       <c r="B567" s="8"/>
@@ -10737,7 +10807,7 @@
       <c r="D567" s="8"/>
       <c r="E567" s="8"/>
       <c r="G567" s="8"/>
-      <c r="H567" s="11"/>
+      <c r="H567" s="8"/>
     </row>
     <row r="568">
       <c r="B568" s="8"/>
@@ -10745,7 +10815,7 @@
       <c r="D568" s="8"/>
       <c r="E568" s="8"/>
       <c r="G568" s="8"/>
-      <c r="H568" s="11"/>
+      <c r="H568" s="8"/>
     </row>
     <row r="569">
       <c r="B569" s="8"/>
@@ -10753,7 +10823,7 @@
       <c r="D569" s="8"/>
       <c r="E569" s="8"/>
       <c r="G569" s="8"/>
-      <c r="H569" s="11"/>
+      <c r="H569" s="8"/>
     </row>
     <row r="570">
       <c r="B570" s="8"/>
@@ -10761,7 +10831,7 @@
       <c r="D570" s="8"/>
       <c r="E570" s="8"/>
       <c r="G570" s="8"/>
-      <c r="H570" s="11"/>
+      <c r="H570" s="8"/>
     </row>
     <row r="571">
       <c r="B571" s="8"/>
@@ -10769,7 +10839,7 @@
       <c r="D571" s="8"/>
       <c r="E571" s="8"/>
       <c r="G571" s="8"/>
-      <c r="H571" s="11"/>
+      <c r="H571" s="8"/>
     </row>
     <row r="572">
       <c r="B572" s="8"/>
@@ -10777,7 +10847,7 @@
       <c r="D572" s="8"/>
       <c r="E572" s="8"/>
       <c r="G572" s="8"/>
-      <c r="H572" s="11"/>
+      <c r="H572" s="8"/>
     </row>
     <row r="573">
       <c r="B573" s="8"/>
@@ -10785,7 +10855,7 @@
       <c r="D573" s="8"/>
       <c r="E573" s="8"/>
       <c r="G573" s="8"/>
-      <c r="H573" s="11"/>
+      <c r="H573" s="8"/>
     </row>
     <row r="574">
       <c r="B574" s="8"/>
@@ -10793,7 +10863,7 @@
       <c r="D574" s="8"/>
       <c r="E574" s="8"/>
       <c r="G574" s="8"/>
-      <c r="H574" s="11"/>
+      <c r="H574" s="8"/>
     </row>
     <row r="575">
       <c r="B575" s="8"/>
@@ -10801,7 +10871,7 @@
       <c r="D575" s="8"/>
       <c r="E575" s="8"/>
       <c r="G575" s="8"/>
-      <c r="H575" s="11"/>
+      <c r="H575" s="8"/>
     </row>
     <row r="576">
       <c r="B576" s="8"/>
@@ -10809,7 +10879,7 @@
       <c r="D576" s="8"/>
       <c r="E576" s="8"/>
       <c r="G576" s="8"/>
-      <c r="H576" s="11"/>
+      <c r="H576" s="8"/>
     </row>
     <row r="577">
       <c r="B577" s="8"/>
@@ -10817,7 +10887,7 @@
       <c r="D577" s="8"/>
       <c r="E577" s="8"/>
       <c r="G577" s="8"/>
-      <c r="H577" s="11"/>
+      <c r="H577" s="8"/>
     </row>
     <row r="578">
       <c r="B578" s="8"/>
@@ -10825,7 +10895,7 @@
       <c r="D578" s="8"/>
       <c r="E578" s="8"/>
       <c r="G578" s="8"/>
-      <c r="H578" s="11"/>
+      <c r="H578" s="8"/>
     </row>
     <row r="579">
       <c r="B579" s="8"/>
@@ -10833,7 +10903,7 @@
       <c r="D579" s="8"/>
       <c r="E579" s="8"/>
       <c r="G579" s="8"/>
-      <c r="H579" s="11"/>
+      <c r="H579" s="8"/>
     </row>
     <row r="580">
       <c r="B580" s="8"/>
@@ -10841,7 +10911,7 @@
       <c r="D580" s="8"/>
       <c r="E580" s="8"/>
       <c r="G580" s="8"/>
-      <c r="H580" s="11"/>
+      <c r="H580" s="8"/>
     </row>
     <row r="581">
       <c r="B581" s="8"/>
@@ -10849,7 +10919,7 @@
       <c r="D581" s="8"/>
       <c r="E581" s="8"/>
       <c r="G581" s="8"/>
-      <c r="H581" s="11"/>
+      <c r="H581" s="8"/>
     </row>
     <row r="582">
       <c r="B582" s="8"/>
@@ -10857,7 +10927,7 @@
       <c r="D582" s="8"/>
       <c r="E582" s="8"/>
       <c r="G582" s="8"/>
-      <c r="H582" s="11"/>
+      <c r="H582" s="8"/>
     </row>
     <row r="583">
       <c r="B583" s="8"/>
@@ -10865,7 +10935,7 @@
       <c r="D583" s="8"/>
       <c r="E583" s="8"/>
       <c r="G583" s="8"/>
-      <c r="H583" s="11"/>
+      <c r="H583" s="8"/>
     </row>
     <row r="584">
       <c r="B584" s="8"/>
@@ -10873,7 +10943,7 @@
       <c r="D584" s="8"/>
       <c r="E584" s="8"/>
       <c r="G584" s="8"/>
-      <c r="H584" s="11"/>
+      <c r="H584" s="8"/>
     </row>
     <row r="585">
       <c r="B585" s="8"/>
@@ -10881,7 +10951,7 @@
       <c r="D585" s="8"/>
       <c r="E585" s="8"/>
       <c r="G585" s="8"/>
-      <c r="H585" s="11"/>
+      <c r="H585" s="8"/>
     </row>
     <row r="586">
       <c r="B586" s="8"/>
@@ -10889,7 +10959,7 @@
       <c r="D586" s="8"/>
       <c r="E586" s="8"/>
       <c r="G586" s="8"/>
-      <c r="H586" s="11"/>
+      <c r="H586" s="8"/>
     </row>
     <row r="587">
       <c r="B587" s="8"/>
@@ -10897,7 +10967,7 @@
       <c r="D587" s="8"/>
       <c r="E587" s="8"/>
       <c r="G587" s="8"/>
-      <c r="H587" s="11"/>
+      <c r="H587" s="8"/>
     </row>
     <row r="588">
       <c r="B588" s="8"/>
@@ -10905,7 +10975,7 @@
       <c r="D588" s="8"/>
       <c r="E588" s="8"/>
       <c r="G588" s="8"/>
-      <c r="H588" s="11"/>
+      <c r="H588" s="8"/>
     </row>
     <row r="589">
       <c r="B589" s="8"/>
@@ -10913,7 +10983,7 @@
       <c r="D589" s="8"/>
       <c r="E589" s="8"/>
       <c r="G589" s="8"/>
-      <c r="H589" s="11"/>
+      <c r="H589" s="8"/>
     </row>
     <row r="590">
       <c r="B590" s="8"/>
@@ -10921,7 +10991,7 @@
       <c r="D590" s="8"/>
       <c r="E590" s="8"/>
       <c r="G590" s="8"/>
-      <c r="H590" s="11"/>
+      <c r="H590" s="8"/>
     </row>
     <row r="591">
       <c r="B591" s="8"/>
@@ -10929,7 +10999,7 @@
       <c r="D591" s="8"/>
       <c r="E591" s="8"/>
       <c r="G591" s="8"/>
-      <c r="H591" s="11"/>
+      <c r="H591" s="8"/>
     </row>
     <row r="592">
       <c r="B592" s="8"/>
@@ -10937,7 +11007,7 @@
       <c r="D592" s="8"/>
       <c r="E592" s="8"/>
       <c r="G592" s="8"/>
-      <c r="H592" s="11"/>
+      <c r="H592" s="8"/>
     </row>
     <row r="593">
       <c r="B593" s="8"/>
@@ -10945,7 +11015,7 @@
       <c r="D593" s="8"/>
       <c r="E593" s="8"/>
       <c r="G593" s="8"/>
-      <c r="H593" s="11"/>
+      <c r="H593" s="8"/>
     </row>
     <row r="594">
       <c r="B594" s="8"/>
@@ -10953,7 +11023,7 @@
       <c r="D594" s="8"/>
       <c r="E594" s="8"/>
       <c r="G594" s="8"/>
-      <c r="H594" s="11"/>
+      <c r="H594" s="8"/>
     </row>
     <row r="595">
       <c r="B595" s="8"/>
@@ -10961,7 +11031,7 @@
       <c r="D595" s="8"/>
       <c r="E595" s="8"/>
       <c r="G595" s="8"/>
-      <c r="H595" s="11"/>
+      <c r="H595" s="8"/>
     </row>
     <row r="596">
       <c r="B596" s="8"/>
@@ -10969,7 +11039,7 @@
       <c r="D596" s="8"/>
       <c r="E596" s="8"/>
       <c r="G596" s="8"/>
-      <c r="H596" s="11"/>
+      <c r="H596" s="8"/>
     </row>
     <row r="597">
       <c r="B597" s="8"/>
@@ -10977,7 +11047,7 @@
       <c r="D597" s="8"/>
       <c r="E597" s="8"/>
       <c r="G597" s="8"/>
-      <c r="H597" s="11"/>
+      <c r="H597" s="8"/>
     </row>
     <row r="598">
       <c r="B598" s="8"/>
@@ -10985,7 +11055,7 @@
       <c r="D598" s="8"/>
       <c r="E598" s="8"/>
       <c r="G598" s="8"/>
-      <c r="H598" s="11"/>
+      <c r="H598" s="8"/>
     </row>
     <row r="599">
       <c r="B599" s="8"/>
@@ -10993,7 +11063,7 @@
       <c r="D599" s="8"/>
       <c r="E599" s="8"/>
       <c r="G599" s="8"/>
-      <c r="H599" s="11"/>
+      <c r="H599" s="8"/>
     </row>
     <row r="600">
       <c r="B600" s="8"/>
@@ -11001,7 +11071,7 @@
       <c r="D600" s="8"/>
       <c r="E600" s="8"/>
       <c r="G600" s="8"/>
-      <c r="H600" s="11"/>
+      <c r="H600" s="8"/>
     </row>
     <row r="601">
       <c r="B601" s="8"/>
@@ -11009,7 +11079,7 @@
       <c r="D601" s="8"/>
       <c r="E601" s="8"/>
       <c r="G601" s="8"/>
-      <c r="H601" s="11"/>
+      <c r="H601" s="8"/>
     </row>
     <row r="602">
       <c r="B602" s="8"/>
@@ -11017,7 +11087,7 @@
       <c r="D602" s="8"/>
       <c r="E602" s="8"/>
       <c r="G602" s="8"/>
-      <c r="H602" s="11"/>
+      <c r="H602" s="8"/>
     </row>
     <row r="603">
       <c r="B603" s="8"/>
@@ -11025,7 +11095,7 @@
       <c r="D603" s="8"/>
       <c r="E603" s="8"/>
       <c r="G603" s="8"/>
-      <c r="H603" s="11"/>
+      <c r="H603" s="8"/>
     </row>
     <row r="604">
       <c r="B604" s="8"/>
@@ -11033,7 +11103,7 @@
       <c r="D604" s="8"/>
       <c r="E604" s="8"/>
       <c r="G604" s="8"/>
-      <c r="H604" s="11"/>
+      <c r="H604" s="8"/>
     </row>
     <row r="605">
       <c r="B605" s="8"/>
@@ -11041,7 +11111,7 @@
       <c r="D605" s="8"/>
       <c r="E605" s="8"/>
       <c r="G605" s="8"/>
-      <c r="H605" s="11"/>
+      <c r="H605" s="8"/>
     </row>
     <row r="606">
       <c r="B606" s="8"/>
@@ -11049,7 +11119,7 @@
       <c r="D606" s="8"/>
       <c r="E606" s="8"/>
       <c r="G606" s="8"/>
-      <c r="H606" s="11"/>
+      <c r="H606" s="8"/>
     </row>
     <row r="607">
       <c r="B607" s="8"/>
@@ -11057,7 +11127,7 @@
       <c r="D607" s="8"/>
       <c r="E607" s="8"/>
       <c r="G607" s="8"/>
-      <c r="H607" s="11"/>
+      <c r="H607" s="8"/>
     </row>
     <row r="608">
       <c r="B608" s="8"/>
@@ -11065,7 +11135,7 @@
       <c r="D608" s="8"/>
       <c r="E608" s="8"/>
       <c r="G608" s="8"/>
-      <c r="H608" s="11"/>
+      <c r="H608" s="8"/>
     </row>
     <row r="609">
       <c r="B609" s="8"/>
@@ -11073,7 +11143,7 @@
       <c r="D609" s="8"/>
       <c r="E609" s="8"/>
       <c r="G609" s="8"/>
-      <c r="H609" s="11"/>
+      <c r="H609" s="8"/>
     </row>
     <row r="610">
       <c r="B610" s="8"/>
@@ -11081,7 +11151,7 @@
       <c r="D610" s="8"/>
       <c r="E610" s="8"/>
       <c r="G610" s="8"/>
-      <c r="H610" s="11"/>
+      <c r="H610" s="8"/>
     </row>
     <row r="611">
       <c r="B611" s="8"/>
@@ -11089,7 +11159,7 @@
       <c r="D611" s="8"/>
       <c r="E611" s="8"/>
       <c r="G611" s="8"/>
-      <c r="H611" s="11"/>
+      <c r="H611" s="8"/>
     </row>
     <row r="612">
       <c r="B612" s="8"/>
@@ -11097,7 +11167,7 @@
       <c r="D612" s="8"/>
       <c r="E612" s="8"/>
       <c r="G612" s="8"/>
-      <c r="H612" s="11"/>
+      <c r="H612" s="8"/>
     </row>
     <row r="613">
       <c r="B613" s="8"/>
@@ -11105,7 +11175,7 @@
       <c r="D613" s="8"/>
       <c r="E613" s="8"/>
       <c r="G613" s="8"/>
-      <c r="H613" s="11"/>
+      <c r="H613" s="8"/>
     </row>
     <row r="614">
       <c r="B614" s="8"/>
@@ -11113,7 +11183,7 @@
       <c r="D614" s="8"/>
       <c r="E614" s="8"/>
       <c r="G614" s="8"/>
-      <c r="H614" s="11"/>
+      <c r="H614" s="8"/>
     </row>
     <row r="615">
       <c r="B615" s="8"/>
@@ -11121,7 +11191,7 @@
       <c r="D615" s="8"/>
       <c r="E615" s="8"/>
       <c r="G615" s="8"/>
-      <c r="H615" s="11"/>
+      <c r="H615" s="8"/>
     </row>
     <row r="616">
       <c r="B616" s="8"/>
@@ -11129,7 +11199,7 @@
       <c r="D616" s="8"/>
       <c r="E616" s="8"/>
       <c r="G616" s="8"/>
-      <c r="H616" s="11"/>
+      <c r="H616" s="8"/>
     </row>
     <row r="617">
       <c r="B617" s="8"/>
@@ -11137,7 +11207,7 @@
       <c r="D617" s="8"/>
       <c r="E617" s="8"/>
       <c r="G617" s="8"/>
-      <c r="H617" s="11"/>
+      <c r="H617" s="8"/>
     </row>
     <row r="618">
       <c r="B618" s="8"/>
@@ -11145,7 +11215,7 @@
       <c r="D618" s="8"/>
       <c r="E618" s="8"/>
       <c r="G618" s="8"/>
-      <c r="H618" s="11"/>
+      <c r="H618" s="8"/>
     </row>
     <row r="619">
       <c r="B619" s="8"/>
@@ -11153,7 +11223,7 @@
       <c r="D619" s="8"/>
       <c r="E619" s="8"/>
       <c r="G619" s="8"/>
-      <c r="H619" s="11"/>
+      <c r="H619" s="8"/>
     </row>
     <row r="620">
       <c r="B620" s="8"/>
@@ -11161,7 +11231,7 @@
       <c r="D620" s="8"/>
       <c r="E620" s="8"/>
       <c r="G620" s="8"/>
-      <c r="H620" s="11"/>
+      <c r="H620" s="8"/>
     </row>
     <row r="621">
       <c r="B621" s="8"/>
@@ -11169,7 +11239,7 @@
       <c r="D621" s="8"/>
       <c r="E621" s="8"/>
       <c r="G621" s="8"/>
-      <c r="H621" s="11"/>
+      <c r="H621" s="8"/>
     </row>
     <row r="622">
       <c r="B622" s="8"/>
@@ -11177,7 +11247,7 @@
       <c r="D622" s="8"/>
       <c r="E622" s="8"/>
       <c r="G622" s="8"/>
-      <c r="H622" s="11"/>
+      <c r="H622" s="8"/>
     </row>
     <row r="623">
       <c r="B623" s="8"/>
@@ -11185,7 +11255,7 @@
       <c r="D623" s="8"/>
       <c r="E623" s="8"/>
       <c r="G623" s="8"/>
-      <c r="H623" s="11"/>
+      <c r="H623" s="8"/>
     </row>
     <row r="624">
       <c r="B624" s="8"/>
@@ -11193,7 +11263,7 @@
       <c r="D624" s="8"/>
       <c r="E624" s="8"/>
       <c r="G624" s="8"/>
-      <c r="H624" s="11"/>
+      <c r="H624" s="8"/>
     </row>
     <row r="625">
       <c r="B625" s="8"/>
@@ -11201,7 +11271,7 @@
       <c r="D625" s="8"/>
       <c r="E625" s="8"/>
       <c r="G625" s="8"/>
-      <c r="H625" s="11"/>
+      <c r="H625" s="8"/>
     </row>
     <row r="626">
       <c r="B626" s="8"/>
@@ -11209,7 +11279,7 @@
       <c r="D626" s="8"/>
       <c r="E626" s="8"/>
       <c r="G626" s="8"/>
-      <c r="H626" s="11"/>
+      <c r="H626" s="8"/>
     </row>
     <row r="627">
       <c r="B627" s="8"/>
@@ -11217,7 +11287,7 @@
       <c r="D627" s="8"/>
       <c r="E627" s="8"/>
       <c r="G627" s="8"/>
-      <c r="H627" s="11"/>
+      <c r="H627" s="8"/>
     </row>
     <row r="628">
       <c r="B628" s="8"/>
@@ -11225,7 +11295,7 @@
       <c r="D628" s="8"/>
       <c r="E628" s="8"/>
       <c r="G628" s="8"/>
-      <c r="H628" s="11"/>
+      <c r="H628" s="8"/>
     </row>
     <row r="629">
       <c r="B629" s="8"/>
@@ -11233,7 +11303,7 @@
       <c r="D629" s="8"/>
       <c r="E629" s="8"/>
       <c r="G629" s="8"/>
-      <c r="H629" s="11"/>
+      <c r="H629" s="8"/>
     </row>
     <row r="630">
       <c r="B630" s="8"/>
@@ -11241,7 +11311,7 @@
       <c r="D630" s="8"/>
       <c r="E630" s="8"/>
       <c r="G630" s="8"/>
-      <c r="H630" s="11"/>
+      <c r="H630" s="8"/>
     </row>
     <row r="631">
       <c r="B631" s="8"/>
@@ -11249,7 +11319,7 @@
       <c r="D631" s="8"/>
       <c r="E631" s="8"/>
       <c r="G631" s="8"/>
-      <c r="H631" s="11"/>
+      <c r="H631" s="8"/>
     </row>
     <row r="632">
       <c r="B632" s="8"/>
@@ -11257,7 +11327,7 @@
       <c r="D632" s="8"/>
       <c r="E632" s="8"/>
       <c r="G632" s="8"/>
-      <c r="H632" s="11"/>
+      <c r="H632" s="8"/>
     </row>
     <row r="633">
       <c r="B633" s="8"/>
@@ -11265,7 +11335,7 @@
       <c r="D633" s="8"/>
       <c r="E633" s="8"/>
       <c r="G633" s="8"/>
-      <c r="H633" s="11"/>
+      <c r="H633" s="8"/>
     </row>
     <row r="634">
       <c r="B634" s="8"/>
@@ -11273,7 +11343,7 @@
       <c r="D634" s="8"/>
       <c r="E634" s="8"/>
       <c r="G634" s="8"/>
-      <c r="H634" s="11"/>
+      <c r="H634" s="8"/>
     </row>
     <row r="635">
       <c r="B635" s="8"/>
@@ -11281,7 +11351,7 @@
       <c r="D635" s="8"/>
       <c r="E635" s="8"/>
       <c r="G635" s="8"/>
-      <c r="H635" s="11"/>
+      <c r="H635" s="8"/>
     </row>
     <row r="636">
       <c r="B636" s="8"/>
@@ -11289,7 +11359,7 @@
       <c r="D636" s="8"/>
       <c r="E636" s="8"/>
       <c r="G636" s="8"/>
-      <c r="H636" s="11"/>
+      <c r="H636" s="8"/>
     </row>
     <row r="637">
       <c r="B637" s="8"/>
@@ -11297,7 +11367,7 @@
       <c r="D637" s="8"/>
       <c r="E637" s="8"/>
       <c r="G637" s="8"/>
-      <c r="H637" s="11"/>
+      <c r="H637" s="8"/>
     </row>
     <row r="638">
       <c r="B638" s="8"/>
@@ -11305,7 +11375,7 @@
       <c r="D638" s="8"/>
       <c r="E638" s="8"/>
       <c r="G638" s="8"/>
-      <c r="H638" s="11"/>
+      <c r="H638" s="8"/>
     </row>
     <row r="639">
       <c r="B639" s="8"/>
@@ -11313,7 +11383,7 @@
       <c r="D639" s="8"/>
       <c r="E639" s="8"/>
       <c r="G639" s="8"/>
-      <c r="H639" s="11"/>
+      <c r="H639" s="8"/>
     </row>
     <row r="640">
       <c r="B640" s="8"/>
@@ -11321,7 +11391,7 @@
       <c r="D640" s="8"/>
       <c r="E640" s="8"/>
       <c r="G640" s="8"/>
-      <c r="H640" s="11"/>
+      <c r="H640" s="8"/>
     </row>
     <row r="641">
       <c r="B641" s="8"/>
@@ -11329,7 +11399,7 @@
       <c r="D641" s="8"/>
       <c r="E641" s="8"/>
       <c r="G641" s="8"/>
-      <c r="H641" s="11"/>
+      <c r="H641" s="8"/>
     </row>
     <row r="642">
       <c r="B642" s="8"/>
@@ -11337,7 +11407,7 @@
       <c r="D642" s="8"/>
       <c r="E642" s="8"/>
       <c r="G642" s="8"/>
-      <c r="H642" s="11"/>
+      <c r="H642" s="8"/>
     </row>
     <row r="643">
       <c r="B643" s="8"/>
@@ -11345,7 +11415,7 @@
       <c r="D643" s="8"/>
       <c r="E643" s="8"/>
       <c r="G643" s="8"/>
-      <c r="H643" s="11"/>
+      <c r="H643" s="8"/>
     </row>
     <row r="644">
       <c r="B644" s="8"/>
@@ -11353,7 +11423,7 @@
       <c r="D644" s="8"/>
       <c r="E644" s="8"/>
       <c r="G644" s="8"/>
-      <c r="H644" s="11"/>
+      <c r="H644" s="8"/>
     </row>
     <row r="645">
       <c r="B645" s="8"/>
@@ -11361,7 +11431,7 @@
       <c r="D645" s="8"/>
       <c r="E645" s="8"/>
       <c r="G645" s="8"/>
-      <c r="H645" s="11"/>
+      <c r="H645" s="8"/>
     </row>
     <row r="646">
       <c r="B646" s="8"/>
@@ -11369,7 +11439,7 @@
       <c r="D646" s="8"/>
       <c r="E646" s="8"/>
       <c r="G646" s="8"/>
-      <c r="H646" s="11"/>
+      <c r="H646" s="8"/>
     </row>
     <row r="647">
       <c r="B647" s="8"/>
@@ -11377,7 +11447,7 @@
       <c r="D647" s="8"/>
       <c r="E647" s="8"/>
       <c r="G647" s="8"/>
-      <c r="H647" s="11"/>
+      <c r="H647" s="8"/>
     </row>
     <row r="648">
       <c r="B648" s="8"/>
@@ -11385,7 +11455,7 @@
       <c r="D648" s="8"/>
       <c r="E648" s="8"/>
       <c r="G648" s="8"/>
-      <c r="H648" s="11"/>
+      <c r="H648" s="8"/>
     </row>
     <row r="649">
       <c r="B649" s="8"/>
@@ -11393,7 +11463,7 @@
       <c r="D649" s="8"/>
       <c r="E649" s="8"/>
       <c r="G649" s="8"/>
-      <c r="H649" s="11"/>
+      <c r="H649" s="8"/>
     </row>
     <row r="650">
       <c r="B650" s="8"/>
@@ -11401,7 +11471,7 @@
       <c r="D650" s="8"/>
       <c r="E650" s="8"/>
       <c r="G650" s="8"/>
-      <c r="H650" s="11"/>
+      <c r="H650" s="8"/>
     </row>
     <row r="651">
       <c r="B651" s="8"/>
@@ -11409,7 +11479,7 @@
       <c r="D651" s="8"/>
       <c r="E651" s="8"/>
       <c r="G651" s="8"/>
-      <c r="H651" s="11"/>
+      <c r="H651" s="8"/>
     </row>
     <row r="652">
       <c r="B652" s="8"/>
@@ -11417,7 +11487,7 @@
       <c r="D652" s="8"/>
       <c r="E652" s="8"/>
       <c r="G652" s="8"/>
-      <c r="H652" s="11"/>
+      <c r="H652" s="8"/>
     </row>
     <row r="653">
       <c r="B653" s="8"/>
@@ -11425,7 +11495,7 @@
       <c r="D653" s="8"/>
       <c r="E653" s="8"/>
       <c r="G653" s="8"/>
-      <c r="H653" s="11"/>
+      <c r="H653" s="8"/>
     </row>
     <row r="654">
       <c r="B654" s="8"/>
@@ -11433,7 +11503,7 @@
       <c r="D654" s="8"/>
       <c r="E654" s="8"/>
       <c r="G654" s="8"/>
-      <c r="H654" s="11"/>
+      <c r="H654" s="8"/>
     </row>
     <row r="655">
       <c r="B655" s="8"/>
@@ -11441,7 +11511,7 @@
       <c r="D655" s="8"/>
       <c r="E655" s="8"/>
       <c r="G655" s="8"/>
-      <c r="H655" s="11"/>
+      <c r="H655" s="8"/>
     </row>
     <row r="656">
       <c r="B656" s="8"/>
@@ -11449,7 +11519,7 @@
       <c r="D656" s="8"/>
       <c r="E656" s="8"/>
       <c r="G656" s="8"/>
-      <c r="H656" s="11"/>
+      <c r="H656" s="8"/>
     </row>
     <row r="657">
       <c r="B657" s="8"/>
@@ -11457,7 +11527,7 @@
       <c r="D657" s="8"/>
       <c r="E657" s="8"/>
       <c r="G657" s="8"/>
-      <c r="H657" s="11"/>
+      <c r="H657" s="8"/>
     </row>
     <row r="658">
       <c r="B658" s="8"/>
@@ -11465,7 +11535,7 @@
       <c r="D658" s="8"/>
       <c r="E658" s="8"/>
       <c r="G658" s="8"/>
-      <c r="H658" s="11"/>
+      <c r="H658" s="8"/>
     </row>
     <row r="659">
       <c r="B659" s="8"/>
@@ -11473,7 +11543,7 @@
       <c r="D659" s="8"/>
       <c r="E659" s="8"/>
       <c r="G659" s="8"/>
-      <c r="H659" s="11"/>
+      <c r="H659" s="8"/>
     </row>
     <row r="660">
       <c r="B660" s="8"/>
@@ -11481,7 +11551,7 @@
       <c r="D660" s="8"/>
       <c r="E660" s="8"/>
       <c r="G660" s="8"/>
-      <c r="H660" s="11"/>
+      <c r="H660" s="8"/>
     </row>
     <row r="661">
       <c r="B661" s="8"/>
@@ -11489,7 +11559,7 @@
       <c r="D661" s="8"/>
       <c r="E661" s="8"/>
       <c r="G661" s="8"/>
-      <c r="H661" s="11"/>
+      <c r="H661" s="8"/>
     </row>
     <row r="662">
       <c r="B662" s="8"/>
@@ -11497,7 +11567,7 @@
       <c r="D662" s="8"/>
       <c r="E662" s="8"/>
       <c r="G662" s="8"/>
-      <c r="H662" s="11"/>
+      <c r="H662" s="8"/>
     </row>
     <row r="663">
       <c r="B663" s="8"/>
@@ -11505,7 +11575,7 @@
       <c r="D663" s="8"/>
       <c r="E663" s="8"/>
       <c r="G663" s="8"/>
-      <c r="H663" s="11"/>
+      <c r="H663" s="8"/>
     </row>
     <row r="664">
       <c r="B664" s="8"/>
@@ -11513,7 +11583,7 @@
       <c r="D664" s="8"/>
       <c r="E664" s="8"/>
       <c r="G664" s="8"/>
-      <c r="H664" s="11"/>
+      <c r="H664" s="8"/>
     </row>
     <row r="665">
       <c r="B665" s="8"/>
@@ -11521,7 +11591,7 @@
       <c r="D665" s="8"/>
       <c r="E665" s="8"/>
       <c r="G665" s="8"/>
-      <c r="H665" s="11"/>
+      <c r="H665" s="8"/>
     </row>
     <row r="666">
       <c r="B666" s="8"/>
@@ -11529,7 +11599,7 @@
       <c r="D666" s="8"/>
       <c r="E666" s="8"/>
       <c r="G666" s="8"/>
-      <c r="H666" s="11"/>
+      <c r="H666" s="8"/>
     </row>
     <row r="667">
       <c r="B667" s="8"/>
@@ -11537,7 +11607,7 @@
       <c r="D667" s="8"/>
       <c r="E667" s="8"/>
       <c r="G667" s="8"/>
-      <c r="H667" s="11"/>
+      <c r="H667" s="8"/>
     </row>
     <row r="668">
       <c r="B668" s="8"/>
@@ -11545,7 +11615,7 @@
       <c r="D668" s="8"/>
       <c r="E668" s="8"/>
       <c r="G668" s="8"/>
-      <c r="H668" s="11"/>
+      <c r="H668" s="8"/>
     </row>
     <row r="669">
       <c r="B669" s="8"/>
@@ -11553,7 +11623,7 @@
       <c r="D669" s="8"/>
       <c r="E669" s="8"/>
       <c r="G669" s="8"/>
-      <c r="H669" s="11"/>
+      <c r="H669" s="8"/>
     </row>
     <row r="670">
       <c r="B670" s="8"/>
@@ -11561,7 +11631,7 @@
       <c r="D670" s="8"/>
       <c r="E670" s="8"/>
       <c r="G670" s="8"/>
-      <c r="H670" s="11"/>
+      <c r="H670" s="8"/>
     </row>
     <row r="671">
       <c r="B671" s="8"/>
@@ -11569,7 +11639,7 @@
       <c r="D671" s="8"/>
       <c r="E671" s="8"/>
       <c r="G671" s="8"/>
-      <c r="H671" s="11"/>
+      <c r="H671" s="8"/>
     </row>
     <row r="672">
       <c r="B672" s="8"/>
@@ -11577,7 +11647,7 @@
       <c r="D672" s="8"/>
       <c r="E672" s="8"/>
       <c r="G672" s="8"/>
-      <c r="H672" s="11"/>
+      <c r="H672" s="8"/>
     </row>
     <row r="673">
       <c r="B673" s="8"/>
@@ -11585,7 +11655,7 @@
       <c r="D673" s="8"/>
       <c r="E673" s="8"/>
       <c r="G673" s="8"/>
-      <c r="H673" s="11"/>
+      <c r="H673" s="8"/>
     </row>
     <row r="674">
       <c r="B674" s="8"/>
@@ -11593,7 +11663,7 @@
       <c r="D674" s="8"/>
       <c r="E674" s="8"/>
       <c r="G674" s="8"/>
-      <c r="H674" s="11"/>
+      <c r="H674" s="8"/>
     </row>
     <row r="675">
       <c r="B675" s="8"/>
@@ -11601,7 +11671,7 @@
       <c r="D675" s="8"/>
       <c r="E675" s="8"/>
       <c r="G675" s="8"/>
-      <c r="H675" s="11"/>
+      <c r="H675" s="8"/>
     </row>
     <row r="676">
       <c r="B676" s="8"/>
@@ -11609,7 +11679,7 @@
       <c r="D676" s="8"/>
       <c r="E676" s="8"/>
       <c r="G676" s="8"/>
-      <c r="H676" s="11"/>
+      <c r="H676" s="8"/>
     </row>
     <row r="677">
       <c r="B677" s="8"/>
@@ -11617,7 +11687,7 @@
       <c r="D677" s="8"/>
       <c r="E677" s="8"/>
       <c r="G677" s="8"/>
-      <c r="H677" s="11"/>
+      <c r="H677" s="8"/>
     </row>
     <row r="678">
       <c r="B678" s="8"/>
@@ -11625,7 +11695,7 @@
       <c r="D678" s="8"/>
       <c r="E678" s="8"/>
       <c r="G678" s="8"/>
-      <c r="H678" s="11"/>
+      <c r="H678" s="8"/>
     </row>
     <row r="679">
       <c r="B679" s="8"/>
@@ -11633,7 +11703,7 @@
       <c r="D679" s="8"/>
       <c r="E679" s="8"/>
       <c r="G679" s="8"/>
-      <c r="H679" s="11"/>
+      <c r="H679" s="8"/>
     </row>
     <row r="680">
       <c r="B680" s="8"/>
@@ -11641,7 +11711,7 @@
       <c r="D680" s="8"/>
       <c r="E680" s="8"/>
       <c r="G680" s="8"/>
-      <c r="H680" s="11"/>
+      <c r="H680" s="8"/>
     </row>
     <row r="681">
       <c r="B681" s="8"/>
@@ -11649,7 +11719,7 @@
       <c r="D681" s="8"/>
       <c r="E681" s="8"/>
       <c r="G681" s="8"/>
-      <c r="H681" s="11"/>
+      <c r="H681" s="8"/>
     </row>
     <row r="682">
       <c r="B682" s="8"/>
@@ -11657,7 +11727,7 @@
       <c r="D682" s="8"/>
       <c r="E682" s="8"/>
       <c r="G682" s="8"/>
-      <c r="H682" s="11"/>
+      <c r="H682" s="8"/>
     </row>
     <row r="683">
       <c r="B683" s="8"/>
@@ -11665,7 +11735,7 @@
       <c r="D683" s="8"/>
       <c r="E683" s="8"/>
       <c r="G683" s="8"/>
-      <c r="H683" s="11"/>
+      <c r="H683" s="8"/>
     </row>
     <row r="684">
       <c r="B684" s="8"/>
@@ -11673,7 +11743,7 @@
       <c r="D684" s="8"/>
       <c r="E684" s="8"/>
       <c r="G684" s="8"/>
-      <c r="H684" s="11"/>
+      <c r="H684" s="8"/>
     </row>
     <row r="685">
       <c r="B685" s="8"/>
@@ -11681,7 +11751,7 @@
       <c r="D685" s="8"/>
       <c r="E685" s="8"/>
       <c r="G685" s="8"/>
-      <c r="H685" s="11"/>
+      <c r="H685" s="8"/>
     </row>
     <row r="686">
       <c r="B686" s="8"/>
@@ -11689,7 +11759,7 @@
       <c r="D686" s="8"/>
       <c r="E686" s="8"/>
       <c r="G686" s="8"/>
-      <c r="H686" s="11"/>
+      <c r="H686" s="8"/>
     </row>
     <row r="687">
       <c r="B687" s="8"/>
@@ -11697,7 +11767,7 @@
       <c r="D687" s="8"/>
       <c r="E687" s="8"/>
       <c r="G687" s="8"/>
-      <c r="H687" s="11"/>
+      <c r="H687" s="8"/>
     </row>
     <row r="688">
       <c r="B688" s="8"/>
@@ -11705,7 +11775,7 @@
       <c r="D688" s="8"/>
       <c r="E688" s="8"/>
       <c r="G688" s="8"/>
-      <c r="H688" s="11"/>
+      <c r="H688" s="8"/>
     </row>
     <row r="689">
       <c r="B689" s="8"/>
@@ -11713,7 +11783,7 @@
       <c r="D689" s="8"/>
       <c r="E689" s="8"/>
       <c r="G689" s="8"/>
-      <c r="H689" s="11"/>
+      <c r="H689" s="8"/>
     </row>
     <row r="690">
       <c r="B690" s="8"/>
@@ -11721,7 +11791,7 @@
       <c r="D690" s="8"/>
       <c r="E690" s="8"/>
       <c r="G690" s="8"/>
-      <c r="H690" s="11"/>
+      <c r="H690" s="8"/>
     </row>
     <row r="691">
       <c r="B691" s="8"/>
@@ -11729,7 +11799,7 @@
       <c r="D691" s="8"/>
       <c r="E691" s="8"/>
       <c r="G691" s="8"/>
-      <c r="H691" s="11"/>
+      <c r="H691" s="8"/>
     </row>
     <row r="692">
       <c r="B692" s="8"/>
@@ -11737,7 +11807,7 @@
       <c r="D692" s="8"/>
       <c r="E692" s="8"/>
       <c r="G692" s="8"/>
-      <c r="H692" s="11"/>
+      <c r="H692" s="8"/>
     </row>
     <row r="693">
       <c r="B693" s="8"/>
@@ -11745,7 +11815,7 @@
       <c r="D693" s="8"/>
       <c r="E693" s="8"/>
       <c r="G693" s="8"/>
-      <c r="H693" s="11"/>
+      <c r="H693" s="8"/>
     </row>
     <row r="694">
       <c r="B694" s="8"/>
@@ -11753,7 +11823,7 @@
       <c r="D694" s="8"/>
       <c r="E694" s="8"/>
       <c r="G694" s="8"/>
-      <c r="H694" s="11"/>
+      <c r="H694" s="8"/>
     </row>
     <row r="695">
       <c r="B695" s="8"/>
@@ -11761,7 +11831,7 @@
       <c r="D695" s="8"/>
       <c r="E695" s="8"/>
       <c r="G695" s="8"/>
-      <c r="H695" s="11"/>
+      <c r="H695" s="8"/>
     </row>
     <row r="696">
       <c r="B696" s="8"/>
@@ -11769,7 +11839,7 @@
       <c r="D696" s="8"/>
       <c r="E696" s="8"/>
       <c r="G696" s="8"/>
-      <c r="H696" s="11"/>
+      <c r="H696" s="8"/>
     </row>
     <row r="697">
       <c r="B697" s="8"/>
@@ -11777,7 +11847,7 @@
       <c r="D697" s="8"/>
       <c r="E697" s="8"/>
       <c r="G697" s="8"/>
-      <c r="H697" s="11"/>
+      <c r="H697" s="8"/>
     </row>
     <row r="698">
       <c r="B698" s="8"/>
@@ -11785,7 +11855,7 @@
       <c r="D698" s="8"/>
       <c r="E698" s="8"/>
       <c r="G698" s="8"/>
-      <c r="H698" s="11"/>
+      <c r="H698" s="8"/>
     </row>
     <row r="699">
       <c r="B699" s="8"/>
@@ -11793,7 +11863,7 @@
       <c r="D699" s="8"/>
       <c r="E699" s="8"/>
       <c r="G699" s="8"/>
-      <c r="H699" s="11"/>
+      <c r="H699" s="8"/>
     </row>
     <row r="700">
       <c r="B700" s="8"/>
@@ -11801,7 +11871,7 @@
       <c r="D700" s="8"/>
       <c r="E700" s="8"/>
       <c r="G700" s="8"/>
-      <c r="H700" s="11"/>
+      <c r="H700" s="8"/>
     </row>
     <row r="701">
       <c r="B701" s="8"/>
@@ -11809,7 +11879,7 @@
       <c r="D701" s="8"/>
       <c r="E701" s="8"/>
       <c r="G701" s="8"/>
-      <c r="H701" s="11"/>
+      <c r="H701" s="8"/>
     </row>
     <row r="702">
       <c r="B702" s="8"/>
@@ -11817,7 +11887,7 @@
       <c r="D702" s="8"/>
       <c r="E702" s="8"/>
       <c r="G702" s="8"/>
-      <c r="H702" s="11"/>
+      <c r="H702" s="8"/>
     </row>
     <row r="703">
       <c r="B703" s="8"/>
@@ -11825,7 +11895,7 @@
       <c r="D703" s="8"/>
       <c r="E703" s="8"/>
       <c r="G703" s="8"/>
-      <c r="H703" s="11"/>
+      <c r="H703" s="8"/>
     </row>
     <row r="704">
       <c r="B704" s="8"/>
@@ -11833,7 +11903,7 @@
       <c r="D704" s="8"/>
       <c r="E704" s="8"/>
       <c r="G704" s="8"/>
-      <c r="H704" s="11"/>
+      <c r="H704" s="8"/>
     </row>
     <row r="705">
       <c r="B705" s="8"/>
@@ -11841,7 +11911,7 @@
       <c r="D705" s="8"/>
       <c r="E705" s="8"/>
       <c r="G705" s="8"/>
-      <c r="H705" s="11"/>
+      <c r="H705" s="8"/>
     </row>
     <row r="706">
       <c r="B706" s="8"/>
@@ -11849,7 +11919,7 @@
       <c r="D706" s="8"/>
       <c r="E706" s="8"/>
       <c r="G706" s="8"/>
-      <c r="H706" s="11"/>
+      <c r="H706" s="8"/>
     </row>
     <row r="707">
       <c r="B707" s="8"/>
@@ -11857,7 +11927,7 @@
       <c r="D707" s="8"/>
       <c r="E707" s="8"/>
       <c r="G707" s="8"/>
-      <c r="H707" s="11"/>
+      <c r="H707" s="8"/>
     </row>
     <row r="708">
       <c r="B708" s="8"/>
@@ -11865,7 +11935,7 @@
       <c r="D708" s="8"/>
       <c r="E708" s="8"/>
       <c r="G708" s="8"/>
-      <c r="H708" s="11"/>
+      <c r="H708" s="8"/>
     </row>
     <row r="709">
       <c r="B709" s="8"/>
@@ -11873,7 +11943,7 @@
       <c r="D709" s="8"/>
       <c r="E709" s="8"/>
       <c r="G709" s="8"/>
-      <c r="H709" s="11"/>
+      <c r="H709" s="8"/>
     </row>
     <row r="710">
       <c r="B710" s="8"/>
@@ -11881,7 +11951,7 @@
       <c r="D710" s="8"/>
       <c r="E710" s="8"/>
       <c r="G710" s="8"/>
-      <c r="H710" s="11"/>
+      <c r="H710" s="8"/>
     </row>
     <row r="711">
       <c r="B711" s="8"/>
@@ -11889,7 +11959,7 @@
       <c r="D711" s="8"/>
       <c r="E711" s="8"/>
       <c r="G711" s="8"/>
-      <c r="H711" s="11"/>
+      <c r="H711" s="8"/>
     </row>
     <row r="712">
       <c r="B712" s="8"/>
@@ -11897,7 +11967,7 @@
       <c r="D712" s="8"/>
       <c r="E712" s="8"/>
       <c r="G712" s="8"/>
-      <c r="H712" s="11"/>
+      <c r="H712" s="8"/>
     </row>
     <row r="713">
       <c r="B713" s="8"/>
@@ -11905,7 +11975,7 @@
       <c r="D713" s="8"/>
       <c r="E713" s="8"/>
       <c r="G713" s="8"/>
-      <c r="H713" s="11"/>
+      <c r="H713" s="8"/>
     </row>
     <row r="714">
       <c r="B714" s="8"/>
@@ -11913,7 +11983,7 @@
       <c r="D714" s="8"/>
       <c r="E714" s="8"/>
       <c r="G714" s="8"/>
-      <c r="H714" s="11"/>
+      <c r="H714" s="8"/>
     </row>
     <row r="715">
       <c r="B715" s="8"/>
@@ -11921,7 +11991,7 @@
       <c r="D715" s="8"/>
       <c r="E715" s="8"/>
       <c r="G715" s="8"/>
-      <c r="H715" s="11"/>
+      <c r="H715" s="8"/>
     </row>
     <row r="716">
       <c r="B716" s="8"/>
@@ -11929,7 +11999,7 @@
       <c r="D716" s="8"/>
       <c r="E716" s="8"/>
       <c r="G716" s="8"/>
-      <c r="H716" s="11"/>
+      <c r="H716" s="8"/>
     </row>
     <row r="717">
       <c r="B717" s="8"/>
@@ -11937,7 +12007,7 @@
       <c r="D717" s="8"/>
       <c r="E717" s="8"/>
       <c r="G717" s="8"/>
-      <c r="H717" s="11"/>
+      <c r="H717" s="8"/>
     </row>
     <row r="718">
       <c r="B718" s="8"/>
@@ -11945,7 +12015,7 @@
       <c r="D718" s="8"/>
       <c r="E718" s="8"/>
       <c r="G718" s="8"/>
-      <c r="H718" s="11"/>
+      <c r="H718" s="8"/>
     </row>
     <row r="719">
       <c r="B719" s="8"/>
@@ -11953,7 +12023,7 @@
       <c r="D719" s="8"/>
       <c r="E719" s="8"/>
       <c r="G719" s="8"/>
-      <c r="H719" s="11"/>
+      <c r="H719" s="8"/>
     </row>
     <row r="720">
       <c r="B720" s="8"/>
@@ -11961,7 +12031,7 @@
       <c r="D720" s="8"/>
       <c r="E720" s="8"/>
       <c r="G720" s="8"/>
-      <c r="H720" s="11"/>
+      <c r="H720" s="8"/>
     </row>
     <row r="721">
       <c r="B721" s="8"/>
@@ -11969,7 +12039,7 @@
       <c r="D721" s="8"/>
       <c r="E721" s="8"/>
       <c r="G721" s="8"/>
-      <c r="H721" s="11"/>
+      <c r="H721" s="8"/>
     </row>
     <row r="722">
       <c r="B722" s="8"/>
@@ -11977,7 +12047,7 @@
       <c r="D722" s="8"/>
       <c r="E722" s="8"/>
       <c r="G722" s="8"/>
-      <c r="H722" s="11"/>
+      <c r="H722" s="8"/>
     </row>
     <row r="723">
       <c r="B723" s="8"/>
@@ -11985,7 +12055,7 @@
       <c r="D723" s="8"/>
       <c r="E723" s="8"/>
       <c r="G723" s="8"/>
-      <c r="H723" s="11"/>
+      <c r="H723" s="8"/>
     </row>
     <row r="724">
       <c r="B724" s="8"/>
@@ -11993,7 +12063,7 @@
       <c r="D724" s="8"/>
       <c r="E724" s="8"/>
       <c r="G724" s="8"/>
-      <c r="H724" s="11"/>
+      <c r="H724" s="8"/>
     </row>
     <row r="725">
       <c r="B725" s="8"/>
@@ -12001,7 +12071,7 @@
       <c r="D725" s="8"/>
       <c r="E725" s="8"/>
       <c r="G725" s="8"/>
-      <c r="H725" s="11"/>
+      <c r="H725" s="8"/>
     </row>
     <row r="726">
       <c r="B726" s="8"/>
@@ -12009,7 +12079,7 @@
       <c r="D726" s="8"/>
       <c r="E726" s="8"/>
       <c r="G726" s="8"/>
-      <c r="H726" s="11"/>
+      <c r="H726" s="8"/>
     </row>
     <row r="727">
       <c r="B727" s="8"/>
@@ -12017,7 +12087,7 @@
       <c r="D727" s="8"/>
       <c r="E727" s="8"/>
       <c r="G727" s="8"/>
-      <c r="H727" s="11"/>
+      <c r="H727" s="8"/>
     </row>
     <row r="728">
       <c r="B728" s="8"/>
@@ -12025,7 +12095,7 @@
       <c r="D728" s="8"/>
       <c r="E728" s="8"/>
       <c r="G728" s="8"/>
-      <c r="H728" s="11"/>
+      <c r="H728" s="8"/>
     </row>
     <row r="729">
       <c r="B729" s="8"/>
@@ -12033,7 +12103,7 @@
       <c r="D729" s="8"/>
       <c r="E729" s="8"/>
       <c r="G729" s="8"/>
-      <c r="H729" s="11"/>
+      <c r="H729" s="8"/>
     </row>
     <row r="730">
       <c r="B730" s="8"/>
@@ -12041,7 +12111,7 @@
       <c r="D730" s="8"/>
       <c r="E730" s="8"/>
       <c r="G730" s="8"/>
-      <c r="H730" s="11"/>
+      <c r="H730" s="8"/>
     </row>
     <row r="731">
       <c r="B731" s="8"/>
@@ -12049,7 +12119,7 @@
       <c r="D731" s="8"/>
       <c r="E731" s="8"/>
       <c r="G731" s="8"/>
-      <c r="H731" s="11"/>
+      <c r="H731" s="8"/>
     </row>
     <row r="732">
       <c r="B732" s="8"/>
@@ -12057,7 +12127,7 @@
       <c r="D732" s="8"/>
       <c r="E732" s="8"/>
       <c r="G732" s="8"/>
-      <c r="H732" s="11"/>
+      <c r="H732" s="8"/>
     </row>
     <row r="733">
       <c r="B733" s="8"/>
@@ -12065,7 +12135,7 @@
       <c r="D733" s="8"/>
       <c r="E733" s="8"/>
       <c r="G733" s="8"/>
-      <c r="H733" s="11"/>
+      <c r="H733" s="8"/>
     </row>
     <row r="734">
       <c r="B734" s="8"/>
@@ -12073,7 +12143,7 @@
       <c r="D734" s="8"/>
       <c r="E734" s="8"/>
       <c r="G734" s="8"/>
-      <c r="H734" s="11"/>
+      <c r="H734" s="8"/>
     </row>
     <row r="735">
       <c r="B735" s="8"/>
@@ -12081,7 +12151,7 @@
       <c r="D735" s="8"/>
       <c r="E735" s="8"/>
       <c r="G735" s="8"/>
-      <c r="H735" s="11"/>
+      <c r="H735" s="8"/>
     </row>
     <row r="736">
       <c r="B736" s="8"/>
@@ -12089,7 +12159,7 @@
       <c r="D736" s="8"/>
       <c r="E736" s="8"/>
       <c r="G736" s="8"/>
-      <c r="H736" s="11"/>
+      <c r="H736" s="8"/>
     </row>
     <row r="737">
       <c r="B737" s="8"/>
@@ -12097,7 +12167,7 @@
       <c r="D737" s="8"/>
       <c r="E737" s="8"/>
       <c r="G737" s="8"/>
-      <c r="H737" s="11"/>
+      <c r="H737" s="8"/>
     </row>
     <row r="738">
       <c r="B738" s="8"/>
@@ -12105,7 +12175,7 @@
       <c r="D738" s="8"/>
       <c r="E738" s="8"/>
       <c r="G738" s="8"/>
-      <c r="H738" s="11"/>
+      <c r="H738" s="8"/>
     </row>
     <row r="739">
       <c r="B739" s="8"/>
@@ -12113,7 +12183,7 @@
       <c r="D739" s="8"/>
       <c r="E739" s="8"/>
       <c r="G739" s="8"/>
-      <c r="H739" s="11"/>
+      <c r="H739" s="8"/>
     </row>
     <row r="740">
       <c r="B740" s="8"/>
@@ -12121,7 +12191,7 @@
       <c r="D740" s="8"/>
       <c r="E740" s="8"/>
       <c r="G740" s="8"/>
-      <c r="H740" s="11"/>
+      <c r="H740" s="8"/>
     </row>
     <row r="741">
       <c r="B741" s="8"/>
@@ -12129,7 +12199,7 @@
       <c r="D741" s="8"/>
       <c r="E741" s="8"/>
       <c r="G741" s="8"/>
-      <c r="H741" s="11"/>
+      <c r="H741" s="8"/>
     </row>
     <row r="742">
       <c r="B742" s="8"/>
@@ -12137,7 +12207,7 @@
       <c r="D742" s="8"/>
       <c r="E742" s="8"/>
       <c r="G742" s="8"/>
-      <c r="H742" s="11"/>
+      <c r="H742" s="8"/>
     </row>
     <row r="743">
       <c r="B743" s="8"/>
@@ -12145,7 +12215,7 @@
       <c r="D743" s="8"/>
       <c r="E743" s="8"/>
       <c r="G743" s="8"/>
-      <c r="H743" s="11"/>
+      <c r="H743" s="8"/>
     </row>
     <row r="744">
       <c r="B744" s="8"/>
@@ -12153,7 +12223,7 @@
       <c r="D744" s="8"/>
       <c r="E744" s="8"/>
       <c r="G744" s="8"/>
-      <c r="H744" s="11"/>
+      <c r="H744" s="8"/>
     </row>
     <row r="745">
       <c r="B745" s="8"/>
@@ -12161,7 +12231,7 @@
       <c r="D745" s="8"/>
       <c r="E745" s="8"/>
       <c r="G745" s="8"/>
-      <c r="H745" s="11"/>
+      <c r="H745" s="8"/>
     </row>
     <row r="746">
       <c r="B746" s="8"/>
@@ -12169,7 +12239,7 @@
       <c r="D746" s="8"/>
       <c r="E746" s="8"/>
       <c r="G746" s="8"/>
-      <c r="H746" s="11"/>
+      <c r="H746" s="8"/>
     </row>
     <row r="747">
       <c r="B747" s="8"/>
@@ -12177,7 +12247,7 @@
       <c r="D747" s="8"/>
       <c r="E747" s="8"/>
       <c r="G747" s="8"/>
-      <c r="H747" s="11"/>
+      <c r="H747" s="8"/>
     </row>
     <row r="748">
       <c r="B748" s="8"/>
@@ -12185,7 +12255,7 @@
       <c r="D748" s="8"/>
       <c r="E748" s="8"/>
       <c r="G748" s="8"/>
-      <c r="H748" s="11"/>
+      <c r="H748" s="8"/>
     </row>
     <row r="749">
       <c r="B749" s="8"/>
@@ -12193,7 +12263,7 @@
       <c r="D749" s="8"/>
       <c r="E749" s="8"/>
       <c r="G749" s="8"/>
-      <c r="H749" s="11"/>
+      <c r="H749" s="8"/>
     </row>
     <row r="750">
       <c r="B750" s="8"/>
@@ -12201,7 +12271,7 @@
       <c r="D750" s="8"/>
       <c r="E750" s="8"/>
       <c r="G750" s="8"/>
-      <c r="H750" s="11"/>
+      <c r="H750" s="8"/>
     </row>
     <row r="751">
       <c r="B751" s="8"/>
@@ -12209,7 +12279,7 @@
       <c r="D751" s="8"/>
       <c r="E751" s="8"/>
       <c r="G751" s="8"/>
-      <c r="H751" s="11"/>
+      <c r="H751" s="8"/>
     </row>
     <row r="752">
       <c r="B752" s="8"/>
@@ -12217,7 +12287,7 @@
       <c r="D752" s="8"/>
       <c r="E752" s="8"/>
       <c r="G752" s="8"/>
-      <c r="H752" s="11"/>
+      <c r="H752" s="8"/>
     </row>
     <row r="753">
       <c r="B753" s="8"/>
@@ -12225,7 +12295,7 @@
       <c r="D753" s="8"/>
       <c r="E753" s="8"/>
       <c r="G753" s="8"/>
-      <c r="H753" s="11"/>
+      <c r="H753" s="8"/>
     </row>
     <row r="754">
       <c r="B754" s="8"/>
@@ -12233,7 +12303,7 @@
       <c r="D754" s="8"/>
       <c r="E754" s="8"/>
       <c r="G754" s="8"/>
-      <c r="H754" s="11"/>
+      <c r="H754" s="8"/>
     </row>
     <row r="755">
       <c r="B755" s="8"/>
@@ -12241,7 +12311,7 @@
       <c r="D755" s="8"/>
       <c r="E755" s="8"/>
       <c r="G755" s="8"/>
-      <c r="H755" s="11"/>
+      <c r="H755" s="8"/>
     </row>
     <row r="756">
       <c r="B756" s="8"/>
@@ -12249,7 +12319,7 @@
       <c r="D756" s="8"/>
       <c r="E756" s="8"/>
       <c r="G756" s="8"/>
-      <c r="H756" s="11"/>
+      <c r="H756" s="8"/>
     </row>
     <row r="757">
       <c r="B757" s="8"/>
@@ -12257,7 +12327,7 @@
       <c r="D757" s="8"/>
       <c r="E757" s="8"/>
       <c r="G757" s="8"/>
-      <c r="H757" s="11"/>
+      <c r="H757" s="8"/>
     </row>
     <row r="758">
       <c r="B758" s="8"/>
@@ -12265,7 +12335,7 @@
       <c r="D758" s="8"/>
       <c r="E758" s="8"/>
       <c r="G758" s="8"/>
-      <c r="H758" s="11"/>
+      <c r="H758" s="8"/>
     </row>
     <row r="759">
       <c r="B759" s="8"/>
@@ -12273,7 +12343,7 @@
       <c r="D759" s="8"/>
       <c r="E759" s="8"/>
       <c r="G759" s="8"/>
-      <c r="H759" s="11"/>
+      <c r="H759" s="8"/>
     </row>
     <row r="760">
       <c r="B760" s="8"/>
@@ -12281,7 +12351,7 @@
       <c r="D760" s="8"/>
       <c r="E760" s="8"/>
       <c r="G760" s="8"/>
-      <c r="H760" s="11"/>
+      <c r="H760" s="8"/>
     </row>
     <row r="761">
       <c r="B761" s="8"/>
@@ -12289,7 +12359,7 @@
       <c r="D761" s="8"/>
       <c r="E761" s="8"/>
       <c r="G761" s="8"/>
-      <c r="H761" s="11"/>
+      <c r="H761" s="8"/>
     </row>
     <row r="762">
       <c r="B762" s="8"/>
@@ -12297,7 +12367,7 @@
       <c r="D762" s="8"/>
       <c r="E762" s="8"/>
       <c r="G762" s="8"/>
-      <c r="H762" s="11"/>
+      <c r="H762" s="8"/>
     </row>
     <row r="763">
       <c r="B763" s="8"/>
@@ -12305,7 +12375,7 @@
       <c r="D763" s="8"/>
       <c r="E763" s="8"/>
       <c r="G763" s="8"/>
-      <c r="H763" s="11"/>
+      <c r="H763" s="8"/>
     </row>
     <row r="764">
       <c r="B764" s="8"/>
@@ -12313,7 +12383,7 @@
       <c r="D764" s="8"/>
       <c r="E764" s="8"/>
       <c r="G764" s="8"/>
-      <c r="H764" s="11"/>
+      <c r="H764" s="8"/>
     </row>
     <row r="765">
       <c r="B765" s="8"/>
@@ -12321,7 +12391,7 @@
       <c r="D765" s="8"/>
       <c r="E765" s="8"/>
       <c r="G765" s="8"/>
-      <c r="H765" s="11"/>
+      <c r="H765" s="8"/>
     </row>
     <row r="766">
       <c r="B766" s="8"/>
@@ -12329,7 +12399,7 @@
       <c r="D766" s="8"/>
       <c r="E766" s="8"/>
       <c r="G766" s="8"/>
-      <c r="H766" s="11"/>
+      <c r="H766" s="8"/>
     </row>
     <row r="767">
       <c r="B767" s="8"/>
@@ -12337,7 +12407,7 @@
       <c r="D767" s="8"/>
       <c r="E767" s="8"/>
       <c r="G767" s="8"/>
-      <c r="H767" s="11"/>
+      <c r="H767" s="8"/>
     </row>
     <row r="768">
       <c r="B768" s="8"/>
@@ -12345,7 +12415,7 @@
       <c r="D768" s="8"/>
       <c r="E768" s="8"/>
       <c r="G768" s="8"/>
-      <c r="H768" s="11"/>
+      <c r="H768" s="8"/>
     </row>
     <row r="769">
       <c r="B769" s="8"/>
@@ -12353,7 +12423,7 @@
       <c r="D769" s="8"/>
       <c r="E769" s="8"/>
       <c r="G769" s="8"/>
-      <c r="H769" s="11"/>
+      <c r="H769" s="8"/>
     </row>
     <row r="770">
       <c r="B770" s="8"/>
@@ -12361,7 +12431,7 @@
       <c r="D770" s="8"/>
       <c r="E770" s="8"/>
       <c r="G770" s="8"/>
-      <c r="H770" s="11"/>
+      <c r="H770" s="8"/>
     </row>
     <row r="771">
       <c r="B771" s="8"/>
@@ -12369,7 +12439,7 @@
       <c r="D771" s="8"/>
       <c r="E771" s="8"/>
       <c r="G771" s="8"/>
-      <c r="H771" s="11"/>
+      <c r="H771" s="8"/>
     </row>
     <row r="772">
       <c r="B772" s="8"/>
@@ -12377,7 +12447,7 @@
       <c r="D772" s="8"/>
       <c r="E772" s="8"/>
       <c r="G772" s="8"/>
-      <c r="H772" s="11"/>
+      <c r="H772" s="8"/>
     </row>
     <row r="773">
       <c r="B773" s="8"/>
@@ -12385,7 +12455,7 @@
       <c r="D773" s="8"/>
       <c r="E773" s="8"/>
       <c r="G773" s="8"/>
-      <c r="H773" s="11"/>
+      <c r="H773" s="8"/>
     </row>
     <row r="774">
       <c r="B774" s="8"/>
@@ -12393,7 +12463,7 @@
       <c r="D774" s="8"/>
       <c r="E774" s="8"/>
       <c r="G774" s="8"/>
-      <c r="H774" s="11"/>
+      <c r="H774" s="8"/>
     </row>
     <row r="775">
       <c r="B775" s="8"/>
@@ -12401,7 +12471,7 @@
       <c r="D775" s="8"/>
       <c r="E775" s="8"/>
       <c r="G775" s="8"/>
-      <c r="H775" s="11"/>
+      <c r="H775" s="8"/>
     </row>
     <row r="776">
       <c r="B776" s="8"/>
@@ -12409,7 +12479,7 @@
       <c r="D776" s="8"/>
       <c r="E776" s="8"/>
       <c r="G776" s="8"/>
-      <c r="H776" s="11"/>
+      <c r="H776" s="8"/>
     </row>
     <row r="777">
       <c r="B777" s="8"/>
@@ -12417,7 +12487,7 @@
       <c r="D777" s="8"/>
       <c r="E777" s="8"/>
       <c r="G777" s="8"/>
-      <c r="H777" s="11"/>
+      <c r="H777" s="8"/>
     </row>
     <row r="778">
       <c r="B778" s="8"/>
@@ -12425,7 +12495,7 @@
       <c r="D778" s="8"/>
       <c r="E778" s="8"/>
       <c r="G778" s="8"/>
-      <c r="H778" s="11"/>
+      <c r="H778" s="8"/>
     </row>
     <row r="779">
       <c r="B779" s="8"/>
@@ -12433,7 +12503,7 @@
       <c r="D779" s="8"/>
       <c r="E779" s="8"/>
       <c r="G779" s="8"/>
-      <c r="H779" s="11"/>
+      <c r="H779" s="8"/>
     </row>
     <row r="780">
       <c r="B780" s="8"/>
@@ -12441,7 +12511,7 @@
       <c r="D780" s="8"/>
       <c r="E780" s="8"/>
       <c r="G780" s="8"/>
-      <c r="H780" s="11"/>
+      <c r="H780" s="8"/>
     </row>
     <row r="781">
       <c r="B781" s="8"/>
@@ -12449,7 +12519,7 @@
       <c r="D781" s="8"/>
       <c r="E781" s="8"/>
       <c r="G781" s="8"/>
-      <c r="H781" s="11"/>
+      <c r="H781" s="8"/>
     </row>
     <row r="782">
       <c r="B782" s="8"/>
@@ -12457,7 +12527,7 @@
       <c r="D782" s="8"/>
       <c r="E782" s="8"/>
       <c r="G782" s="8"/>
-      <c r="H782" s="11"/>
+      <c r="H782" s="8"/>
     </row>
     <row r="783">
       <c r="B783" s="8"/>
@@ -12465,7 +12535,7 @@
       <c r="D783" s="8"/>
       <c r="E783" s="8"/>
       <c r="G783" s="8"/>
-      <c r="H783" s="11"/>
+      <c r="H783" s="8"/>
     </row>
     <row r="784">
       <c r="B784" s="8"/>
@@ -12473,7 +12543,7 @@
       <c r="D784" s="8"/>
       <c r="E784" s="8"/>
       <c r="G784" s="8"/>
-      <c r="H784" s="11"/>
+      <c r="H784" s="8"/>
     </row>
     <row r="785">
       <c r="B785" s="8"/>
@@ -12481,7 +12551,7 @@
       <c r="D785" s="8"/>
       <c r="E785" s="8"/>
       <c r="G785" s="8"/>
-      <c r="H785" s="11"/>
+      <c r="H785" s="8"/>
     </row>
     <row r="786">
       <c r="B786" s="8"/>
@@ -12489,7 +12559,7 @@
       <c r="D786" s="8"/>
       <c r="E786" s="8"/>
       <c r="G786" s="8"/>
-      <c r="H786" s="11"/>
+      <c r="H786" s="8"/>
     </row>
     <row r="787">
       <c r="B787" s="8"/>
@@ -12497,7 +12567,7 @@
       <c r="D787" s="8"/>
       <c r="E787" s="8"/>
       <c r="G787" s="8"/>
-      <c r="H787" s="11"/>
+      <c r="H787" s="8"/>
     </row>
     <row r="788">
       <c r="B788" s="8"/>
@@ -12505,7 +12575,7 @@
       <c r="D788" s="8"/>
       <c r="E788" s="8"/>
       <c r="G788" s="8"/>
-      <c r="H788" s="11"/>
+      <c r="H788" s="8"/>
     </row>
     <row r="789">
       <c r="B789" s="8"/>
@@ -12513,7 +12583,7 @@
       <c r="D789" s="8"/>
       <c r="E789" s="8"/>
       <c r="G789" s="8"/>
-      <c r="H789" s="11"/>
+      <c r="H789" s="8"/>
     </row>
     <row r="790">
       <c r="B790" s="8"/>
@@ -12521,7 +12591,7 @@
       <c r="D790" s="8"/>
       <c r="E790" s="8"/>
       <c r="G790" s="8"/>
-      <c r="H790" s="11"/>
+      <c r="H790" s="8"/>
     </row>
     <row r="791">
       <c r="B791" s="8"/>
@@ -12529,7 +12599,7 @@
       <c r="D791" s="8"/>
       <c r="E791" s="8"/>
       <c r="G791" s="8"/>
-      <c r="H791" s="11"/>
+      <c r="H791" s="8"/>
     </row>
     <row r="792">
       <c r="B792" s="8"/>
@@ -12537,7 +12607,7 @@
       <c r="D792" s="8"/>
       <c r="E792" s="8"/>
       <c r="G792" s="8"/>
-      <c r="H792" s="11"/>
+      <c r="H792" s="8"/>
     </row>
     <row r="793">
       <c r="B793" s="8"/>
@@ -12545,7 +12615,7 @@
       <c r="D793" s="8"/>
       <c r="E793" s="8"/>
       <c r="G793" s="8"/>
-      <c r="H793" s="11"/>
+      <c r="H793" s="8"/>
     </row>
     <row r="794">
       <c r="B794" s="8"/>
@@ -12553,7 +12623,7 @@
       <c r="D794" s="8"/>
       <c r="E794" s="8"/>
       <c r="G794" s="8"/>
-      <c r="H794" s="11"/>
+      <c r="H794" s="8"/>
     </row>
     <row r="795">
       <c r="B795" s="8"/>
@@ -12561,7 +12631,7 @@
       <c r="D795" s="8"/>
       <c r="E795" s="8"/>
       <c r="G795" s="8"/>
-      <c r="H795" s="11"/>
+      <c r="H795" s="8"/>
     </row>
     <row r="796">
       <c r="B796" s="8"/>
@@ -12569,7 +12639,7 @@
       <c r="D796" s="8"/>
       <c r="E796" s="8"/>
       <c r="G796" s="8"/>
-      <c r="H796" s="11"/>
+      <c r="H796" s="8"/>
     </row>
     <row r="797">
       <c r="B797" s="8"/>
@@ -12577,7 +12647,7 @@
       <c r="D797" s="8"/>
       <c r="E797" s="8"/>
       <c r="G797" s="8"/>
-      <c r="H797" s="11"/>
+      <c r="H797" s="8"/>
     </row>
     <row r="798">
       <c r="B798" s="8"/>
@@ -12585,7 +12655,7 @@
       <c r="D798" s="8"/>
       <c r="E798" s="8"/>
       <c r="G798" s="8"/>
-      <c r="H798" s="11"/>
+      <c r="H798" s="8"/>
     </row>
     <row r="799">
       <c r="B799" s="8"/>
@@ -12593,7 +12663,7 @@
       <c r="D799" s="8"/>
       <c r="E799" s="8"/>
       <c r="G799" s="8"/>
-      <c r="H799" s="11"/>
+      <c r="H799" s="8"/>
     </row>
     <row r="800">
       <c r="B800" s="8"/>
@@ -12601,7 +12671,7 @@
       <c r="D800" s="8"/>
       <c r="E800" s="8"/>
       <c r="G800" s="8"/>
-      <c r="H800" s="11"/>
+      <c r="H800" s="8"/>
     </row>
     <row r="801">
       <c r="B801" s="8"/>
@@ -12609,7 +12679,7 @@
       <c r="D801" s="8"/>
       <c r="E801" s="8"/>
       <c r="G801" s="8"/>
-      <c r="H801" s="11"/>
+      <c r="H801" s="8"/>
     </row>
     <row r="802">
       <c r="B802" s="8"/>
@@ -12617,7 +12687,7 @@
       <c r="D802" s="8"/>
       <c r="E802" s="8"/>
       <c r="G802" s="8"/>
-      <c r="H802" s="11"/>
+      <c r="H802" s="8"/>
     </row>
     <row r="803">
       <c r="B803" s="8"/>
@@ -12625,7 +12695,7 @@
       <c r="D803" s="8"/>
       <c r="E803" s="8"/>
       <c r="G803" s="8"/>
-      <c r="H803" s="11"/>
+      <c r="H803" s="8"/>
     </row>
     <row r="804">
       <c r="B804" s="8"/>
@@ -12633,7 +12703,7 @@
       <c r="D804" s="8"/>
       <c r="E804" s="8"/>
       <c r="G804" s="8"/>
-      <c r="H804" s="11"/>
+      <c r="H804" s="8"/>
     </row>
     <row r="805">
       <c r="B805" s="8"/>
@@ -12641,7 +12711,7 @@
       <c r="D805" s="8"/>
       <c r="E805" s="8"/>
       <c r="G805" s="8"/>
-      <c r="H805" s="11"/>
+      <c r="H805" s="8"/>
     </row>
     <row r="806">
       <c r="B806" s="8"/>
@@ -12649,7 +12719,7 @@
       <c r="D806" s="8"/>
       <c r="E806" s="8"/>
       <c r="G806" s="8"/>
-      <c r="H806" s="11"/>
+      <c r="H806" s="8"/>
     </row>
     <row r="807">
       <c r="B807" s="8"/>
@@ -12657,7 +12727,7 @@
       <c r="D807" s="8"/>
       <c r="E807" s="8"/>
       <c r="G807" s="8"/>
-      <c r="H807" s="11"/>
+      <c r="H807" s="8"/>
     </row>
     <row r="808">
       <c r="B808" s="8"/>
@@ -12665,7 +12735,7 @@
       <c r="D808" s="8"/>
       <c r="E808" s="8"/>
       <c r="G808" s="8"/>
-      <c r="H808" s="11"/>
+      <c r="H808" s="8"/>
     </row>
     <row r="809">
       <c r="B809" s="8"/>
@@ -12673,7 +12743,7 @@
       <c r="D809" s="8"/>
       <c r="E809" s="8"/>
       <c r="G809" s="8"/>
-      <c r="H809" s="11"/>
+      <c r="H809" s="8"/>
     </row>
     <row r="810">
       <c r="B810" s="8"/>
@@ -12681,7 +12751,7 @@
       <c r="D810" s="8"/>
       <c r="E810" s="8"/>
       <c r="G810" s="8"/>
-      <c r="H810" s="11"/>
+      <c r="H810" s="8"/>
     </row>
     <row r="811">
       <c r="B811" s="8"/>
@@ -12689,7 +12759,7 @@
       <c r="D811" s="8"/>
       <c r="E811" s="8"/>
       <c r="G811" s="8"/>
-      <c r="H811" s="11"/>
+      <c r="H811" s="8"/>
     </row>
     <row r="812">
       <c r="B812" s="8"/>
@@ -12697,7 +12767,7 @@
       <c r="D812" s="8"/>
       <c r="E812" s="8"/>
       <c r="G812" s="8"/>
-      <c r="H812" s="11"/>
+      <c r="H812" s="8"/>
     </row>
     <row r="813">
       <c r="B813" s="8"/>
@@ -12705,7 +12775,7 @@
       <c r="D813" s="8"/>
       <c r="E813" s="8"/>
       <c r="G813" s="8"/>
-      <c r="H813" s="11"/>
+      <c r="H813" s="8"/>
     </row>
     <row r="814">
       <c r="B814" s="8"/>
@@ -12713,7 +12783,7 @@
       <c r="D814" s="8"/>
       <c r="E814" s="8"/>
       <c r="G814" s="8"/>
-      <c r="H814" s="11"/>
+      <c r="H814" s="8"/>
     </row>
     <row r="815">
       <c r="B815" s="8"/>
@@ -12721,7 +12791,7 @@
       <c r="D815" s="8"/>
       <c r="E815" s="8"/>
       <c r="G815" s="8"/>
-      <c r="H815" s="11"/>
+      <c r="H815" s="8"/>
     </row>
     <row r="816">
       <c r="B816" s="8"/>
@@ -12729,7 +12799,7 @@
       <c r="D816" s="8"/>
       <c r="E816" s="8"/>
       <c r="G816" s="8"/>
-      <c r="H816" s="11"/>
+      <c r="H816" s="8"/>
     </row>
     <row r="817">
       <c r="B817" s="8"/>
@@ -12737,7 +12807,7 @@
       <c r="D817" s="8"/>
       <c r="E817" s="8"/>
       <c r="G817" s="8"/>
-      <c r="H817" s="11"/>
+      <c r="H817" s="8"/>
     </row>
     <row r="818">
       <c r="B818" s="8"/>
@@ -12745,7 +12815,7 @@
       <c r="D818" s="8"/>
       <c r="E818" s="8"/>
       <c r="G818" s="8"/>
-      <c r="H818" s="11"/>
+      <c r="H818" s="8"/>
     </row>
     <row r="819">
       <c r="B819" s="8"/>
@@ -12753,7 +12823,7 @@
       <c r="D819" s="8"/>
       <c r="E819" s="8"/>
       <c r="G819" s="8"/>
-      <c r="H819" s="11"/>
+      <c r="H819" s="8"/>
     </row>
     <row r="820">
       <c r="B820" s="8"/>
@@ -12761,7 +12831,7 @@
       <c r="D820" s="8"/>
       <c r="E820" s="8"/>
       <c r="G820" s="8"/>
-      <c r="H820" s="11"/>
+      <c r="H820" s="8"/>
     </row>
     <row r="821">
       <c r="B821" s="8"/>
@@ -12769,7 +12839,7 @@
       <c r="D821" s="8"/>
       <c r="E821" s="8"/>
       <c r="G821" s="8"/>
-      <c r="H821" s="11"/>
+      <c r="H821" s="8"/>
     </row>
     <row r="822">
       <c r="B822" s="8"/>
@@ -12777,7 +12847,7 @@
       <c r="D822" s="8"/>
       <c r="E822" s="8"/>
       <c r="G822" s="8"/>
-      <c r="H822" s="11"/>
+      <c r="H822" s="8"/>
     </row>
     <row r="823">
       <c r="B823" s="8"/>
@@ -12785,7 +12855,7 @@
       <c r="D823" s="8"/>
       <c r="E823" s="8"/>
       <c r="G823" s="8"/>
-      <c r="H823" s="11"/>
+      <c r="H823" s="8"/>
     </row>
     <row r="824">
       <c r="B824" s="8"/>
@@ -12793,7 +12863,7 @@
       <c r="D824" s="8"/>
       <c r="E824" s="8"/>
       <c r="G824" s="8"/>
-      <c r="H824" s="11"/>
+      <c r="H824" s="8"/>
     </row>
     <row r="825">
       <c r="B825" s="8"/>
@@ -12801,7 +12871,7 @@
       <c r="D825" s="8"/>
       <c r="E825" s="8"/>
       <c r="G825" s="8"/>
-      <c r="H825" s="11"/>
+      <c r="H825" s="8"/>
     </row>
     <row r="826">
       <c r="B826" s="8"/>
@@ -12809,7 +12879,7 @@
       <c r="D826" s="8"/>
       <c r="E826" s="8"/>
       <c r="G826" s="8"/>
-      <c r="H826" s="11"/>
+      <c r="H826" s="8"/>
     </row>
     <row r="827">
       <c r="B827" s="8"/>
@@ -12817,7 +12887,7 @@
       <c r="D827" s="8"/>
       <c r="E827" s="8"/>
       <c r="G827" s="8"/>
-      <c r="H827" s="11"/>
+      <c r="H827" s="8"/>
     </row>
     <row r="828">
       <c r="B828" s="8"/>
@@ -12825,7 +12895,7 @@
       <c r="D828" s="8"/>
       <c r="E828" s="8"/>
       <c r="G828" s="8"/>
-      <c r="H828" s="11"/>
+      <c r="H828" s="8"/>
     </row>
     <row r="829">
       <c r="B829" s="8"/>
@@ -12833,7 +12903,7 @@
       <c r="D829" s="8"/>
       <c r="E829" s="8"/>
       <c r="G829" s="8"/>
-      <c r="H829" s="11"/>
+      <c r="H829" s="8"/>
     </row>
     <row r="830">
       <c r="B830" s="8"/>
@@ -12841,7 +12911,7 @@
       <c r="D830" s="8"/>
       <c r="E830" s="8"/>
       <c r="G830" s="8"/>
-      <c r="H830" s="11"/>
+      <c r="H830" s="8"/>
     </row>
     <row r="831">
       <c r="B831" s="8"/>
@@ -12849,7 +12919,7 @@
       <c r="D831" s="8"/>
       <c r="E831" s="8"/>
       <c r="G831" s="8"/>
-      <c r="H831" s="11"/>
+      <c r="H831" s="8"/>
     </row>
     <row r="832">
       <c r="B832" s="8"/>
@@ -12857,7 +12927,7 @@
       <c r="D832" s="8"/>
       <c r="E832" s="8"/>
       <c r="G832" s="8"/>
-      <c r="H832" s="11"/>
+      <c r="H832" s="8"/>
     </row>
     <row r="833">
       <c r="B833" s="8"/>
@@ -12865,7 +12935,7 @@
       <c r="D833" s="8"/>
       <c r="E833" s="8"/>
       <c r="G833" s="8"/>
-      <c r="H833" s="11"/>
+      <c r="H833" s="8"/>
     </row>
     <row r="834">
       <c r="B834" s="8"/>
@@ -12873,7 +12943,7 @@
       <c r="D834" s="8"/>
       <c r="E834" s="8"/>
       <c r="G834" s="8"/>
-      <c r="H834" s="11"/>
+      <c r="H834" s="8"/>
     </row>
     <row r="835">
       <c r="B835" s="8"/>
@@ -12881,7 +12951,7 @@
       <c r="D835" s="8"/>
       <c r="E835" s="8"/>
       <c r="G835" s="8"/>
-      <c r="H835" s="11"/>
+      <c r="H835" s="8"/>
     </row>
     <row r="836">
       <c r="B836" s="8"/>
@@ -12889,7 +12959,7 @@
       <c r="D836" s="8"/>
       <c r="E836" s="8"/>
       <c r="G836" s="8"/>
-      <c r="H836" s="11"/>
+      <c r="H836" s="8"/>
     </row>
     <row r="837">
       <c r="B837" s="8"/>
@@ -12897,7 +12967,7 @@
       <c r="D837" s="8"/>
       <c r="E837" s="8"/>
       <c r="G837" s="8"/>
-      <c r="H837" s="11"/>
+      <c r="H837" s="8"/>
     </row>
     <row r="838">
       <c r="B838" s="8"/>
@@ -12905,7 +12975,7 @@
       <c r="D838" s="8"/>
       <c r="E838" s="8"/>
       <c r="G838" s="8"/>
-      <c r="H838" s="11"/>
+      <c r="H838" s="8"/>
     </row>
     <row r="839">
       <c r="B839" s="8"/>
@@ -12913,7 +12983,7 @@
       <c r="D839" s="8"/>
       <c r="E839" s="8"/>
       <c r="G839" s="8"/>
-      <c r="H839" s="11"/>
+      <c r="H839" s="8"/>
     </row>
     <row r="840">
       <c r="B840" s="8"/>
@@ -12921,7 +12991,7 @@
       <c r="D840" s="8"/>
       <c r="E840" s="8"/>
       <c r="G840" s="8"/>
-      <c r="H840" s="11"/>
+      <c r="H840" s="8"/>
     </row>
     <row r="841">
       <c r="B841" s="8"/>
@@ -12929,7 +12999,7 @@
       <c r="D841" s="8"/>
       <c r="E841" s="8"/>
       <c r="G841" s="8"/>
-      <c r="H841" s="11"/>
+      <c r="H841" s="8"/>
     </row>
     <row r="842">
       <c r="B842" s="8"/>
@@ -12937,7 +13007,7 @@
       <c r="D842" s="8"/>
       <c r="E842" s="8"/>
       <c r="G842" s="8"/>
-      <c r="H842" s="11"/>
+      <c r="H842" s="8"/>
     </row>
     <row r="843">
       <c r="B843" s="8"/>
@@ -12945,7 +13015,7 @@
       <c r="D843" s="8"/>
       <c r="E843" s="8"/>
       <c r="G843" s="8"/>
-      <c r="H843" s="11"/>
+      <c r="H843" s="8"/>
     </row>
     <row r="844">
       <c r="B844" s="8"/>
@@ -12953,7 +13023,7 @@
       <c r="D844" s="8"/>
       <c r="E844" s="8"/>
       <c r="G844" s="8"/>
-      <c r="H844" s="11"/>
+      <c r="H844" s="8"/>
     </row>
     <row r="845">
       <c r="B845" s="8"/>
@@ -12961,7 +13031,7 @@
       <c r="D845" s="8"/>
       <c r="E845" s="8"/>
       <c r="G845" s="8"/>
-      <c r="H845" s="11"/>
+      <c r="H845" s="8"/>
     </row>
     <row r="846">
       <c r="B846" s="8"/>
@@ -12969,7 +13039,7 @@
       <c r="D846" s="8"/>
       <c r="E846" s="8"/>
       <c r="G846" s="8"/>
-      <c r="H846" s="11"/>
+      <c r="H846" s="8"/>
     </row>
     <row r="847">
       <c r="B847" s="8"/>
@@ -12977,7 +13047,7 @@
       <c r="D847" s="8"/>
       <c r="E847" s="8"/>
       <c r="G847" s="8"/>
-      <c r="H847" s="11"/>
+      <c r="H847" s="8"/>
     </row>
     <row r="848">
       <c r="B848" s="8"/>
@@ -12985,7 +13055,7 @@
       <c r="D848" s="8"/>
       <c r="E848" s="8"/>
       <c r="G848" s="8"/>
-      <c r="H848" s="11"/>
+      <c r="H848" s="8"/>
     </row>
     <row r="849">
       <c r="B849" s="8"/>
@@ -12993,7 +13063,7 @@
       <c r="D849" s="8"/>
       <c r="E849" s="8"/>
       <c r="G849" s="8"/>
-      <c r="H849" s="11"/>
+      <c r="H849" s="8"/>
     </row>
     <row r="850">
       <c r="B850" s="8"/>
@@ -13001,7 +13071,7 @@
       <c r="D850" s="8"/>
       <c r="E850" s="8"/>
       <c r="G850" s="8"/>
-      <c r="H850" s="11"/>
+      <c r="H850" s="8"/>
     </row>
     <row r="851">
       <c r="B851" s="8"/>
@@ -13009,7 +13079,7 @@
       <c r="D851" s="8"/>
       <c r="E851" s="8"/>
       <c r="G851" s="8"/>
-      <c r="H851" s="11"/>
+      <c r="H851" s="8"/>
     </row>
     <row r="852">
       <c r="B852" s="8"/>
@@ -13017,7 +13087,7 @@
       <c r="D852" s="8"/>
       <c r="E852" s="8"/>
       <c r="G852" s="8"/>
-      <c r="H852" s="11"/>
+      <c r="H852" s="8"/>
     </row>
     <row r="853">
       <c r="B853" s="8"/>
@@ -13025,7 +13095,7 @@
       <c r="D853" s="8"/>
       <c r="E853" s="8"/>
       <c r="G853" s="8"/>
-      <c r="H853" s="11"/>
+      <c r="H853" s="8"/>
     </row>
     <row r="854">
       <c r="B854" s="8"/>
@@ -13033,7 +13103,7 @@
       <c r="D854" s="8"/>
       <c r="E854" s="8"/>
       <c r="G854" s="8"/>
-      <c r="H854" s="11"/>
+      <c r="H854" s="8"/>
     </row>
     <row r="855">
       <c r="B855" s="8"/>
@@ -13041,7 +13111,7 @@
       <c r="D855" s="8"/>
       <c r="E855" s="8"/>
       <c r="G855" s="8"/>
-      <c r="H855" s="11"/>
+      <c r="H855" s="8"/>
     </row>
     <row r="856">
       <c r="B856" s="8"/>
@@ -13049,7 +13119,7 @@
       <c r="D856" s="8"/>
       <c r="E856" s="8"/>
       <c r="G856" s="8"/>
-      <c r="H856" s="11"/>
+      <c r="H856" s="8"/>
     </row>
     <row r="857">
       <c r="B857" s="8"/>
@@ -13057,7 +13127,7 @@
       <c r="D857" s="8"/>
       <c r="E857" s="8"/>
       <c r="G857" s="8"/>
-      <c r="H857" s="11"/>
+      <c r="H857" s="8"/>
     </row>
     <row r="858">
       <c r="B858" s="8"/>
@@ -13065,7 +13135,7 @@
       <c r="D858" s="8"/>
       <c r="E858" s="8"/>
       <c r="G858" s="8"/>
-      <c r="H858" s="11"/>
+      <c r="H858" s="8"/>
     </row>
     <row r="859">
       <c r="B859" s="8"/>
@@ -13073,7 +13143,7 @@
       <c r="D859" s="8"/>
       <c r="E859" s="8"/>
       <c r="G859" s="8"/>
-      <c r="H859" s="11"/>
+      <c r="H859" s="8"/>
     </row>
     <row r="860">
       <c r="B860" s="8"/>
@@ -13081,7 +13151,7 @@
       <c r="D860" s="8"/>
       <c r="E860" s="8"/>
       <c r="G860" s="8"/>
-      <c r="H860" s="11"/>
+      <c r="H860" s="8"/>
     </row>
     <row r="861">
       <c r="B861" s="8"/>
@@ -13089,7 +13159,7 @@
       <c r="D861" s="8"/>
       <c r="E861" s="8"/>
       <c r="G861" s="8"/>
-      <c r="H861" s="11"/>
+      <c r="H861" s="8"/>
     </row>
     <row r="862">
       <c r="B862" s="8"/>
@@ -13097,7 +13167,7 @@
       <c r="D862" s="8"/>
       <c r="E862" s="8"/>
       <c r="G862" s="8"/>
-      <c r="H862" s="11"/>
+      <c r="H862" s="8"/>
     </row>
     <row r="863">
       <c r="B863" s="8"/>
@@ -13105,7 +13175,7 @@
       <c r="D863" s="8"/>
       <c r="E863" s="8"/>
       <c r="G863" s="8"/>
-      <c r="H863" s="11"/>
+      <c r="H863" s="8"/>
     </row>
     <row r="864">
       <c r="B864" s="8"/>
@@ -13113,7 +13183,7 @@
       <c r="D864" s="8"/>
       <c r="E864" s="8"/>
       <c r="G864" s="8"/>
-      <c r="H864" s="11"/>
+      <c r="H864" s="8"/>
     </row>
     <row r="865">
       <c r="B865" s="8"/>
@@ -13121,7 +13191,7 @@
       <c r="D865" s="8"/>
       <c r="E865" s="8"/>
       <c r="G865" s="8"/>
-      <c r="H865" s="11"/>
+      <c r="H865" s="8"/>
     </row>
     <row r="866">
       <c r="B866" s="8"/>
@@ -13129,7 +13199,7 @@
       <c r="D866" s="8"/>
       <c r="E866" s="8"/>
       <c r="G866" s="8"/>
-      <c r="H866" s="11"/>
+      <c r="H866" s="8"/>
     </row>
     <row r="867">
       <c r="B867" s="8"/>
@@ -13137,7 +13207,7 @@
       <c r="D867" s="8"/>
       <c r="E867" s="8"/>
       <c r="G867" s="8"/>
-      <c r="H867" s="11"/>
+      <c r="H867" s="8"/>
     </row>
     <row r="868">
       <c r="B868" s="8"/>
@@ -13145,7 +13215,7 @@
       <c r="D868" s="8"/>
       <c r="E868" s="8"/>
       <c r="G868" s="8"/>
-      <c r="H868" s="11"/>
+      <c r="H868" s="8"/>
     </row>
     <row r="869">
       <c r="B869" s="8"/>
@@ -13153,7 +13223,7 @@
       <c r="D869" s="8"/>
       <c r="E869" s="8"/>
       <c r="G869" s="8"/>
-      <c r="H869" s="11"/>
+      <c r="H869" s="8"/>
     </row>
     <row r="870">
       <c r="B870" s="8"/>
@@ -13161,7 +13231,7 @@
       <c r="D870" s="8"/>
       <c r="E870" s="8"/>
       <c r="G870" s="8"/>
-      <c r="H870" s="11"/>
+      <c r="H870" s="8"/>
     </row>
     <row r="871">
       <c r="B871" s="8"/>
@@ -13169,7 +13239,7 @@
       <c r="D871" s="8"/>
       <c r="E871" s="8"/>
       <c r="G871" s="8"/>
-      <c r="H871" s="11"/>
+      <c r="H871" s="8"/>
     </row>
     <row r="872">
       <c r="B872" s="8"/>
@@ -13177,7 +13247,7 @@
       <c r="D872" s="8"/>
       <c r="E872" s="8"/>
       <c r="G872" s="8"/>
-      <c r="H872" s="11"/>
+      <c r="H872" s="8"/>
     </row>
     <row r="873">
       <c r="B873" s="8"/>
@@ -13185,7 +13255,7 @@
       <c r="D873" s="8"/>
       <c r="E873" s="8"/>
       <c r="G873" s="8"/>
-      <c r="H873" s="11"/>
+      <c r="H873" s="8"/>
     </row>
     <row r="874">
       <c r="B874" s="8"/>
@@ -13193,7 +13263,7 @@
       <c r="D874" s="8"/>
       <c r="E874" s="8"/>
       <c r="G874" s="8"/>
-      <c r="H874" s="11"/>
+      <c r="H874" s="8"/>
     </row>
     <row r="875">
       <c r="B875" s="8"/>
@@ -13201,7 +13271,7 @@
       <c r="D875" s="8"/>
       <c r="E875" s="8"/>
       <c r="G875" s="8"/>
-      <c r="H875" s="11"/>
+      <c r="H875" s="8"/>
     </row>
     <row r="876">
       <c r="B876" s="8"/>
@@ -13209,7 +13279,7 @@
       <c r="D876" s="8"/>
       <c r="E876" s="8"/>
       <c r="G876" s="8"/>
-      <c r="H876" s="11"/>
+      <c r="H876" s="8"/>
     </row>
     <row r="877">
       <c r="B877" s="8"/>
@@ -13217,7 +13287,7 @@
       <c r="D877" s="8"/>
       <c r="E877" s="8"/>
       <c r="G877" s="8"/>
-      <c r="H877" s="11"/>
+      <c r="H877" s="8"/>
     </row>
     <row r="878">
       <c r="B878" s="8"/>
@@ -13225,7 +13295,7 @@
       <c r="D878" s="8"/>
       <c r="E878" s="8"/>
       <c r="G878" s="8"/>
-      <c r="H878" s="11"/>
+      <c r="H878" s="8"/>
     </row>
     <row r="879">
       <c r="B879" s="8"/>
@@ -13233,7 +13303,7 @@
       <c r="D879" s="8"/>
       <c r="E879" s="8"/>
       <c r="G879" s="8"/>
-      <c r="H879" s="11"/>
+      <c r="H879" s="8"/>
     </row>
     <row r="880">
       <c r="B880" s="8"/>
@@ -13241,7 +13311,7 @@
       <c r="D880" s="8"/>
       <c r="E880" s="8"/>
       <c r="G880" s="8"/>
-      <c r="H880" s="11"/>
+      <c r="H880" s="8"/>
     </row>
     <row r="881">
       <c r="B881" s="8"/>
@@ -13249,7 +13319,7 @@
       <c r="D881" s="8"/>
       <c r="E881" s="8"/>
       <c r="G881" s="8"/>
-      <c r="H881" s="11"/>
+      <c r="H881" s="8"/>
     </row>
     <row r="882">
       <c r="B882" s="8"/>
@@ -13257,7 +13327,7 @@
       <c r="D882" s="8"/>
       <c r="E882" s="8"/>
       <c r="G882" s="8"/>
-      <c r="H882" s="11"/>
+      <c r="H882" s="8"/>
     </row>
     <row r="883">
       <c r="B883" s="8"/>
@@ -13265,7 +13335,7 @@
       <c r="D883" s="8"/>
       <c r="E883" s="8"/>
       <c r="G883" s="8"/>
-      <c r="H883" s="11"/>
+      <c r="H883" s="8"/>
     </row>
     <row r="884">
       <c r="B884" s="8"/>
@@ -13273,7 +13343,7 @@
       <c r="D884" s="8"/>
       <c r="E884" s="8"/>
       <c r="G884" s="8"/>
-      <c r="H884" s="11"/>
+      <c r="H884" s="8"/>
     </row>
     <row r="885">
       <c r="B885" s="8"/>
@@ -13281,7 +13351,7 @@
       <c r="D885" s="8"/>
       <c r="E885" s="8"/>
       <c r="G885" s="8"/>
-      <c r="H885" s="11"/>
+      <c r="H885" s="8"/>
     </row>
     <row r="886">
       <c r="B886" s="8"/>
@@ -13289,7 +13359,7 @@
       <c r="D886" s="8"/>
       <c r="E886" s="8"/>
       <c r="G886" s="8"/>
-      <c r="H886" s="11"/>
+      <c r="H886" s="8"/>
     </row>
     <row r="887">
       <c r="B887" s="8"/>
@@ -13297,7 +13367,7 @@
       <c r="D887" s="8"/>
       <c r="E887" s="8"/>
       <c r="G887" s="8"/>
-      <c r="H887" s="11"/>
+      <c r="H887" s="8"/>
     </row>
     <row r="888">
       <c r="B888" s="8"/>
@@ -13305,7 +13375,7 @@
       <c r="D888" s="8"/>
       <c r="E888" s="8"/>
       <c r="G888" s="8"/>
-      <c r="H888" s="11"/>
+      <c r="H888" s="8"/>
     </row>
     <row r="889">
       <c r="B889" s="8"/>
@@ -13313,7 +13383,7 @@
       <c r="D889" s="8"/>
       <c r="E889" s="8"/>
       <c r="G889" s="8"/>
-      <c r="H889" s="11"/>
+      <c r="H889" s="8"/>
     </row>
     <row r="890">
       <c r="B890" s="8"/>
@@ -13321,7 +13391,7 @@
       <c r="D890" s="8"/>
       <c r="E890" s="8"/>
       <c r="G890" s="8"/>
-      <c r="H890" s="11"/>
+      <c r="H890" s="8"/>
     </row>
     <row r="891">
       <c r="B891" s="8"/>
@@ -13329,7 +13399,7 @@
       <c r="D891" s="8"/>
       <c r="E891" s="8"/>
       <c r="G891" s="8"/>
-      <c r="H891" s="11"/>
+      <c r="H891" s="8"/>
     </row>
     <row r="892">
       <c r="B892" s="8"/>
@@ -13337,7 +13407,7 @@
       <c r="D892" s="8"/>
       <c r="E892" s="8"/>
       <c r="G892" s="8"/>
-      <c r="H892" s="11"/>
+      <c r="H892" s="8"/>
     </row>
     <row r="893">
       <c r="B893" s="8"/>
@@ -13345,7 +13415,7 @@
       <c r="D893" s="8"/>
       <c r="E893" s="8"/>
       <c r="G893" s="8"/>
-      <c r="H893" s="11"/>
+      <c r="H893" s="8"/>
     </row>
     <row r="894">
       <c r="B894" s="8"/>
@@ -13353,7 +13423,7 @@
       <c r="D894" s="8"/>
       <c r="E894" s="8"/>
       <c r="G894" s="8"/>
-      <c r="H894" s="11"/>
+      <c r="H894" s="8"/>
     </row>
     <row r="895">
       <c r="B895" s="8"/>
@@ -13361,7 +13431,7 @@
       <c r="D895" s="8"/>
       <c r="E895" s="8"/>
       <c r="G895" s="8"/>
-      <c r="H895" s="11"/>
+      <c r="H895" s="8"/>
     </row>
     <row r="896">
       <c r="B896" s="8"/>
@@ -13369,7 +13439,7 @@
       <c r="D896" s="8"/>
       <c r="E896" s="8"/>
       <c r="G896" s="8"/>
-      <c r="H896" s="11"/>
+      <c r="H896" s="8"/>
     </row>
     <row r="897">
       <c r="B897" s="8"/>
@@ -13377,7 +13447,7 @@
       <c r="D897" s="8"/>
       <c r="E897" s="8"/>
       <c r="G897" s="8"/>
-      <c r="H897" s="11"/>
+      <c r="H897" s="8"/>
     </row>
     <row r="898">
       <c r="B898" s="8"/>
@@ -13385,7 +13455,7 @@
       <c r="D898" s="8"/>
       <c r="E898" s="8"/>
       <c r="G898" s="8"/>
-      <c r="H898" s="11"/>
+      <c r="H898" s="8"/>
     </row>
     <row r="899">
       <c r="B899" s="8"/>
@@ -13393,7 +13463,7 @@
       <c r="D899" s="8"/>
       <c r="E899" s="8"/>
       <c r="G899" s="8"/>
-      <c r="H899" s="11"/>
+      <c r="H899" s="8"/>
     </row>
     <row r="900">
       <c r="B900" s="8"/>
@@ -13401,7 +13471,7 @@
       <c r="D900" s="8"/>
       <c r="E900" s="8"/>
       <c r="G900" s="8"/>
-      <c r="H900" s="11"/>
+      <c r="H900" s="8"/>
     </row>
     <row r="901">
       <c r="B901" s="8"/>
@@ -13409,7 +13479,7 @@
       <c r="D901" s="8"/>
       <c r="E901" s="8"/>
       <c r="G901" s="8"/>
-      <c r="H901" s="11"/>
+      <c r="H901" s="8"/>
     </row>
     <row r="902">
       <c r="B902" s="8"/>
@@ -13417,7 +13487,7 @@
       <c r="D902" s="8"/>
       <c r="E902" s="8"/>
       <c r="G902" s="8"/>
-      <c r="H902" s="11"/>
+      <c r="H902" s="8"/>
     </row>
     <row r="903">
       <c r="B903" s="8"/>
@@ -13425,7 +13495,7 @@
       <c r="D903" s="8"/>
       <c r="E903" s="8"/>
       <c r="G903" s="8"/>
-      <c r="H903" s="11"/>
+      <c r="H903" s="8"/>
     </row>
     <row r="904">
       <c r="B904" s="8"/>
@@ -13433,7 +13503,7 @@
       <c r="D904" s="8"/>
       <c r="E904" s="8"/>
       <c r="G904" s="8"/>
-      <c r="H904" s="11"/>
+      <c r="H904" s="8"/>
     </row>
     <row r="905">
       <c r="B905" s="8"/>
@@ -13441,7 +13511,7 @@
       <c r="D905" s="8"/>
       <c r="E905" s="8"/>
       <c r="G905" s="8"/>
-      <c r="H905" s="11"/>
+      <c r="H905" s="8"/>
     </row>
     <row r="906">
       <c r="B906" s="8"/>
@@ -13449,7 +13519,7 @@
       <c r="D906" s="8"/>
       <c r="E906" s="8"/>
       <c r="G906" s="8"/>
-      <c r="H906" s="11"/>
+      <c r="H906" s="8"/>
     </row>
     <row r="907">
       <c r="B907" s="8"/>
@@ -13457,7 +13527,7 @@
       <c r="D907" s="8"/>
       <c r="E907" s="8"/>
       <c r="G907" s="8"/>
-      <c r="H907" s="11"/>
+      <c r="H907" s="8"/>
     </row>
     <row r="908">
       <c r="B908" s="8"/>
@@ -13465,7 +13535,7 @@
       <c r="D908" s="8"/>
       <c r="E908" s="8"/>
       <c r="G908" s="8"/>
-      <c r="H908" s="11"/>
+      <c r="H908" s="8"/>
     </row>
     <row r="909">
       <c r="B909" s="8"/>
@@ -13473,7 +13543,7 @@
       <c r="D909" s="8"/>
       <c r="E909" s="8"/>
       <c r="G909" s="8"/>
-      <c r="H909" s="11"/>
+      <c r="H909" s="8"/>
     </row>
     <row r="910">
       <c r="B910" s="8"/>
@@ -13481,7 +13551,7 @@
       <c r="D910" s="8"/>
       <c r="E910" s="8"/>
       <c r="G910" s="8"/>
-      <c r="H910" s="11"/>
+      <c r="H910" s="8"/>
     </row>
     <row r="911">
       <c r="B911" s="8"/>
@@ -13489,7 +13559,7 @@
       <c r="D911" s="8"/>
       <c r="E911" s="8"/>
       <c r="G911" s="8"/>
-      <c r="H911" s="11"/>
+      <c r="H911" s="8"/>
     </row>
     <row r="912">
       <c r="B912" s="8"/>
@@ -13497,7 +13567,7 @@
       <c r="D912" s="8"/>
       <c r="E912" s="8"/>
       <c r="G912" s="8"/>
-      <c r="H912" s="11"/>
+      <c r="H912" s="8"/>
     </row>
     <row r="913">
       <c r="B913" s="8"/>
@@ -13505,7 +13575,7 @@
       <c r="D913" s="8"/>
       <c r="E913" s="8"/>
       <c r="G913" s="8"/>
-      <c r="H913" s="11"/>
+      <c r="H913" s="8"/>
     </row>
     <row r="914">
       <c r="B914" s="8"/>
@@ -13513,7 +13583,7 @@
       <c r="D914" s="8"/>
       <c r="E914" s="8"/>
       <c r="G914" s="8"/>
-      <c r="H914" s="11"/>
+      <c r="H914" s="8"/>
     </row>
     <row r="915">
       <c r="B915" s="8"/>
@@ -13521,7 +13591,7 @@
       <c r="D915" s="8"/>
       <c r="E915" s="8"/>
       <c r="G915" s="8"/>
-      <c r="H915" s="11"/>
+      <c r="H915" s="8"/>
     </row>
     <row r="916">
       <c r="B916" s="8"/>
@@ -13529,7 +13599,7 @@
       <c r="D916" s="8"/>
       <c r="E916" s="8"/>
       <c r="G916" s="8"/>
-      <c r="H916" s="11"/>
+      <c r="H916" s="8"/>
     </row>
     <row r="917">
       <c r="B917" s="8"/>
@@ -13537,7 +13607,7 @@
       <c r="D917" s="8"/>
       <c r="E917" s="8"/>
       <c r="G917" s="8"/>
-      <c r="H917" s="11"/>
+      <c r="H917" s="8"/>
     </row>
     <row r="918">
       <c r="B918" s="8"/>
@@ -13545,7 +13615,7 @@
       <c r="D918" s="8"/>
       <c r="E918" s="8"/>
       <c r="G918" s="8"/>
-      <c r="H918" s="11"/>
+      <c r="H918" s="8"/>
     </row>
     <row r="919">
       <c r="B919" s="8"/>
@@ -13553,7 +13623,7 @@
       <c r="D919" s="8"/>
       <c r="E919" s="8"/>
       <c r="G919" s="8"/>
-      <c r="H919" s="11"/>
+      <c r="H919" s="8"/>
     </row>
     <row r="920">
       <c r="B920" s="8"/>
@@ -13561,7 +13631,7 @@
       <c r="D920" s="8"/>
       <c r="E920" s="8"/>
       <c r="G920" s="8"/>
-      <c r="H920" s="11"/>
+      <c r="H920" s="8"/>
     </row>
     <row r="921">
       <c r="B921" s="8"/>
@@ -13569,7 +13639,7 @@
       <c r="D921" s="8"/>
       <c r="E921" s="8"/>
       <c r="G921" s="8"/>
-      <c r="H921" s="11"/>
+      <c r="H921" s="8"/>
     </row>
     <row r="922">
       <c r="B922" s="8"/>
@@ -13577,7 +13647,7 @@
       <c r="D922" s="8"/>
       <c r="E922" s="8"/>
       <c r="G922" s="8"/>
-      <c r="H922" s="11"/>
+      <c r="H922" s="8"/>
     </row>
     <row r="923">
       <c r="B923" s="8"/>
@@ -13585,7 +13655,7 @@
       <c r="D923" s="8"/>
       <c r="E923" s="8"/>
       <c r="G923" s="8"/>
-      <c r="H923" s="11"/>
+      <c r="H923" s="8"/>
     </row>
     <row r="924">
       <c r="B924" s="8"/>
@@ -13593,7 +13663,7 @@
       <c r="D924" s="8"/>
       <c r="E924" s="8"/>
       <c r="G924" s="8"/>
-      <c r="H924" s="11"/>
+      <c r="H924" s="8"/>
     </row>
     <row r="925">
       <c r="B925" s="8"/>
@@ -13601,7 +13671,7 @@
       <c r="D925" s="8"/>
       <c r="E925" s="8"/>
       <c r="G925" s="8"/>
-      <c r="H925" s="11"/>
+      <c r="H925" s="8"/>
     </row>
     <row r="926">
       <c r="B926" s="8"/>
@@ -13609,7 +13679,7 @@
       <c r="D926" s="8"/>
       <c r="E926" s="8"/>
       <c r="G926" s="8"/>
-      <c r="H926" s="11"/>
+      <c r="H926" s="8"/>
     </row>
     <row r="927">
       <c r="B927" s="8"/>
@@ -13617,7 +13687,7 @@
       <c r="D927" s="8"/>
       <c r="E927" s="8"/>
       <c r="G927" s="8"/>
-      <c r="H927" s="11"/>
+      <c r="H927" s="8"/>
     </row>
     <row r="928">
       <c r="B928" s="8"/>
@@ -13625,7 +13695,7 @@
       <c r="D928" s="8"/>
       <c r="E928" s="8"/>
       <c r="G928" s="8"/>
-      <c r="H928" s="11"/>
+      <c r="H928" s="8"/>
     </row>
     <row r="929">
       <c r="B929" s="8"/>
@@ -13633,7 +13703,7 @@
       <c r="D929" s="8"/>
       <c r="E929" s="8"/>
       <c r="G929" s="8"/>
-      <c r="H929" s="11"/>
+      <c r="H929" s="8"/>
     </row>
     <row r="930">
       <c r="B930" s="8"/>
@@ -13641,7 +13711,7 @@
       <c r="D930" s="8"/>
       <c r="E930" s="8"/>
       <c r="G930" s="8"/>
-      <c r="H930" s="11"/>
+      <c r="H930" s="8"/>
     </row>
     <row r="931">
       <c r="B931" s="8"/>
@@ -13649,7 +13719,7 @@
       <c r="D931" s="8"/>
       <c r="E931" s="8"/>
       <c r="G931" s="8"/>
-      <c r="H931" s="11"/>
+      <c r="H931" s="8"/>
     </row>
     <row r="932">
       <c r="B932" s="8"/>
@@ -13657,7 +13727,7 @@
       <c r="D932" s="8"/>
       <c r="E932" s="8"/>
       <c r="G932" s="8"/>
-      <c r="H932" s="11"/>
+      <c r="H932" s="8"/>
     </row>
     <row r="933">
       <c r="B933" s="8"/>
@@ -13665,7 +13735,7 @@
       <c r="D933" s="8"/>
       <c r="E933" s="8"/>
       <c r="G933" s="8"/>
-      <c r="H933" s="11"/>
+      <c r="H933" s="8"/>
     </row>
     <row r="934">
       <c r="B934" s="8"/>
@@ -13673,7 +13743,7 @@
       <c r="D934" s="8"/>
       <c r="E934" s="8"/>
       <c r="G934" s="8"/>
-      <c r="H934" s="11"/>
+      <c r="H934" s="8"/>
     </row>
     <row r="935">
       <c r="B935" s="8"/>
@@ -13681,7 +13751,7 @@
       <c r="D935" s="8"/>
       <c r="E935" s="8"/>
       <c r="G935" s="8"/>
-      <c r="H935" s="11"/>
+      <c r="H935" s="8"/>
     </row>
     <row r="936">
       <c r="B936" s="8"/>
@@ -13689,7 +13759,7 @@
       <c r="D936" s="8"/>
       <c r="E936" s="8"/>
       <c r="G936" s="8"/>
-      <c r="H936" s="11"/>
+      <c r="H936" s="8"/>
     </row>
     <row r="937">
       <c r="B937" s="8"/>
@@ -13697,7 +13767,7 @@
       <c r="D937" s="8"/>
       <c r="E937" s="8"/>
       <c r="G937" s="8"/>
-      <c r="H937" s="11"/>
+      <c r="H937" s="8"/>
     </row>
     <row r="938">
       <c r="B938" s="8"/>
@@ -13705,7 +13775,7 @@
       <c r="D938" s="8"/>
       <c r="E938" s="8"/>
       <c r="G938" s="8"/>
-      <c r="H938" s="11"/>
+      <c r="H938" s="8"/>
     </row>
     <row r="939">
       <c r="B939" s="8"/>
@@ -13713,7 +13783,7 @@
       <c r="D939" s="8"/>
       <c r="E939" s="8"/>
       <c r="G939" s="8"/>
-      <c r="H939" s="11"/>
+      <c r="H939" s="8"/>
     </row>
     <row r="940">
       <c r="B940" s="8"/>
@@ -13721,7 +13791,7 @@
       <c r="D940" s="8"/>
       <c r="E940" s="8"/>
       <c r="G940" s="8"/>
-      <c r="H940" s="11"/>
+      <c r="H940" s="8"/>
     </row>
     <row r="941">
       <c r="B941" s="8"/>
@@ -13729,7 +13799,7 @@
       <c r="D941" s="8"/>
       <c r="E941" s="8"/>
       <c r="G941" s="8"/>
-      <c r="H941" s="11"/>
+      <c r="H941" s="8"/>
     </row>
     <row r="942">
       <c r="B942" s="8"/>
@@ -13737,7 +13807,7 @@
       <c r="D942" s="8"/>
       <c r="E942" s="8"/>
       <c r="G942" s="8"/>
-      <c r="H942" s="11"/>
+      <c r="H942" s="8"/>
     </row>
     <row r="943">
       <c r="B943" s="8"/>
@@ -13745,7 +13815,7 @@
       <c r="D943" s="8"/>
       <c r="E943" s="8"/>
       <c r="G943" s="8"/>
-      <c r="H943" s="11"/>
+      <c r="H943" s="8"/>
     </row>
     <row r="944">
       <c r="B944" s="8"/>
@@ -13753,7 +13823,7 @@
       <c r="D944" s="8"/>
       <c r="E944" s="8"/>
       <c r="G944" s="8"/>
-      <c r="H944" s="11"/>
+      <c r="H944" s="8"/>
     </row>
     <row r="945">
       <c r="B945" s="8"/>
@@ -13761,7 +13831,7 @@
       <c r="D945" s="8"/>
       <c r="E945" s="8"/>
       <c r="G945" s="8"/>
-      <c r="H945" s="11"/>
+      <c r="H945" s="8"/>
     </row>
     <row r="946">
       <c r="B946" s="8"/>
@@ -13769,7 +13839,7 @@
       <c r="D946" s="8"/>
       <c r="E946" s="8"/>
       <c r="G946" s="8"/>
-      <c r="H946" s="11"/>
+      <c r="H946" s="8"/>
     </row>
     <row r="947">
       <c r="B947" s="8"/>
@@ -13777,7 +13847,7 @@
       <c r="D947" s="8"/>
       <c r="E947" s="8"/>
       <c r="G947" s="8"/>
-      <c r="H947" s="11"/>
+      <c r="H947" s="8"/>
     </row>
     <row r="948">
       <c r="B948" s="8"/>
@@ -13785,7 +13855,7 @@
       <c r="D948" s="8"/>
       <c r="E948" s="8"/>
       <c r="G948" s="8"/>
-      <c r="H948" s="11"/>
+      <c r="H948" s="8"/>
     </row>
     <row r="949">
       <c r="B949" s="8"/>
@@ -13793,7 +13863,7 @@
       <c r="D949" s="8"/>
       <c r="E949" s="8"/>
       <c r="G949" s="8"/>
-      <c r="H949" s="11"/>
+      <c r="H949" s="8"/>
     </row>
     <row r="950">
       <c r="B950" s="8"/>
@@ -13801,7 +13871,7 @@
       <c r="D950" s="8"/>
       <c r="E950" s="8"/>
       <c r="G950" s="8"/>
-      <c r="H950" s="11"/>
+      <c r="H950" s="8"/>
     </row>
     <row r="951">
       <c r="B951" s="8"/>
@@ -13809,7 +13879,7 @@
       <c r="D951" s="8"/>
       <c r="E951" s="8"/>
       <c r="G951" s="8"/>
-      <c r="H951" s="11"/>
+      <c r="H951" s="8"/>
     </row>
     <row r="952">
       <c r="B952" s="8"/>
@@ -13817,7 +13887,7 @@
       <c r="D952" s="8"/>
       <c r="E952" s="8"/>
       <c r="G952" s="8"/>
-      <c r="H952" s="11"/>
+      <c r="H952" s="8"/>
     </row>
     <row r="953">
       <c r="B953" s="8"/>
@@ -13825,7 +13895,7 @@
       <c r="D953" s="8"/>
       <c r="E953" s="8"/>
       <c r="G953" s="8"/>
-      <c r="H953" s="11"/>
+      <c r="H953" s="8"/>
     </row>
     <row r="954">
       <c r="B954" s="8"/>
@@ -13833,7 +13903,7 @@
       <c r="D954" s="8"/>
       <c r="E954" s="8"/>
       <c r="G954" s="8"/>
-      <c r="H954" s="11"/>
+      <c r="H954" s="8"/>
     </row>
     <row r="955">
       <c r="B955" s="8"/>
@@ -13841,7 +13911,7 @@
       <c r="D955" s="8"/>
       <c r="E955" s="8"/>
       <c r="G955" s="8"/>
-      <c r="H955" s="11"/>
+      <c r="H955" s="8"/>
     </row>
     <row r="956">
       <c r="B956" s="8"/>
@@ -13849,7 +13919,7 @@
       <c r="D956" s="8"/>
       <c r="E956" s="8"/>
       <c r="G956" s="8"/>
-      <c r="H956" s="11"/>
+      <c r="H956" s="8"/>
     </row>
     <row r="957">
       <c r="B957" s="8"/>
@@ -13857,7 +13927,7 @@
       <c r="D957" s="8"/>
       <c r="E957" s="8"/>
       <c r="G957" s="8"/>
-      <c r="H957" s="11"/>
+      <c r="H957" s="8"/>
     </row>
     <row r="958">
       <c r="B958" s="8"/>
@@ -13865,7 +13935,7 @@
       <c r="D958" s="8"/>
       <c r="E958" s="8"/>
       <c r="G958" s="8"/>
-      <c r="H958" s="11"/>
+      <c r="H958" s="8"/>
     </row>
     <row r="959">
       <c r="B959" s="8"/>
@@ -13873,7 +13943,7 @@
       <c r="D959" s="8"/>
       <c r="E959" s="8"/>
       <c r="G959" s="8"/>
-      <c r="H959" s="11"/>
+      <c r="H959" s="8"/>
     </row>
     <row r="960">
       <c r="B960" s="8"/>
@@ -13881,7 +13951,7 @@
       <c r="D960" s="8"/>
       <c r="E960" s="8"/>
       <c r="G960" s="8"/>
-      <c r="H960" s="11"/>
+      <c r="H960" s="8"/>
     </row>
     <row r="961">
       <c r="B961" s="8"/>
@@ -13889,7 +13959,7 @@
       <c r="D961" s="8"/>
       <c r="E961" s="8"/>
       <c r="G961" s="8"/>
-      <c r="H961" s="11"/>
+      <c r="H961" s="8"/>
     </row>
     <row r="962">
       <c r="B962" s="8"/>
@@ -13897,7 +13967,7 @@
       <c r="D962" s="8"/>
       <c r="E962" s="8"/>
       <c r="G962" s="8"/>
-      <c r="H962" s="11"/>
+      <c r="H962" s="8"/>
     </row>
     <row r="963">
       <c r="B963" s="8"/>
@@ -13905,7 +13975,7 @@
       <c r="D963" s="8"/>
       <c r="E963" s="8"/>
       <c r="G963" s="8"/>
-      <c r="H963" s="11"/>
+      <c r="H963" s="8"/>
     </row>
     <row r="964">
       <c r="B964" s="8"/>
@@ -13913,7 +13983,7 @@
       <c r="D964" s="8"/>
       <c r="E964" s="8"/>
       <c r="G964" s="8"/>
-      <c r="H964" s="11"/>
+      <c r="H964" s="8"/>
     </row>
     <row r="965">
       <c r="B965" s="8"/>
@@ -13921,7 +13991,7 @@
       <c r="D965" s="8"/>
       <c r="E965" s="8"/>
       <c r="G965" s="8"/>
-      <c r="H965" s="11"/>
+      <c r="H965" s="8"/>
     </row>
     <row r="966">
       <c r="B966" s="8"/>
@@ -13929,7 +13999,7 @@
       <c r="D966" s="8"/>
       <c r="E966" s="8"/>
       <c r="G966" s="8"/>
-      <c r="H966" s="11"/>
+      <c r="H966" s="8"/>
     </row>
     <row r="967">
       <c r="B967" s="8"/>
@@ -13937,7 +14007,7 @@
       <c r="D967" s="8"/>
       <c r="E967" s="8"/>
       <c r="G967" s="8"/>
-      <c r="H967" s="11"/>
+      <c r="H967" s="8"/>
     </row>
     <row r="968">
       <c r="B968" s="8"/>
@@ -13945,7 +14015,7 @@
       <c r="D968" s="8"/>
       <c r="E968" s="8"/>
       <c r="G968" s="8"/>
-      <c r="H968" s="11"/>
+      <c r="H968" s="8"/>
     </row>
     <row r="969">
       <c r="B969" s="8"/>
@@ -13953,7 +14023,7 @@
       <c r="D969" s="8"/>
       <c r="E969" s="8"/>
       <c r="G969" s="8"/>
-      <c r="H969" s="11"/>
+      <c r="H969" s="8"/>
     </row>
     <row r="970">
       <c r="B970" s="8"/>
@@ -13961,7 +14031,7 @@
       <c r="D970" s="8"/>
       <c r="E970" s="8"/>
       <c r="G970" s="8"/>
-      <c r="H970" s="11"/>
+      <c r="H970" s="8"/>
     </row>
     <row r="971">
       <c r="B971" s="8"/>
@@ -13969,7 +14039,7 @@
       <c r="D971" s="8"/>
       <c r="E971" s="8"/>
       <c r="G971" s="8"/>
-      <c r="H971" s="11"/>
+      <c r="H971" s="8"/>
     </row>
     <row r="972">
       <c r="B972" s="8"/>
@@ -13977,7 +14047,7 @@
       <c r="D972" s="8"/>
       <c r="E972" s="8"/>
       <c r="G972" s="8"/>
-      <c r="H972" s="11"/>
+      <c r="H972" s="8"/>
     </row>
     <row r="973">
       <c r="B973" s="8"/>
@@ -13985,7 +14055,7 @@
       <c r="D973" s="8"/>
       <c r="E973" s="8"/>
       <c r="G973" s="8"/>
-      <c r="H973" s="11"/>
+      <c r="H973" s="8"/>
     </row>
     <row r="974">
       <c r="B974" s="8"/>
@@ -13993,7 +14063,7 @@
       <c r="D974" s="8"/>
       <c r="E974" s="8"/>
       <c r="G974" s="8"/>
-      <c r="H974" s="11"/>
+      <c r="H974" s="8"/>
     </row>
     <row r="975">
       <c r="B975" s="8"/>
@@ -14001,7 +14071,7 @@
       <c r="D975" s="8"/>
       <c r="E975" s="8"/>
       <c r="G975" s="8"/>
-      <c r="H975" s="11"/>
+      <c r="H975" s="8"/>
     </row>
     <row r="976">
       <c r="B976" s="8"/>
@@ -14009,7 +14079,7 @@
       <c r="D976" s="8"/>
       <c r="E976" s="8"/>
       <c r="G976" s="8"/>
-      <c r="H976" s="11"/>
+      <c r="H976" s="8"/>
     </row>
     <row r="977">
       <c r="B977" s="8"/>
@@ -14017,7 +14087,7 @@
       <c r="D977" s="8"/>
       <c r="E977" s="8"/>
       <c r="G977" s="8"/>
-      <c r="H977" s="11"/>
+      <c r="H977" s="8"/>
     </row>
     <row r="978">
       <c r="B978" s="8"/>
@@ -14025,7 +14095,7 @@
       <c r="D978" s="8"/>
       <c r="E978" s="8"/>
       <c r="G978" s="8"/>
-      <c r="H978" s="11"/>
+      <c r="H978" s="8"/>
     </row>
     <row r="979">
       <c r="B979" s="8"/>
@@ -14033,7 +14103,7 @@
       <c r="D979" s="8"/>
       <c r="E979" s="8"/>
       <c r="G979" s="8"/>
-      <c r="H979" s="11"/>
+      <c r="H979" s="8"/>
     </row>
     <row r="980">
       <c r="B980" s="8"/>
@@ -14041,7 +14111,7 @@
       <c r="D980" s="8"/>
       <c r="E980" s="8"/>
       <c r="G980" s="8"/>
-      <c r="H980" s="11"/>
+      <c r="H980" s="8"/>
     </row>
     <row r="981">
       <c r="B981" s="8"/>
@@ -14049,7 +14119,7 @@
       <c r="D981" s="8"/>
       <c r="E981" s="8"/>
       <c r="G981" s="8"/>
-      <c r="H981" s="11"/>
+      <c r="H981" s="8"/>
     </row>
     <row r="982">
       <c r="B982" s="8"/>
@@ -14057,7 +14127,7 @@
       <c r="D982" s="8"/>
       <c r="E982" s="8"/>
       <c r="G982" s="8"/>
-      <c r="H982" s="11"/>
+      <c r="H982" s="8"/>
     </row>
     <row r="983">
       <c r="B983" s="8"/>
@@ -14065,7 +14135,7 @@
       <c r="D983" s="8"/>
       <c r="E983" s="8"/>
       <c r="G983" s="8"/>
-      <c r="H983" s="11"/>
+      <c r="H983" s="8"/>
     </row>
     <row r="984">
       <c r="B984" s="8"/>
@@ -14073,7 +14143,7 @@
       <c r="D984" s="8"/>
       <c r="E984" s="8"/>
       <c r="G984" s="8"/>
-      <c r="H984" s="11"/>
+      <c r="H984" s="8"/>
     </row>
     <row r="985">
       <c r="B985" s="8"/>
@@ -14081,7 +14151,7 @@
       <c r="D985" s="8"/>
       <c r="E985" s="8"/>
       <c r="G985" s="8"/>
-      <c r="H985" s="11"/>
+      <c r="H985" s="8"/>
     </row>
     <row r="986">
       <c r="B986" s="8"/>
@@ -14089,7 +14159,7 @@
       <c r="D986" s="8"/>
       <c r="E986" s="8"/>
       <c r="G986" s="8"/>
-      <c r="H986" s="11"/>
+      <c r="H986" s="8"/>
     </row>
     <row r="987">
       <c r="B987" s="8"/>
@@ -14097,7 +14167,7 @@
       <c r="D987" s="8"/>
       <c r="E987" s="8"/>
       <c r="G987" s="8"/>
-      <c r="H987" s="11"/>
+      <c r="H987" s="8"/>
     </row>
     <row r="988">
       <c r="B988" s="8"/>
@@ -14105,7 +14175,7 @@
       <c r="D988" s="8"/>
       <c r="E988" s="8"/>
       <c r="G988" s="8"/>
-      <c r="H988" s="11"/>
+      <c r="H988" s="8"/>
     </row>
     <row r="989">
       <c r="B989" s="8"/>
@@ -14113,7 +14183,7 @@
       <c r="D989" s="8"/>
       <c r="E989" s="8"/>
       <c r="G989" s="8"/>
-      <c r="H989" s="11"/>
+      <c r="H989" s="8"/>
     </row>
     <row r="990">
       <c r="B990" s="8"/>
@@ -14121,7 +14191,7 @@
       <c r="D990" s="8"/>
       <c r="E990" s="8"/>
       <c r="G990" s="8"/>
-      <c r="H990" s="11"/>
+      <c r="H990" s="8"/>
     </row>
     <row r="991">
       <c r="B991" s="8"/>
@@ -14129,7 +14199,7 @@
       <c r="D991" s="8"/>
       <c r="E991" s="8"/>
       <c r="G991" s="8"/>
-      <c r="H991" s="11"/>
+      <c r="H991" s="8"/>
     </row>
     <row r="992">
       <c r="B992" s="8"/>
@@ -14137,7 +14207,7 @@
       <c r="D992" s="8"/>
       <c r="E992" s="8"/>
       <c r="G992" s="8"/>
-      <c r="H992" s="11"/>
+      <c r="H992" s="8"/>
     </row>
     <row r="993">
       <c r="B993" s="8"/>
@@ -14145,7 +14215,7 @@
       <c r="D993" s="8"/>
       <c r="E993" s="8"/>
       <c r="G993" s="8"/>
-      <c r="H993" s="11"/>
+      <c r="H993" s="8"/>
     </row>
     <row r="994">
       <c r="B994" s="8"/>
@@ -14153,7 +14223,7 @@
       <c r="D994" s="8"/>
       <c r="E994" s="8"/>
       <c r="G994" s="8"/>
-      <c r="H994" s="11"/>
+      <c r="H994" s="8"/>
     </row>
     <row r="995">
       <c r="B995" s="8"/>
@@ -14161,7 +14231,7 @@
       <c r="D995" s="8"/>
       <c r="E995" s="8"/>
       <c r="G995" s="8"/>
-      <c r="H995" s="11"/>
+      <c r="H995" s="8"/>
     </row>
     <row r="996">
       <c r="B996" s="8"/>
@@ -14169,7 +14239,7 @@
       <c r="D996" s="8"/>
       <c r="E996" s="8"/>
       <c r="G996" s="8"/>
-      <c r="H996" s="11"/>
+      <c r="H996" s="8"/>
     </row>
     <row r="997">
       <c r="B997" s="8"/>
@@ -14177,7 +14247,7 @@
       <c r="D997" s="8"/>
       <c r="E997" s="8"/>
       <c r="G997" s="8"/>
-      <c r="H997" s="11"/>
+      <c r="H997" s="8"/>
     </row>
     <row r="998">
       <c r="B998" s="8"/>
@@ -14185,7 +14255,7 @@
       <c r="D998" s="8"/>
       <c r="E998" s="8"/>
       <c r="G998" s="8"/>
-      <c r="H998" s="11"/>
+      <c r="H998" s="8"/>
     </row>
     <row r="999">
       <c r="B999" s="8"/>
@@ -14193,7 +14263,7 @@
       <c r="D999" s="8"/>
       <c r="E999" s="8"/>
       <c r="G999" s="8"/>
-      <c r="H999" s="11"/>
+      <c r="H999" s="8"/>
     </row>
     <row r="1000">
       <c r="B1000" s="8"/>
@@ -14201,7 +14271,7 @@
       <c r="D1000" s="8"/>
       <c r="E1000" s="8"/>
       <c r="G1000" s="8"/>
-      <c r="H1000" s="11"/>
+      <c r="H1000" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -14255,23 +14325,23 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
     </row>
     <row r="2">
       <c r="A2" s="4">
@@ -14382,7 +14452,7 @@
       <c r="Z4" s="6"/>
     </row>
     <row r="5">
-      <c r="A5" s="10"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="5" t="s">
         <v>74</v>
@@ -14405,26 +14475,26 @@
       <c r="I5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
     </row>
     <row r="6">
-      <c r="A6" s="10"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -14436,24 +14506,24 @@
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
     </row>
     <row r="7">
       <c r="A7" s="6"/>
@@ -14798,15 +14868,33 @@
       <c r="Z16" s="6"/>
     </row>
     <row r="17">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
@@ -14830,8 +14918,12 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="E18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="6"/>
@@ -14858,7 +14950,9 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="E19" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -14886,7 +14980,9 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="E20" s="13" t="s">
+        <v>92</v>
+      </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -14910,15 +15006,33 @@
       <c r="Z20" s="6"/>
     </row>
     <row r="21">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="6"/>
+      <c r="A21" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
@@ -14942,7 +15056,9 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="E22" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -14970,7 +15086,9 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="E23" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -14998,7 +15116,9 @@
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="E24" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -15026,7 +15146,9 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="E25" s="13" t="s">
+        <v>99</v>
+      </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -15054,7 +15176,9 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="E26" s="13" t="s">
+        <v>100</v>
+      </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -15082,7 +15206,9 @@
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="E27" s="13" t="s">
+        <v>101</v>
+      </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -15110,7 +15236,9 @@
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+      <c r="E28" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -15138,7 +15266,9 @@
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="E29" s="13" t="s">
+        <v>103</v>
+      </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
